--- a/Pictures/allTotalReturns_excl_TC_hedge.xlsx
+++ b/Pictures/allTotalReturns_excl_TC_hedge.xlsx
@@ -533,10 +533,10 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.002269697261970448</v>
+        <v>0.002731380568804964</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.006436965294911889</v>
+        <v>-0.002145655098303963</v>
       </c>
       <c r="J3" t="n">
         <v>0.002269697261970448</v>
@@ -560,10 +560,10 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>-0.01534528536476939</v>
+        <v>-0.003181761788256463</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01096325359013508</v>
+        <v>0.003654417863378359</v>
       </c>
       <c r="J4" t="n">
         <v>-0.01534528536476939</v>
@@ -587,10 +587,10 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.01240018788207706</v>
+        <v>0.006280432997729391</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02397509731127809</v>
+        <v>0.007991699103759364</v>
       </c>
       <c r="J5" t="n">
         <v>0.01240018788207706</v>
@@ -606,7 +606,7 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>0.008986232390177979</v>
+        <v>0.00898623239017798</v>
       </c>
       <c r="E6" t="n">
         <v>-0.00858704121955323</v>
@@ -614,13 +614,13 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.008986232390177979</v>
+        <v>0.005053929315244511</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.00858704121955323</v>
+        <v>-0.002862347073184409</v>
       </c>
       <c r="J6" t="n">
-        <v>0.008986232390177979</v>
+        <v>0.00898623239017798</v>
       </c>
       <c r="K6" t="n">
         <v>-0.00858704121955323</v>
@@ -641,10 +641,10 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>-0.007449723706622746</v>
+        <v>0.0001506476533479745</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.003588127550875031</v>
+        <v>-0.001196042516958343</v>
       </c>
       <c r="J7" t="n">
         <v>-0.007449723706622746</v>
@@ -668,10 +668,10 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>-0.001026714290084958</v>
+        <v>0.002146650792193903</v>
       </c>
       <c r="I8" t="n">
-        <v>0.004041576306564322</v>
+        <v>0.001347192102188107</v>
       </c>
       <c r="J8" t="n">
         <v>-0.001026714290084958</v>
@@ -695,10 +695,10 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>0.01727619294517017</v>
+        <v>0.008410953203945613</v>
       </c>
       <c r="I9" t="n">
-        <v>0.021759401977382</v>
+        <v>0.007253133992460667</v>
       </c>
       <c r="J9" t="n">
         <v>0.01727619294517017</v>
@@ -722,10 +722,10 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>0.003883292964472091</v>
+        <v>0.00405572728445366</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0007755495963601921</v>
+        <v>-0.000258516532120064</v>
       </c>
       <c r="J10" t="n">
         <v>0.003883292964472091</v>
@@ -749,10 +749,10 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.0138216746869302</v>
+        <v>0.00722259526601377</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01707066585505737</v>
+        <v>0.005690221951685788</v>
       </c>
       <c r="J11" t="n">
         <v>0.0138216746869302</v>
@@ -776,10 +776,10 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.001019450324224467</v>
+        <v>0.00332055751548223</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.005575610793151478</v>
+        <v>-0.001858536931050492</v>
       </c>
       <c r="J12" t="n">
         <v>0.001019450324224467</v>
@@ -803,10 +803,10 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>-0.01516266537162422</v>
+        <v>-0.002276444012763629</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01808654989161434</v>
+        <v>-0.006028849963871446</v>
       </c>
       <c r="J13" t="n">
         <v>-0.01516266537162422</v>
@@ -825,21 +825,21 @@
         <v>0.005067002545414607</v>
       </c>
       <c r="E14" t="n">
-        <v>0.006198526304272445</v>
+        <v>0.006198526304272447</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.005067002545414607</v>
+        <v>0.004250667515138203</v>
       </c>
       <c r="I14" t="n">
-        <v>0.006198526304272445</v>
+        <v>0.002066175434757481</v>
       </c>
       <c r="J14" t="n">
         <v>0.005067002545414607</v>
       </c>
       <c r="K14" t="n">
-        <v>0.006198526304272445</v>
+        <v>0.006198526304272447</v>
       </c>
     </row>
     <row r="15">
@@ -857,10 +857,10 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.004432818940450417</v>
+        <v>0.004368161869039028</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01308347189634183</v>
+        <v>0.004361157298780609</v>
       </c>
       <c r="J15" t="n">
         <v>0.004384326136891875</v>
@@ -884,10 +884,10 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.003554543224423938</v>
+        <v>0.003652995889622794</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01472769449429192</v>
+        <v>0.004909231498097306</v>
       </c>
       <c r="J16" t="n">
         <v>0.00362838272332308</v>
@@ -915,10 +915,10 @@
         <v>0.01490481359901075</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.005738123882235993</v>
+        <v>0.0006261809281435579</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01823011642768315</v>
+        <v>0.006076705475894385</v>
       </c>
       <c r="J17" t="n">
         <v>-0.0009648952744513296</v>
@@ -946,10 +946,10 @@
         <v>-0.007196370824952038</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001577902191728958</v>
+        <v>0.003304485915761505</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02133973947876925</v>
+        <v>0.007113246492923088</v>
       </c>
       <c r="J18" t="n">
         <v>0.002872839984753368</v>
@@ -977,10 +977,10 @@
         <v>-0.00740066837869684</v>
       </c>
       <c r="H19" t="n">
-        <v>0.005953451663350963</v>
+        <v>0.00459078018407995</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.007052797150004619</v>
+        <v>-0.002350932383334873</v>
       </c>
       <c r="J19" t="n">
         <v>0.004931448053897704</v>
@@ -1008,10 +1008,10 @@
         <v>-0.004743896671288407</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0111910403721656</v>
+        <v>-0.001313680124055198</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.02221641159041013</v>
+        <v>-0.007405470530136708</v>
       </c>
       <c r="J20" t="n">
         <v>-0.003783020186082798</v>
@@ -1039,16 +1039,16 @@
         <v>0.01911202362505407</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.003824115458883787</v>
+        <v>0.0013682578100017</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01423966147958988</v>
+        <v>0.00474655382652996</v>
       </c>
       <c r="J21" t="n">
-        <v>7.016449278032886e-05</v>
+        <v>7.016449278032973e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.007526087266944703</v>
+        <v>0.007526087266944701</v>
       </c>
     </row>
     <row r="22">
@@ -1070,10 +1070,10 @@
         <v>-0.004428377155230947</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.01217878013698566</v>
+        <v>-0.001608297082698923</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.01639069631472687</v>
+        <v>-0.005463565438242291</v>
       </c>
       <c r="J22" t="n">
         <v>-0.004250917846270606</v>
@@ -1089,10 +1089,10 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>-0.006726523822541489</v>
+        <v>-0.00672652382254149</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002940319909676158</v>
+        <v>0.002940319909676157</v>
       </c>
       <c r="F23" t="n">
         <v>0.001897846568186064</v>
@@ -1101,10 +1101,10 @@
         <v>0.03386483702755094</v>
       </c>
       <c r="H23" t="n">
-        <v>0.004754725572492549</v>
+        <v>0.003482686301941961</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01805207484138425</v>
+        <v>0.006017358280461417</v>
       </c>
       <c r="J23" t="n">
         <v>0.003800696119579608</v>
@@ -1132,10 +1132,10 @@
         <v>0.02361143195809792</v>
       </c>
       <c r="H24" t="n">
-        <v>0.009285380510267732</v>
+        <v>0.005209571281200355</v>
       </c>
       <c r="I24" t="n">
-        <v>0.05100159387218679</v>
+        <v>0.01700053129072893</v>
       </c>
       <c r="J24" t="n">
         <v>0.006228523588467199</v>
@@ -1163,10 +1163,10 @@
         <v>-0.02087820842266326</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0005606348248763018</v>
+        <v>0.002025767163847656</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.024919980027359</v>
+        <v>-0.008306660009119667</v>
       </c>
       <c r="J25" t="n">
         <v>0.001659484079104817</v>
@@ -1182,10 +1182,10 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>0.006110922016003449</v>
+        <v>0.00611092201600345</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0008071477982538374</v>
+        <v>0.0008071477982538391</v>
       </c>
       <c r="F26" t="n">
         <v>-0.01312719056988861</v>
@@ -1194,13 +1194,13 @@
         <v>-0.002602943733567641</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.004346721269114628</v>
+        <v>0.0004455373547395695</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.005240252300962058</v>
+        <v>-0.001746750766987352</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.0007525273012239805</v>
+        <v>-0.0007525273012239809</v>
       </c>
       <c r="K26" t="n">
         <v>-0.001567111384767726</v>
@@ -1213,7 +1213,7 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>0.007541269643199998</v>
+        <v>0.007541269643199997</v>
       </c>
       <c r="E27" t="n">
         <v>0.004626990957001565</v>
@@ -1225,13 +1225,13 @@
         <v>0.0004848243613436278</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01191740460890791</v>
+        <v>0.005884134869635971</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01080753077728163</v>
+        <v>0.003602510259093875</v>
       </c>
       <c r="J27" t="n">
-        <v>0.007392452304453956</v>
+        <v>0.007392452304453957</v>
       </c>
       <c r="K27" t="n">
         <v>0.004836794995068486</v>
@@ -1256,10 +1256,10 @@
         <v>0.0001337114492933945</v>
       </c>
       <c r="H28" t="n">
-        <v>0.006070782212707017</v>
+        <v>0.003755445922754191</v>
       </c>
       <c r="I28" t="n">
-        <v>0.005071301985942811</v>
+        <v>0.001690433995314271</v>
       </c>
       <c r="J28" t="n">
         <v>0.004334279995242397</v>
@@ -1275,7 +1275,7 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>-0.002537979956522282</v>
+        <v>-0.002537979956522281</v>
       </c>
       <c r="E29" t="n">
         <v>-0.009930930886081147</v>
@@ -1287,10 +1287,10 @@
         <v>-0.01327232345144955</v>
       </c>
       <c r="H29" t="n">
-        <v>0.002575891986396778</v>
+        <v>0.002716778810280407</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.01986186177216229</v>
+        <v>-0.006620620590720764</v>
       </c>
       <c r="J29" t="n">
         <v>0.0026815571043095</v>
@@ -1318,10 +1318,10 @@
         <v>0.006913256065596764</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01355251173094041</v>
+        <v>0.006526392799202359</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01030326689768115</v>
+        <v>0.003434422299227051</v>
       </c>
       <c r="J30" t="n">
         <v>0.008282922532136871</v>
@@ -1349,10 +1349,10 @@
         <v>-0.003526612551748331</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04123071830436945</v>
+        <v>0.01573560980516019</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.01847744106517979</v>
+        <v>-0.006159147021726596</v>
       </c>
       <c r="J31" t="n">
         <v>0.0221093869299625</v>
@@ -1368,7 +1368,7 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>0.007270650753345465</v>
+        <v>0.007270650753345467</v>
       </c>
       <c r="E32" t="n">
         <v>0.01929905584267684</v>
@@ -1380,10 +1380,10 @@
         <v>0.03386765421175632</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01176384554979237</v>
+        <v>0.005689429998078936</v>
       </c>
       <c r="I32" t="n">
-        <v>0.03983823477109923</v>
+        <v>0.01327941159036641</v>
       </c>
       <c r="J32" t="n">
         <v>0.007208033886007294</v>
@@ -1399,7 +1399,7 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>0.005299340152617261</v>
+        <v>0.005299340152617263</v>
       </c>
       <c r="E33" t="n">
         <v>0.01416070407136152</v>
@@ -1411,13 +1411,13 @@
         <v>0.01577976177688822</v>
       </c>
       <c r="H33" t="n">
-        <v>0.007747068049769906</v>
+        <v>0.004616744905478858</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03215762126207795</v>
+        <v>0.01071920708735932</v>
       </c>
       <c r="J33" t="n">
-        <v>0.00539932569155162</v>
+        <v>0.005399325691551619</v>
       </c>
       <c r="K33" t="n">
         <v>0.01674471762394049</v>
@@ -1442,10 +1442,10 @@
         <v>0.01811769251568969</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01801901583935907</v>
+        <v>0.007864116390897468</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02597136092168379</v>
+        <v>0.008657120307227931</v>
       </c>
       <c r="J34" t="n">
         <v>0.01040284125301287</v>
@@ -1473,13 +1473,13 @@
         <v>0.01597491314847251</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.002536867062226288</v>
+        <v>0.001014951719998645</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02867540184333228</v>
+        <v>0.009558467281110761</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0001269970244424114</v>
+        <v>0.0001269970244424119</v>
       </c>
       <c r="K35" t="n">
         <v>0.01244492338842929</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0001467217940502288</v>
+        <v>-0.0001467217940502284</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.001654236571721367</v>
+        <v>-0.001654236571721368</v>
       </c>
       <c r="F36" t="n">
         <v>0.0001242384140781136</v>
@@ -1508,10 +1508,10 @@
         <v>-0.005278024344234122</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.005629509206659256</v>
+        <v>-7.218825407160381e-05</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.008108918572180678</v>
+        <v>-0.002702972857393559</v>
       </c>
       <c r="J36" t="n">
         <v>-0.001461518492218517</v>
@@ -1534,7 +1534,7 @@
         <v>0.01572582321007231</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.000964251035326825</v>
+        <v>-0.0009642510353268241</v>
       </c>
       <c r="F37" t="n">
         <v>0.01004516495534823</v>
@@ -1543,10 +1543,10 @@
         <v>-0.01058345492419852</v>
       </c>
       <c r="H37" t="n">
-        <v>0.02355194610256571</v>
+        <v>0.009446722774929309</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.02137340766127713</v>
+        <v>-0.007124469220425712</v>
       </c>
       <c r="J37" t="n">
         <v>0.01572582321007231</v>
@@ -1578,10 +1578,10 @@
         <v>0.03209242612256591</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.01495475219531713</v>
+        <v>-0.003369509991031635</v>
       </c>
       <c r="I38" t="n">
-        <v>0.02783008148663035</v>
+        <v>0.009276693828876779</v>
       </c>
       <c r="J38" t="n">
         <v>0.008659494718730197</v>
@@ -1601,7 +1601,7 @@
         <v>0.003965010112867805</v>
       </c>
       <c r="D39" t="n">
-        <v>0.005386373918629147</v>
+        <v>0.005386373918629146</v>
       </c>
       <c r="E39" t="n">
         <v>0.01066990029134312</v>
@@ -1613,13 +1613,13 @@
         <v>0.02461186325389204</v>
       </c>
       <c r="H39" t="n">
-        <v>0.004245413085549639</v>
+        <v>0.00299154510259062</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03190775857360942</v>
+        <v>0.01063591952453647</v>
       </c>
       <c r="J39" t="n">
-        <v>0.002006422401491388</v>
+        <v>0.002006422401491387</v>
       </c>
       <c r="K39" t="n">
         <v>0.01085762083170234</v>
@@ -1630,13 +1630,13 @@
         <v>37680</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0005025401841884857</v>
+        <v>0.0005025401841884853</v>
       </c>
       <c r="C40" t="n">
         <v>0.002575266266164979</v>
       </c>
       <c r="D40" t="n">
-        <v>0.008156706315814369</v>
+        <v>0.008156706315814367</v>
       </c>
       <c r="E40" t="n">
         <v>0.006402349331977919</v>
@@ -1648,13 +1648,13 @@
         <v>0.004521691683287066</v>
       </c>
       <c r="H40" t="n">
-        <v>0.01457219391714823</v>
+        <v>0.006127249824234595</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01917943287112769</v>
+        <v>0.006393144290375895</v>
       </c>
       <c r="J40" t="n">
-        <v>0.008156706315814369</v>
+        <v>0.008156706315814367</v>
       </c>
       <c r="K40" t="n">
         <v>0.004929825449193436</v>
@@ -1683,10 +1683,10 @@
         <v>-0.004511061253174864</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.002577291102722139</v>
+        <v>0.000550828891685213</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.02578075802363404</v>
+        <v>-0.008593586007878014</v>
       </c>
       <c r="J41" t="n">
         <v>0.003995883221206253</v>
@@ -1718,10 +1718,10 @@
         <v>-0.002015573712266971</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01719780306169901</v>
+        <v>0.007084267687233001</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.03191115123839286</v>
+        <v>-0.01063705041279762</v>
       </c>
       <c r="J42" t="n">
         <v>0.01399095283384133</v>
@@ -1735,7 +1735,7 @@
         <v>37771</v>
       </c>
       <c r="B43" t="n">
-        <v>0.004456303986585493</v>
+        <v>0.004456303986585492</v>
       </c>
       <c r="C43" t="n">
         <v>0.02606028765259212</v>
@@ -1753,16 +1753,16 @@
         <v>0.03235328517991629</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.0232091124134686</v>
+        <v>-0.006522481915600643</v>
       </c>
       <c r="I43" t="n">
-        <v>0.07664141710083712</v>
+        <v>0.02554713903361237</v>
       </c>
       <c r="J43" t="n">
         <v>-0.00509881307554777</v>
       </c>
       <c r="K43" t="n">
-        <v>0.02511932225840033</v>
+        <v>0.02511932225840034</v>
       </c>
     </row>
     <row r="44">
@@ -1773,7 +1773,7 @@
         <v>0.007187317983415448</v>
       </c>
       <c r="C44" t="n">
-        <v>0.003578339296327825</v>
+        <v>0.003578339296327826</v>
       </c>
       <c r="D44" t="n">
         <v>0.006726563664299573</v>
@@ -1788,13 +1788,13 @@
         <v>-0.01089271718750915</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01084205873382752</v>
+        <v>0.00478800105942399</v>
       </c>
       <c r="I44" t="n">
-        <v>0.00387319346872679</v>
+        <v>0.001291064489575596</v>
       </c>
       <c r="J44" t="n">
-        <v>0.006726563664299574</v>
+        <v>0.006726563664299573</v>
       </c>
       <c r="K44" t="n">
         <v>0.0006412149641084608</v>
@@ -1823,10 +1823,10 @@
         <v>-0.00790016888627294</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.03226191429486854</v>
+        <v>-0.009582286246437661</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.02001120613168368</v>
+        <v>-0.006670402043894564</v>
       </c>
       <c r="J45" t="n">
         <v>-0.0219082947141621</v>
@@ -1846,7 +1846,7 @@
         <v>-0.02109762231640884</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.001544364261275189</v>
+        <v>-0.001544364261275188</v>
       </c>
       <c r="E46" t="n">
         <v>-0.01191185133075112</v>
@@ -1858,10 +1858,10 @@
         <v>-0.003230779592630872</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.001861460542754146</v>
+        <v>0.0004954761153782477</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.03222985162176138</v>
+        <v>-0.01074328387392046</v>
       </c>
       <c r="J46" t="n">
         <v>-0.002114090112886499</v>
@@ -1875,7 +1875,7 @@
         <v>37894</v>
       </c>
       <c r="B47" t="n">
-        <v>0.005645264440755485</v>
+        <v>0.005645264440755484</v>
       </c>
       <c r="C47" t="n">
         <v>0.02121849859520255</v>
@@ -1893,10 +1893,10 @@
         <v>0.02490002423781976</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.01996970543679589</v>
+        <v>-0.005466049960413441</v>
       </c>
       <c r="I47" t="n">
-        <v>0.05994491875796824</v>
+        <v>0.01998163958598941</v>
       </c>
       <c r="J47" t="n">
         <v>-0.004916744886076897</v>
@@ -1916,7 +1916,7 @@
         <v>-0.02962302472464014</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.001356322524361205</v>
+        <v>-0.001356322524361207</v>
       </c>
       <c r="E48" t="n">
         <v>-0.02023842515348091</v>
@@ -1928,13 +1928,13 @@
         <v>-0.02283149684016481</v>
       </c>
       <c r="H48" t="n">
-        <v>2.081712277159347e-05</v>
+        <v>0.001203883485368308</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.063554824526537</v>
+        <v>-0.02118494150884567</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.001356322524361205</v>
+        <v>-0.001356322524361207</v>
       </c>
       <c r="K48" t="n">
         <v>-0.02377704861412538</v>
@@ -1963,10 +1963,10 @@
         <v>-0.003772261722530403</v>
       </c>
       <c r="H49" t="n">
-        <v>0.008213902739507159</v>
+        <v>0.003827893505761644</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.03050396535347116</v>
+        <v>-0.01016798845115705</v>
       </c>
       <c r="J49" t="n">
         <v>0.00162313062262667</v>
@@ -1980,16 +1980,16 @@
         <v>37986</v>
       </c>
       <c r="B50" t="n">
-        <v>0.006234796201986156</v>
+        <v>0.009029779565180371</v>
       </c>
       <c r="C50" t="n">
-        <v>0.02120430674239449</v>
+        <v>0.0239992901055887</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.0133508869871977</v>
+        <v>-0.01055590362400349</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01141146514780256</v>
+        <v>0.01420644851099677</v>
       </c>
       <c r="F50" t="n">
         <v>-0.03921654117989598</v>
@@ -1998,16 +1998,16 @@
         <v>0.02131175563667682</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.03200369897467598</v>
+        <v>-0.007524910749429183</v>
       </c>
       <c r="I50" t="n">
-        <v>0.05171711564138046</v>
+        <v>0.0191023607892563</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.0133508869871977</v>
+        <v>-0.01055590362400349</v>
       </c>
       <c r="K50" t="n">
-        <v>0.02094967626822379</v>
+        <v>0.02250244480333168</v>
       </c>
     </row>
     <row r="51">
@@ -2015,16 +2015,16 @@
         <v>38016</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.006444585403920891</v>
+        <v>-0.006030611252063047</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.00134603061961116</v>
+        <v>-0.0009320564677533158</v>
       </c>
       <c r="D51" t="n">
-        <v>0.003283764756393898</v>
+        <v>0.003697738908251741</v>
       </c>
       <c r="E51" t="n">
-        <v>0.003518144460546235</v>
+        <v>0.003932118612404078</v>
       </c>
       <c r="F51" t="n">
         <v>0.02075835642223458</v>
@@ -2033,16 +2033,16 @@
         <v>0.002737831357460196</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.003395622563454812</v>
+        <v>0.0002813308023091807</v>
       </c>
       <c r="I51" t="n">
-        <v>0.009879779736355947</v>
+        <v>0.003569242680023877</v>
       </c>
       <c r="J51" t="n">
-        <v>0.003283764756393898</v>
+        <v>0.003697738908251741</v>
       </c>
       <c r="K51" t="n">
-        <v>0.00284288379520291</v>
+        <v>0.003072869435123934</v>
       </c>
     </row>
     <row r="52">
@@ -2050,16 +2050,16 @@
         <v>38044</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01480605610724436</v>
+        <v>0.01701271639239724</v>
       </c>
       <c r="C52" t="n">
-        <v>0.02602799816046275</v>
+        <v>0.02823465844561563</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.003059657481181522</v>
+        <v>-0.0008529971960286389</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01709514136624981</v>
+        <v>0.0193018016514027</v>
       </c>
       <c r="F52" t="n">
         <v>-0.01879837240869744</v>
@@ -2068,16 +2068,16 @@
         <v>0.01288929252878006</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.009014860731984192</v>
+        <v>-0.0005009578316705853</v>
       </c>
       <c r="I52" t="n">
-        <v>0.05827889453635021</v>
+        <v>0.02089740503555199</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.003059657481181522</v>
+        <v>-0.0008529971960286389</v>
       </c>
       <c r="K52" t="n">
-        <v>0.02138300382241545</v>
+        <v>0.02260892620305594</v>
       </c>
     </row>
     <row r="53">
@@ -2085,16 +2085,16 @@
         <v>38077</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.001370087264556855</v>
+        <v>-0.0004930691262271993</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.0005203588220613828</v>
+        <v>0.0003566593162682725</v>
       </c>
       <c r="D53" t="n">
-        <v>0.02340396877236112</v>
+        <v>0.02428098691069078</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0118666691963976</v>
+        <v>0.01274368733472726</v>
       </c>
       <c r="F53" t="n">
         <v>0.0313922107866681</v>
@@ -2103,16 +2103,16 @@
         <v>0.00320723098958633</v>
       </c>
       <c r="H53" t="n">
-        <v>0.03207164085495839</v>
+        <v>0.01245222571053923</v>
       </c>
       <c r="I53" t="n">
-        <v>0.01556965040977141</v>
+        <v>0.005774562228810239</v>
       </c>
       <c r="J53" t="n">
-        <v>0.02340396877236112</v>
+        <v>0.02428098691069078</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0009676497891300479</v>
+        <v>0.001454882088202079</v>
       </c>
     </row>
     <row r="54">
@@ -2120,16 +2120,16 @@
         <v>38107</v>
       </c>
       <c r="B54" t="n">
-        <v>0.009043725638530585</v>
+        <v>0.006195938379153719</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.005640980618876213</v>
+        <v>-0.008488767878253079</v>
       </c>
       <c r="D54" t="n">
-        <v>0.005423171665192138</v>
+        <v>0.002575384405815272</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.007451257605545438</v>
+        <v>-0.0102990448649223</v>
       </c>
       <c r="F54" t="n">
         <v>-0.001760478662260538</v>
@@ -2138,16 +2138,16 @@
         <v>-0.008559385473747082</v>
       </c>
       <c r="H54" t="n">
-        <v>0.02283022038275712</v>
+        <v>0.006831548621334459</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.02857652094564662</v>
+        <v>-0.01142403182146678</v>
       </c>
       <c r="J54" t="n">
-        <v>0.005235248365091382</v>
+        <v>0.002387461105714517</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.01054538159793501</v>
+        <v>-0.01212748563092216</v>
       </c>
     </row>
     <row r="55">
@@ -2155,16 +2155,16 @@
         <v>38138</v>
       </c>
       <c r="B55" t="n">
-        <v>0.003272761107186314</v>
+        <v>0.002447354695187739</v>
       </c>
       <c r="C55" t="n">
-        <v>0.001089650188369174</v>
+        <v>0.0002642437763705993</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.003963953838464034</v>
+        <v>-0.004789360250462608</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.002528707284456</v>
+        <v>-0.003354113696454575</v>
       </c>
       <c r="F55" t="n">
         <v>-0.0085408626339224</v>
@@ -2173,16 +2173,16 @@
         <v>0.00377867762625188</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.00509251744954116</v>
+        <v>-0.001064610091179437</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.002740432437211848</v>
+        <v>-0.001463748420402999</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.003783298907015868</v>
+        <v>-0.004608705319014443</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0001812995941955746</v>
+        <v>-0.0002772595235814111</v>
       </c>
     </row>
     <row r="56">
@@ -2190,16 +2190,16 @@
         <v>38168</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.005115848918795474</v>
+        <v>-0.007206817736706205</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.001417474049848754</v>
+        <v>-0.003508442867759486</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.002241703120848428</v>
+        <v>-0.00433267193875916</v>
       </c>
       <c r="E56" t="n">
-        <v>1.959884912476856e-05</v>
+        <v>-0.002071369968785964</v>
       </c>
       <c r="F56" t="n">
         <v>-0.004231984645664073</v>
@@ -2208,16 +2208,16 @@
         <v>0.01040635768953746</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.006350571248431965</v>
+        <v>-0.002356947405862254</v>
       </c>
       <c r="I56" t="n">
-        <v>0.004253845250025012</v>
+        <v>2.396920473451595e-05</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.003161907865996324</v>
+        <v>-0.005252876683907057</v>
       </c>
       <c r="K56" t="n">
-        <v>0.002036426380980351</v>
+        <v>0.0008747770376966112</v>
       </c>
     </row>
     <row r="57">
@@ -2225,16 +2225,16 @@
         <v>38198</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.00736451750973019</v>
+        <v>-0.005669942448175464</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.00377893266562006</v>
+        <v>-0.002084357604065334</v>
       </c>
       <c r="D57" t="n">
-        <v>0.008592223215300981</v>
+        <v>0.01028679827685571</v>
       </c>
       <c r="E57" t="n">
-        <v>0.004199437696895525</v>
+        <v>0.00589401275845025</v>
       </c>
       <c r="F57" t="n">
         <v>0.00891028701771134</v>
@@ -2243,16 +2243,16 @@
         <v>0.002863051871950838</v>
       </c>
       <c r="H57" t="n">
-        <v>0.009686110456415799</v>
+        <v>0.005507309082063971</v>
       </c>
       <c r="I57" t="n">
-        <v>0.007216817610754548</v>
+        <v>0.003535322577954665</v>
       </c>
       <c r="J57" t="n">
-        <v>0.008592223215300981</v>
+        <v>0.01028679827685571</v>
       </c>
       <c r="K57" t="n">
-        <v>0.0006585104695315189</v>
+        <v>0.001599941059284145</v>
       </c>
     </row>
     <row r="58">
@@ -2260,16 +2260,16 @@
         <v>38230</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.01335318697370719</v>
+        <v>-0.01068743593413114</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.0001142309004893202</v>
+        <v>0.00255152013908673</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.001311563218150546</v>
+        <v>0.001354187821425501</v>
       </c>
       <c r="E58" t="n">
-        <v>0.005906580977289</v>
+        <v>0.008572332016865048</v>
       </c>
       <c r="F58" t="n">
         <v>-0.008454148379607281</v>
@@ -2278,16 +2278,16 @@
         <v>0.01475666208873141</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.02229858095201925</v>
+        <v>-0.004432581846511275</v>
       </c>
       <c r="I58" t="n">
-        <v>0.01612631526746036</v>
+        <v>0.007152605782204151</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.006150933696968069</v>
+        <v>-0.003485182657392021</v>
       </c>
       <c r="K58" t="n">
-        <v>0.005041056534302882</v>
+        <v>0.006707150934037912</v>
       </c>
     </row>
     <row r="59">
@@ -2295,16 +2295,16 @@
         <v>38260</v>
       </c>
       <c r="B59" t="n">
-        <v>0.001089612512012873</v>
+        <v>0.002421698420409069</v>
       </c>
       <c r="C59" t="n">
-        <v>0.004647368145054287</v>
+        <v>0.005979454053450483</v>
       </c>
       <c r="D59" t="n">
-        <v>0.004432177907211578</v>
+        <v>0.005764263815607774</v>
       </c>
       <c r="E59" t="n">
-        <v>0.00631865084265364</v>
+        <v>0.007650736751049837</v>
       </c>
       <c r="F59" t="n">
         <v>-0.004232649183773783</v>
@@ -2313,16 +2313,16 @@
         <v>0.005682577142969158</v>
       </c>
       <c r="H59" t="n">
-        <v>0.006051122205746498</v>
+        <v>0.00405176467417963</v>
       </c>
       <c r="I59" t="n">
-        <v>0.01669624738422537</v>
+        <v>0.006453473067005922</v>
       </c>
       <c r="J59" t="n">
-        <v>0.003501874335783019</v>
+        <v>0.004833960244179217</v>
       </c>
       <c r="K59" t="n">
-        <v>0.005322846543386501</v>
+        <v>0.006062894270273276</v>
       </c>
     </row>
     <row r="60">
@@ -2330,16 +2330,16 @@
         <v>38289</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.00319045217404786</v>
+        <v>-0.0005105451714875926</v>
       </c>
       <c r="C60" t="n">
-        <v>0.002313824626537573</v>
+        <v>0.00499373162909784</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01183094681659169</v>
+        <v>0.01451085381915196</v>
       </c>
       <c r="E60" t="n">
-        <v>0.009824524121857347</v>
+        <v>0.01250443112441761</v>
       </c>
       <c r="F60" t="n">
         <v>0.001785819519000666</v>
@@ -2348,16 +2348,16 @@
         <v>0.009371605083041624</v>
       </c>
       <c r="H60" t="n">
-        <v>0.01201191643716974</v>
+        <v>0.006911373110393053</v>
       </c>
       <c r="I60" t="n">
-        <v>0.02153290744449085</v>
+        <v>0.008964240483203798</v>
       </c>
       <c r="J60" t="n">
-        <v>0.01011539298727953</v>
+        <v>0.0127952999898398</v>
       </c>
       <c r="K60" t="n">
-        <v>0.005090587212599199</v>
+        <v>0.006579424436243793</v>
       </c>
     </row>
     <row r="61">
@@ -2365,16 +2365,16 @@
         <v>38321</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.01301967372173482</v>
+        <v>-0.01037598525605294</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.006918079030682314</v>
+        <v>-0.004274390565000431</v>
       </c>
       <c r="D61" t="n">
-        <v>0.005674993491080567</v>
+        <v>0.00831868195676245</v>
       </c>
       <c r="E61" t="n">
-        <v>0.002429254575725381</v>
+        <v>0.005072943041407261</v>
       </c>
       <c r="F61" t="n">
         <v>0.006675770777836345</v>
@@ -2383,16 +2383,16 @@
         <v>0.01069126983075479</v>
       </c>
       <c r="H61" t="n">
-        <v>0.005674993491080567</v>
+        <v>0.004020301392994891</v>
       </c>
       <c r="I61" t="n">
-        <v>0.005201327546406512</v>
+        <v>0.003496234825923426</v>
       </c>
       <c r="J61" t="n">
-        <v>0.005674993491080567</v>
+        <v>0.00831868195676245</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0003780025273661565</v>
+        <v>0.001846718341633869</v>
       </c>
     </row>
     <row r="62">
@@ -2400,16 +2400,16 @@
         <v>38352</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01198148317764927</v>
+        <v>0.01306879444660941</v>
       </c>
       <c r="C62" t="n">
-        <v>0.02138850578883891</v>
+        <v>0.02247581705779905</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02097731170900003</v>
+        <v>-0.0198900004400399</v>
       </c>
       <c r="E62" t="n">
-        <v>0.004909108345514258</v>
+        <v>0.005996419614474391</v>
       </c>
       <c r="F62" t="n">
         <v>-0.02162817450743838</v>
@@ -2418,16 +2418,16 @@
         <v>0.01434346092469032</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.02097731170900003</v>
+        <v>-0.005452000146679964</v>
       </c>
       <c r="I62" t="n">
-        <v>0.03839636956021356</v>
+        <v>0.01352366403271127</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.02097731170900003</v>
+        <v>-0.0198900004400399</v>
       </c>
       <c r="K62" t="n">
-        <v>0.01789396022223808</v>
+        <v>0.01849802203832704</v>
       </c>
     </row>
     <row r="63">
@@ -2435,16 +2435,16 @@
         <v>38383</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.00968721260960383</v>
+        <v>-0.007182529914776076</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.0002233804508852352</v>
+        <v>0.002281302243942518</v>
       </c>
       <c r="D63" t="n">
-        <v>0.006273739228305703</v>
+        <v>0.008778421923133457</v>
       </c>
       <c r="E63" t="n">
-        <v>0.007757095468069531</v>
+        <v>0.01026177816289729</v>
       </c>
       <c r="F63" t="n">
         <v>0.01986388582354657</v>
@@ -2453,16 +2453,16 @@
         <v>0.008587694353541677</v>
       </c>
       <c r="H63" t="n">
-        <v>0.006273739228305703</v>
+        <v>0.004111603604007447</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0197327749316369</v>
+        <v>0.008247380107097468</v>
       </c>
       <c r="J63" t="n">
-        <v>0.006273739228305703</v>
+        <v>0.008778421923133457</v>
       </c>
       <c r="K63" t="n">
-        <v>0.005923892924104952</v>
+        <v>0.00731538331012037</v>
       </c>
     </row>
     <row r="64">
@@ -2470,16 +2470,16 @@
         <v>38411</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.002167834715185167</v>
+        <v>-0.003619836537074149</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.00750224393122334</v>
+        <v>-0.008954245753112322</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.0009587919258589361</v>
+        <v>-0.002410793747747919</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.006897722536560225</v>
+        <v>-0.008349724358449207</v>
       </c>
       <c r="F64" t="n">
         <v>0.001391348268230517</v>
@@ -2488,16 +2488,16 @@
         <v>-0.007014988937696209</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.002776478710441121</v>
+        <v>-0.0003304564737396636</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.01958488166206611</v>
+        <v>-0.007496295101948025</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.0009587919258589361</v>
+        <v>-0.002410793747747919</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.006412115946009483</v>
+        <v>-0.007218783624836694</v>
       </c>
     </row>
     <row r="65">
@@ -2505,16 +2505,16 @@
         <v>38442</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01280257680557269</v>
+        <v>0.01411009404896467</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01795125046839317</v>
+        <v>0.01925876771178514</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.009735471944942838</v>
+        <v>-0.008427954701550864</v>
       </c>
       <c r="E65" t="n">
-        <v>0.006682226093135402</v>
+        <v>0.007989743336527378</v>
       </c>
       <c r="F65" t="n">
         <v>-0.01631436361529656</v>
@@ -2523,16 +2523,16 @@
         <v>0.009962517560781771</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.01323473335302021</v>
+        <v>-0.002777646110616819</v>
       </c>
       <c r="I65" t="n">
-        <v>0.03437156210518045</v>
+        <v>0.0123288655306548</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.009735471944942838</v>
+        <v>-0.008427954701550864</v>
       </c>
       <c r="K65" t="n">
-        <v>0.01347110952869428</v>
+        <v>0.01428830780581426</v>
       </c>
     </row>
     <row r="66">
@@ -2540,16 +2540,16 @@
         <v>38471</v>
       </c>
       <c r="B66" t="n">
-        <v>0.004503483361699445</v>
+        <v>0.008019263209086623</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01878970607989046</v>
+        <v>0.02230548592727764</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.008373352416762705</v>
+        <v>-0.004857572569375523</v>
       </c>
       <c r="E66" t="n">
-        <v>0.01235128819065938</v>
+        <v>0.01586706803804656</v>
       </c>
       <c r="F66" t="n">
         <v>0.004847550201969631</v>
@@ -2558,16 +2558,16 @@
         <v>0.01267415760528767</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.01600751139685225</v>
+        <v>-0.003052243849821689</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0471518880578413</v>
+        <v>0.01806114925087188</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.008373352416762705</v>
+        <v>-0.004857572569375523</v>
       </c>
       <c r="K66" t="n">
-        <v>0.01725498631704592</v>
+        <v>0.0194523487216629</v>
       </c>
     </row>
     <row r="67">
@@ -2575,16 +2575,16 @@
         <v>38503</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.01035843955848229</v>
+        <v>-0.008969378102158483</v>
       </c>
       <c r="C67" t="n">
-        <v>0.00269890345859034</v>
+        <v>0.004087964914914144</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01282807955958632</v>
+        <v>-0.01143901810326252</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001464083458038324</v>
+        <v>0.002853144914362127</v>
       </c>
       <c r="F67" t="n">
         <v>0.01055689892579782</v>
@@ -2593,16 +2593,16 @@
         <v>0.01307258682933081</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.02367963131538425</v>
+        <v>-0.006215967730797926</v>
       </c>
       <c r="I67" t="n">
-        <v>0.01642283088712162</v>
+        <v>0.006400317933256408</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.009044425959460914</v>
+        <v>-0.00765536450313711</v>
       </c>
       <c r="K67" t="n">
-        <v>0.005957152373563313</v>
+        <v>0.00682531578376569</v>
       </c>
     </row>
     <row r="68">
@@ -2610,16 +2610,16 @@
         <v>38533</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.007202343525976827</v>
+        <v>-0.007043418906623509</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.001270796778962515</v>
+        <v>-0.001111872159609196</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.0006296898150360006</v>
+        <v>-0.0004707651956826829</v>
       </c>
       <c r="E68" t="n">
-        <v>0.002015530076507898</v>
+        <v>0.002174454695861218</v>
       </c>
       <c r="F68" t="n">
         <v>0.0133423657635205</v>
@@ -2628,16 +2628,16 @@
         <v>0.009811922622525325</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.004930328290810223</v>
+        <v>-0.0003567403664723121</v>
       </c>
       <c r="I68" t="n">
-        <v>0.008096942370535086</v>
+        <v>0.00285790540953168</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.0006296898150360006</v>
+        <v>-0.0004707651956826829</v>
       </c>
       <c r="K68" t="n">
-        <v>0.00349386615016528</v>
+        <v>0.003593194037261104</v>
       </c>
     </row>
     <row r="69">
@@ -2645,16 +2645,16 @@
         <v>38562</v>
       </c>
       <c r="B69" t="n">
-        <v>0.002233417351362041</v>
+        <v>0.003598453514391384</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.004734787673080153</v>
+        <v>-0.00336975151005081</v>
       </c>
       <c r="D69" t="n">
-        <v>0.006322621115059429</v>
+        <v>0.007687657278088772</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.002690185791231459</v>
+        <v>-0.001325149628202116</v>
       </c>
       <c r="F69" t="n">
         <v>0.006633436628372414</v>
@@ -2663,16 +2663,16 @@
         <v>0.001042051514077947</v>
       </c>
       <c r="H69" t="n">
-        <v>0.01354016566650428</v>
+        <v>0.006069863572807506</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.0104476782382481</v>
+        <v>-0.002572535304063139</v>
       </c>
       <c r="J69" t="n">
-        <v>0.00730271115685853</v>
+        <v>0.008667747319887873</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.004745592985020502</v>
+        <v>-0.003892445383127162</v>
       </c>
     </row>
     <row r="70">
@@ -2680,16 +2680,16 @@
         <v>38595</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.00575964022618874</v>
+        <v>-0.005424584657512705</v>
       </c>
       <c r="C70" t="n">
-        <v>0.009142854368195419</v>
+        <v>0.009477909936871455</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01348560319808832</v>
+        <v>-0.01315054762941229</v>
       </c>
       <c r="E70" t="n">
-        <v>0.00527987288224563</v>
+        <v>0.005614928450921665</v>
       </c>
       <c r="F70" t="n">
         <v>-0.01792158621424345</v>
@@ -2698,16 +2698,16 @@
         <v>0.008390957042412394</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.03450665759595378</v>
+        <v>-0.009910719185530782</v>
       </c>
       <c r="I70" t="n">
-        <v>0.02235831704937266</v>
+        <v>0.007787827918466919</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.00756721224262717</v>
+        <v>-0.007232156673951134</v>
       </c>
       <c r="K70" t="n">
-        <v>0.009665499116079085</v>
+        <v>0.009874908846501607</v>
       </c>
     </row>
     <row r="71">
@@ -2715,16 +2715,16 @@
         <v>38625</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0006097563214973317</v>
+        <v>0.001073306548170902</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.007047562210002356</v>
+        <v>-0.006584011983328785</v>
       </c>
       <c r="D71" t="n">
-        <v>0.002654117535460363</v>
+        <v>0.003117667762133933</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.006025381603020841</v>
+        <v>-0.005561831376347271</v>
       </c>
       <c r="F71" t="n">
         <v>0.02759154831965059</v>
@@ -2733,16 +2733,16 @@
         <v>0.0009502996857648328</v>
       </c>
       <c r="H71" t="n">
-        <v>0.01542070242298385</v>
+        <v>0.006450306438774697</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.01322170697216796</v>
+        <v>-0.004098202172940272</v>
       </c>
       <c r="J71" t="n">
-        <v>0.002830381103719457</v>
+        <v>0.003293931330393028</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.004606075051168654</v>
+        <v>-0.004316356159497672</v>
       </c>
     </row>
     <row r="72">
@@ -2750,16 +2750,16 @@
         <v>38656</v>
       </c>
       <c r="B72" t="n">
-        <v>0.004241877651378444</v>
+        <v>0.001333023846524471</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.0005699121688030884</v>
+        <v>-0.003478765973657061</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01229141112104242</v>
+        <v>-0.01520026492589639</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.00883655655501352</v>
+        <v>-0.01174541035986749</v>
       </c>
       <c r="F72" t="n">
         <v>-0.01102125073098842</v>
@@ -2768,16 +2768,16 @@
         <v>-0.009205783823351889</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.02293232445907588</v>
+        <v>-0.007366263125013654</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.01746771843124773</v>
+        <v>-0.007761808680318557</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.01229141112104242</v>
+        <v>-0.01520026492589639</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.004419984042156488</v>
+        <v>-0.006238017670190221</v>
       </c>
     </row>
     <row r="73">
@@ -2785,16 +2785,16 @@
         <v>38686</v>
       </c>
       <c r="B73" t="n">
-        <v>0.007138852798938741</v>
+        <v>0.006152039468955602</v>
       </c>
       <c r="C73" t="n">
-        <v>0.003038617392371969</v>
+        <v>0.002051804062388831</v>
       </c>
       <c r="D73" t="n">
-        <v>0.005706245776964576</v>
+        <v>0.004719432446981437</v>
       </c>
       <c r="E73" t="n">
-        <v>0.002322313881384886</v>
+        <v>0.001335500551401748</v>
       </c>
       <c r="F73" t="n">
         <v>-0.003001082033226713</v>
@@ -2803,16 +2803,16 @@
         <v>0.0008064653772950074</v>
       </c>
       <c r="H73" t="n">
-        <v>0.01017443522764084</v>
+        <v>0.004389207299219234</v>
       </c>
       <c r="I73" t="n">
-        <v>0.005007420263802768</v>
+        <v>0.001011264534612164</v>
       </c>
       <c r="J73" t="n">
-        <v>0.005163154249441831</v>
+        <v>0.004176340919458692</v>
       </c>
       <c r="K73" t="n">
-        <v>0.001648764046815438</v>
+        <v>0.001032005715575977</v>
       </c>
     </row>
     <row r="74">
@@ -2820,16 +2820,16 @@
         <v>38716</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.006866284650144694</v>
+        <v>-0.003551025987208912</v>
       </c>
       <c r="C74" t="n">
-        <v>0.001519281016705131</v>
+        <v>0.004834539679640914</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.007438402833256143</v>
+        <v>-0.00412314417032036</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001233221925149407</v>
+        <v>0.00454848058808519</v>
       </c>
       <c r="F74" t="n">
         <v>0.01564900726077347</v>
@@ -2838,16 +2838,16 @@
         <v>0.01618456958204675</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.002359495713605054</v>
+        <v>0.001631920983110243</v>
       </c>
       <c r="I74" t="n">
-        <v>0.01726725214564662</v>
+        <v>0.007965923157172726</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.002359495713605054</v>
+        <v>0.0009557629493307284</v>
       </c>
       <c r="K74" t="n">
-        <v>0.00637824815753053</v>
+        <v>0.008220058525828189</v>
       </c>
     </row>
     <row r="75">
@@ -2855,16 +2855,16 @@
         <v>38748</v>
       </c>
       <c r="B75" t="n">
-        <v>0.01222856302758715</v>
+        <v>0.009983009355413698</v>
       </c>
       <c r="C75" t="n">
-        <v>0.008147326076224039</v>
+        <v>0.005901772404050589</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.004176770510751803</v>
+        <v>-0.006422324182925255</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.534069294543635e-05</v>
+        <v>-0.002300894365118888</v>
       </c>
       <c r="F75" t="n">
         <v>-0.008522946895829022</v>
@@ -2873,16 +2873,16 @@
         <v>-0.005329361596192905</v>
       </c>
       <c r="H75" t="n">
-        <v>0.001297719844459811</v>
+        <v>0.001148351687058417</v>
       </c>
       <c r="I75" t="n">
-        <v>0.005789605260389631</v>
+        <v>0.0004328326386809113</v>
       </c>
       <c r="J75" t="n">
-        <v>0.003198648923675563</v>
+        <v>0.0009530952515021118</v>
       </c>
       <c r="K75" t="n">
-        <v>0.002179064222889297</v>
+        <v>0.0009315344050151581</v>
       </c>
     </row>
     <row r="76">
@@ -2890,16 +2890,16 @@
         <v>38776</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.003196085022453154</v>
+        <v>-0.003061081654347098</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.01551356400344772</v>
+        <v>-0.01537856063534166</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0120298408254372</v>
+        <v>0.01216484419354326</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.007900601079502545</v>
+        <v>-0.007765597711396488</v>
       </c>
       <c r="F76" t="n">
         <v>0.008772568572185124</v>
@@ -2908,16 +2908,16 @@
         <v>-0.01263135903636552</v>
       </c>
       <c r="H76" t="n">
-        <v>0.006091944925167994</v>
+        <v>0.003376093875535794</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.0353671541207812</v>
+        <v>-0.0116990491281897</v>
       </c>
       <c r="J76" t="n">
-        <v>0.003340447508524169</v>
+        <v>0.003475450876630226</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.01306611790803618</v>
+        <v>-0.01299111603686615</v>
       </c>
     </row>
     <row r="77">
@@ -2925,16 +2925,16 @@
         <v>38807</v>
       </c>
       <c r="B77" t="n">
-        <v>0.00816917875491137</v>
+        <v>0.004134826791872318</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.007815819620637134</v>
+        <v>-0.01185017158367618</v>
       </c>
       <c r="D77" t="n">
-        <v>0.004823843975587888</v>
+        <v>0.000789492012548838</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.009488487010298875</v>
+        <v>-0.01352283897333793</v>
       </c>
       <c r="F77" t="n">
         <v>0.01965994456843938</v>
@@ -2943,16 +2943,16 @@
         <v>0.01100967455544837</v>
       </c>
       <c r="H77" t="n">
-        <v>0.01909088535135785</v>
+        <v>0.006548177796106268</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.02212577862319296</v>
+        <v>-0.01006482751642369</v>
       </c>
       <c r="J77" t="n">
-        <v>0.009130533364423469</v>
+        <v>0.005096181401384417</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.006669592227361804</v>
+        <v>-0.008910898873494607</v>
       </c>
     </row>
     <row r="78">
@@ -2960,16 +2960,16 @@
         <v>38835</v>
       </c>
       <c r="B78" t="n">
-        <v>0.009192438573696012</v>
+        <v>0.006200557144398629</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.007868371331353742</v>
+        <v>-0.01086025276065112</v>
       </c>
       <c r="D78" t="n">
-        <v>0.007513243487830474</v>
+        <v>0.004521362058533092</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.008707968874286509</v>
+        <v>-0.01169985030358389</v>
       </c>
       <c r="F78" t="n">
         <v>-0.005364691059377022</v>
@@ -2978,16 +2978,16 @@
         <v>-0.01689029680539092</v>
       </c>
       <c r="H78" t="n">
-        <v>0.01436491390529757</v>
+        <v>0.005191529343851913</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.02795022490129247</v>
+        <v>-0.01131132925329574</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01018561440851421</v>
+        <v>0.007193732979216824</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.01059403306522106</v>
+        <v>-0.01225618941483072</v>
       </c>
     </row>
     <row r="79">
@@ -2995,16 +2995,16 @@
         <v>38868</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.0002513511258333059</v>
+        <v>0.0002596049515962411</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.0001751156969010074</v>
+        <v>0.0003358403805285405</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.00210245939855552</v>
+        <v>-0.001591503321125972</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.001100669833262114</v>
+        <v>-0.0005897137558325666</v>
       </c>
       <c r="F79" t="n">
         <v>0.003882765538785275</v>
@@ -3013,16 +3013,16 @@
         <v>0.00509264308273545</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.000643546279644522</v>
+        <v>0.001661414377039453</v>
       </c>
       <c r="I79" t="n">
-        <v>0.002025336161639803</v>
+        <v>0.001015749438832965</v>
       </c>
       <c r="J79" t="n">
-        <v>-6.347429305946645e-05</v>
+        <v>0.0004474817843700806</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0008860167271225305</v>
+        <v>0.00116988121458339</v>
       </c>
     </row>
     <row r="80">
@@ -3030,16 +3030,16 @@
         <v>38898</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.004319719943222022</v>
+        <v>-0.005041825898217977</v>
       </c>
       <c r="C80" t="n">
-        <v>0.001368039741099448</v>
+        <v>0.0006459337861034935</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01273698652630549</v>
+        <v>-0.01345909248130144</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.002840593550442284</v>
+        <v>-0.003562699505438238</v>
       </c>
       <c r="F80" t="n">
         <v>0.01767230708118733</v>
@@ -3048,16 +3048,16 @@
         <v>0.01428002400830719</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.005574352912565427</v>
+        <v>-0.0005171529558537936</v>
       </c>
       <c r="I80" t="n">
-        <v>0.008344375931856751</v>
+        <v>0.002300054673954947</v>
       </c>
       <c r="J80" t="n">
-        <v>-0.00658131428594042</v>
+        <v>-0.007303420240936376</v>
       </c>
       <c r="K80" t="n">
-        <v>0.004240351867842502</v>
+        <v>0.003839181892844749</v>
       </c>
     </row>
     <row r="81">
@@ -3065,16 +3065,16 @@
         <v>38929</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.00279837317907617</v>
+        <v>-0.001095781391730906</v>
       </c>
       <c r="C81" t="n">
-        <v>0.005161525157884549</v>
+        <v>0.006864116945229814</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01071050782184507</v>
+        <v>-0.009007916034499802</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001205457836500102</v>
+        <v>0.002908049623845365</v>
       </c>
       <c r="F81" t="n">
         <v>-0.0002837175134267327</v>
@@ -3083,16 +3083,16 @@
         <v>0.003424539695083029</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.005843010639036693</v>
+        <v>0.0003139529753621163</v>
       </c>
       <c r="I81" t="n">
-        <v>0.01948540220085247</v>
+        <v>0.007630195258514331</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0003993017717223376</v>
+        <v>0.002101893559067603</v>
       </c>
       <c r="K81" t="n">
-        <v>0.006331934738598458</v>
+        <v>0.007396054605689248</v>
       </c>
     </row>
     <row r="82">
@@ -3100,16 +3100,16 @@
         <v>38960</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.002503874530789691</v>
+        <v>0.0003830725783427083</v>
       </c>
       <c r="C82" t="n">
-        <v>0.008044663211765602</v>
+        <v>0.010931610320898</v>
       </c>
       <c r="D82" t="n">
-        <v>0.001748001912231939</v>
+        <v>0.004634949021364338</v>
       </c>
       <c r="E82" t="n">
-        <v>0.01017060143327641</v>
+        <v>0.01305754854240881</v>
       </c>
       <c r="F82" t="n">
         <v>-0.01343806917256343</v>
@@ -3118,16 +3118,16 @@
         <v>0.005393906842303875</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.008041119604398557</v>
+        <v>7.879435342979853e-05</v>
       </c>
       <c r="I82" t="n">
-        <v>0.02549415653643381</v>
+        <v>0.01042268358489954</v>
       </c>
       <c r="J82" t="n">
-        <v>-0.002503874530789691</v>
+        <v>0.0003830725783427083</v>
       </c>
       <c r="K82" t="n">
-        <v>0.008451210057185694</v>
+        <v>0.01005506956225925</v>
       </c>
     </row>
     <row r="83">
@@ -3135,16 +3135,16 @@
         <v>38989</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.002351613465416538</v>
+        <v>8.609930186961141e-05</v>
       </c>
       <c r="C83" t="n">
-        <v>0.009456276809440122</v>
+        <v>0.01189398957672627</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.003897209980549868</v>
+        <v>-0.001459497213263718</v>
       </c>
       <c r="E83" t="n">
-        <v>0.008683478551873458</v>
+        <v>0.01112119131915961</v>
       </c>
       <c r="F83" t="n">
         <v>0.01907728962807137</v>
@@ -3153,16 +3153,16 @@
         <v>0.02327895855390047</v>
       </c>
       <c r="H83" t="n">
-        <v>0.005080552876170074</v>
+        <v>0.004255218177448371</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0369457918595006</v>
+        <v>0.0139404057980243</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.002046512423117873</v>
+        <v>0.0003912003441682759</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01265530149653597</v>
+        <v>0.01400958636725049</v>
       </c>
     </row>
     <row r="84">
@@ -3170,16 +3170,16 @@
         <v>39021</v>
       </c>
       <c r="B84" t="n">
-        <v>0.001833838379834546</v>
+        <v>0.001218920545820441</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.008877312698764175</v>
+        <v>-0.009492230532778281</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.0005974444549215856</v>
+        <v>-0.001212362288935691</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.01009295411614224</v>
+        <v>-0.01070787195015634</v>
       </c>
       <c r="F84" t="n">
         <v>-0.01273758767107407</v>
@@ -3188,16 +3188,16 @@
         <v>-0.01856349205003101</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.004342689517275422</v>
+        <v>0.0003634642162368246</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.02543739937466565</v>
+        <v>-0.008889078347564619</v>
       </c>
       <c r="J84" t="n">
-        <v>-0.004351443720198255</v>
+        <v>-0.004966361554212361</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.009473048426278878</v>
+        <v>-0.009814669445175605</v>
       </c>
     </row>
     <row r="85">
@@ -3205,16 +3205,16 @@
         <v>39051</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.007433595066748397</v>
+        <v>-0.005705991950262232</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0008928112137403408</v>
+        <v>0.002620414330226506</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.007818493211382203</v>
+        <v>-0.006090890094896038</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0007003621414234384</v>
+        <v>0.002427965257909602</v>
       </c>
       <c r="F85" t="n">
         <v>0.01977481990928971</v>
@@ -3223,16 +3223,16 @@
         <v>0.02175217798659026</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.003690591429210885</v>
+        <v>0.001316781673536205</v>
       </c>
       <c r="I85" t="n">
-        <v>0.01329244675538947</v>
+        <v>0.005582550996120601</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.003690591429210885</v>
+        <v>-0.00196298831272472</v>
       </c>
       <c r="K85" t="n">
-        <v>0.006087942080447871</v>
+        <v>0.006951743638690956</v>
       </c>
     </row>
     <row r="86">
@@ -3240,16 +3240,16 @@
         <v>39080</v>
       </c>
       <c r="B86" t="n">
-        <v>0.002295657174570509</v>
+        <v>0.0007494623466130501</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.003685184494690795</v>
+        <v>-0.005231379322648254</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.008155113989053591</v>
+        <v>-0.009701308817011048</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.008910570076502844</v>
+        <v>-0.0104567649044603</v>
       </c>
       <c r="F86" t="n">
         <v>0.006573705388507357</v>
@@ -3258,16 +3258,16 @@
         <v>-0.001075333862486259</v>
       </c>
       <c r="H86" t="n">
-        <v>0.001561827590391196</v>
+        <v>0.001930488698589024</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.01083020878406588</v>
+        <v>-0.004640866146660267</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.003994814715507127</v>
+        <v>-0.005541009543464586</v>
       </c>
       <c r="K86" t="n">
-        <v>-0.002542984265372002</v>
+        <v>-0.003401981392015036</v>
       </c>
     </row>
     <row r="87">
@@ -3275,16 +3275,16 @@
         <v>39113</v>
       </c>
       <c r="B87" t="n">
-        <v>0.009106641019427842</v>
+        <v>0.007829620298875285</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.003310513236096525</v>
+        <v>-0.004587533956649082</v>
       </c>
       <c r="D87" t="n">
-        <v>0.01198126464718248</v>
+        <v>0.01070424392662992</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.001873201422219206</v>
+        <v>-0.003150222142771763</v>
       </c>
       <c r="F87" t="n">
         <v>-0.006477004816667994</v>
@@ -3293,16 +3293,16 @@
         <v>-0.01436765429224431</v>
       </c>
       <c r="H87" t="n">
-        <v>0.02152738925752116</v>
+        <v>0.009016122845656199</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.009428806608670759</v>
+        <v>-0.003994282683258625</v>
       </c>
       <c r="J87" t="n">
-        <v>0.009008704765702305</v>
+        <v>0.007731684045149746</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.003671053054274743</v>
+        <v>-0.004380509010137276</v>
       </c>
     </row>
     <row r="88">
@@ -3310,16 +3310,16 @@
         <v>39141</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.01160153330439496</v>
+        <v>-0.009814971920760999</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.0001240636764511249</v>
+        <v>0.00166249770718283</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.007338180046679747</v>
+        <v>-0.005551618663045791</v>
       </c>
       <c r="E88" t="n">
-        <v>0.002007612952406479</v>
+        <v>0.003794174336040433</v>
       </c>
       <c r="F88" t="n">
         <v>0.004552584414335613</v>
@@ -3328,16 +3328,16 @@
         <v>0.01226753849863474</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.02142609672687098</v>
+        <v>-0.004605178447745672</v>
       </c>
       <c r="I88" t="n">
-        <v>0.009229060563803574</v>
+        <v>0.004267394443690493</v>
       </c>
       <c r="J88" t="n">
-        <v>-0.01160153330439496</v>
+        <v>-0.009814971920760999</v>
       </c>
       <c r="K88" t="n">
-        <v>0.006234155510943709</v>
+        <v>0.007350756375714931</v>
       </c>
     </row>
     <row r="89">
@@ -3345,16 +3345,16 @@
         <v>39171</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0004403892910649996</v>
+        <v>-0.001293392120455741</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.01342930052205393</v>
+        <v>-0.01516308193357468</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0001390671345111935</v>
+        <v>-0.001594714277009548</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.01357996160033084</v>
+        <v>-0.01531374301185158</v>
       </c>
       <c r="F89" t="n">
         <v>0.01124278111005044</v>
@@ -3363,16 +3363,16 @@
         <v>-0.007715007502573569</v>
       </c>
       <c r="H89" t="n">
-        <v>0.004420899528844502</v>
+        <v>0.003019594927996809</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.03555220240500372</v>
+        <v>-0.0130065884093484</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.002886785707350971</v>
+        <v>-0.004620567118871713</v>
       </c>
       <c r="K89" t="n">
-        <v>-0.01215528505172866</v>
+        <v>-0.01323889843392913</v>
       </c>
     </row>
     <row r="90">
@@ -3380,16 +3380,16 @@
         <v>39202</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.001747726417748768</v>
+        <v>-0.002765329017401745</v>
       </c>
       <c r="C90" t="n">
-        <v>0.002698176643585271</v>
+        <v>0.001680574043932292</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.001528278828293522</v>
+        <v>-0.002545881427946499</v>
       </c>
       <c r="E90" t="n">
-        <v>0.002807900438312894</v>
+        <v>0.001790297838659916</v>
       </c>
       <c r="F90" t="n">
         <v>0.01091456791275491</v>
@@ -3398,16 +3398,16 @@
         <v>0.01836500984415919</v>
       </c>
       <c r="H90" t="n">
-        <v>0.00418391020944868</v>
+        <v>0.003305232166228197</v>
       </c>
       <c r="I90" t="n">
-        <v>0.01618276910654775</v>
+        <v>0.004715854635747263</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.001528278828293522</v>
+        <v>-0.002545881427946499</v>
       </c>
       <c r="K90" t="n">
-        <v>0.006604456982477316</v>
+        <v>0.005968455357694205</v>
       </c>
     </row>
     <row r="91">
@@ -3415,16 +3415,16 @@
         <v>39233</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.004185556111511928</v>
+        <v>-0.008077507704012925</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.01204326824431481</v>
+        <v>-0.01593521983681581</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.004361470030654728</v>
+        <v>-0.008253421623155725</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.01213122520388621</v>
+        <v>-0.01602317679638721</v>
       </c>
       <c r="F91" t="n">
         <v>-0.0002617749284424204</v>
@@ -3433,16 +3433,16 @@
         <v>-0.01544676602741053</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.01442899339089202</v>
+        <v>-0.003798629809279152</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.03360343948334477</v>
+        <v>-0.01379578088944892</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.004361470030654728</v>
+        <v>-0.008253421623155725</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.0087877888483293</v>
+        <v>-0.01122025859364242</v>
       </c>
     </row>
     <row r="92">
@@ -3450,16 +3450,16 @@
         <v>39262</v>
       </c>
       <c r="B92" t="n">
-        <v>0.01415108023459485</v>
+        <v>0.01306744456761645</v>
       </c>
       <c r="C92" t="n">
-        <v>0.002923054238731803</v>
+        <v>0.001839418571753404</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01242540857741922</v>
+        <v>0.01134177291044082</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002060218410143987</v>
+        <v>0.0009765827431655865</v>
       </c>
       <c r="F92" t="n">
         <v>0.0108508719476356</v>
@@ -3468,16 +3468,16 @@
         <v>0.001605818976255979</v>
       </c>
       <c r="H92" t="n">
-        <v>0.02611474096366421</v>
+        <v>0.01056005361741379</v>
       </c>
       <c r="I92" t="n">
-        <v>0.003924440623913018</v>
+        <v>0.000585723096652072</v>
       </c>
       <c r="J92" t="n">
-        <v>0.01242540857741922</v>
+        <v>0.01134177291044082</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.001538775936434506</v>
+        <v>-0.002216048228296006</v>
       </c>
     </row>
     <row r="93">
@@ -3485,16 +3485,16 @@
         <v>39294</v>
       </c>
       <c r="B93" t="n">
-        <v>0.006421147443939227</v>
+        <v>0.007446026509080664</v>
       </c>
       <c r="C93" t="n">
-        <v>0.01123412883518613</v>
+        <v>0.01225900790032757</v>
       </c>
       <c r="D93" t="n">
-        <v>0.006073655131336889</v>
+        <v>0.007098534196478326</v>
       </c>
       <c r="E93" t="n">
-        <v>0.01106038267888496</v>
+        <v>0.0120852617440264</v>
       </c>
       <c r="F93" t="n">
         <v>-0.003720462116136366</v>
@@ -3503,16 +3503,16 @@
         <v>0.005299689212737091</v>
       </c>
       <c r="H93" t="n">
-        <v>0.002384889187092815</v>
+        <v>0.00360592275074475</v>
       </c>
       <c r="I93" t="n">
-        <v>0.02896710993319596</v>
+        <v>0.01033895602115961</v>
       </c>
       <c r="J93" t="n">
-        <v>0.001687156369138928</v>
+        <v>0.002712035434280367</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0085842241919408</v>
+        <v>0.009153601450352709</v>
       </c>
     </row>
     <row r="94">
@@ -3520,16 +3520,16 @@
         <v>39325</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.006791107290372986</v>
+        <v>-0.004241587191258143</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.006946142693449507</v>
+        <v>-0.004396622594334662</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.006622814945649944</v>
+        <v>-0.004073294846535101</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.006861996521087986</v>
+        <v>-0.004312476421973141</v>
       </c>
       <c r="F94" t="n">
         <v>-0.004406470918731571</v>
@@ -3538,16 +3538,16 @@
         <v>-0.003474246044416264</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.02260889561842349</v>
+        <v>-0.004406810358288065</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.01853674273177857</v>
+        <v>-0.004479234177849626</v>
       </c>
       <c r="J94" t="n">
-        <v>-0.009125332349212674</v>
+        <v>-0.00657581225009783</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.001725394277550085</v>
+        <v>-0.0001319442156033079</v>
       </c>
     </row>
     <row r="95">
@@ -3555,16 +3555,16 @@
         <v>39353</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.003552197310454311</v>
+        <v>-0.002928022518690845</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.00284852109367817</v>
+        <v>-0.002224346301914704</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.002885930498193081</v>
+        <v>-0.002261755706429616</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.002515387687547555</v>
+        <v>-0.001891212895784089</v>
       </c>
       <c r="F95" t="n">
         <v>0.01342541458079578</v>
@@ -3573,16 +3573,16 @@
         <v>0.01684875637948904</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.004232689775702642</v>
+        <v>0.0008219764868350908</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.002296389980982139</v>
+        <v>-0.0003493467991517356</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.001975668124503772</v>
+        <v>-0.001351493332740306</v>
       </c>
       <c r="K95" t="n">
-        <v>0.0005597119881100628</v>
+        <v>0.0009064757613119882</v>
       </c>
     </row>
     <row r="96">
@@ -3590,16 +3590,16 @@
         <v>39386</v>
       </c>
       <c r="B96" t="n">
-        <v>0.01861264525683345</v>
+        <v>0.01730826919839059</v>
       </c>
       <c r="C96" t="n">
-        <v>0.005491103258057394</v>
+        <v>0.004186727199614525</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01860739620953539</v>
+        <v>0.01730302015109252</v>
       </c>
       <c r="E96" t="n">
-        <v>0.005488478734408364</v>
+        <v>0.004184102675965495</v>
       </c>
       <c r="F96" t="n">
         <v>-0.008288158468289657</v>
@@ -3608,16 +3608,16 @@
         <v>-0.008397314234098816</v>
       </c>
       <c r="H96" t="n">
-        <v>0.02327039804262875</v>
+        <v>0.009808007328061964</v>
       </c>
       <c r="I96" t="n">
-        <v>0.003918540910236377</v>
+        <v>0.0004365962644502139</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0170533758883376</v>
+        <v>0.01574899982989473</v>
       </c>
       <c r="K96" t="n">
-        <v>-0.0005192353586317795</v>
+        <v>-0.001243888724433373</v>
       </c>
     </row>
     <row r="97">
@@ -3625,16 +3625,16 @@
         <v>39416</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.0009212346405100703</v>
+        <v>0.001849390832698961</v>
       </c>
       <c r="C97" t="n">
-        <v>0.004749912547517821</v>
+        <v>0.007520538020726853</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.002301973499667376</v>
+        <v>0.0004686519735416575</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004059543117939169</v>
+        <v>0.006830168591148199</v>
       </c>
       <c r="F97" t="n">
         <v>0.01098849501692129</v>
@@ -3643,16 +3643,16 @@
         <v>0.01901448516928453</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.003024162822245102</v>
+        <v>0.002144376439210199</v>
       </c>
       <c r="I97" t="n">
-        <v>0.01746284152552935</v>
+        <v>0.00766803082398247</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.004381626532362063</v>
+        <v>-0.00161100105915303</v>
       </c>
       <c r="K97" t="n">
-        <v>0.006882196534439522</v>
+        <v>0.008267509271044039</v>
       </c>
     </row>
     <row r="98">
@@ -3660,13 +3660,13 @@
         <v>39447</v>
       </c>
       <c r="B98" t="n">
-        <v>0.01751012186313648</v>
+        <v>0.01640165533594574</v>
       </c>
       <c r="C98" t="n">
-        <v>0.01004425594447111</v>
+        <v>0.008935789417280371</v>
       </c>
       <c r="D98" t="n">
-        <v>0.004426911952040018</v>
+        <v>0.005535378479230761</v>
       </c>
       <c r="E98" t="n">
         <v>0.003502650988922885</v>
@@ -3678,16 +3678,16 @@
         <v>0.009032563179337805</v>
       </c>
       <c r="H98" t="n">
-        <v>0.01904272418623068</v>
+        <v>0.00901450801558492</v>
       </c>
       <c r="I98" t="n">
-        <v>0.01683511379849063</v>
+        <v>0.005242215757099963</v>
       </c>
       <c r="J98" t="n">
-        <v>0.007603246860648411</v>
+        <v>0.008711713387839154</v>
       </c>
       <c r="K98" t="n">
-        <v>0.003662592655323685</v>
+        <v>0.003046777917995495</v>
       </c>
     </row>
     <row r="99">
@@ -3695,16 +3695,16 @@
         <v>39478</v>
       </c>
       <c r="B99" t="n">
-        <v>0.008572460310267305</v>
+        <v>0.01071155897965954</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0170628167414179</v>
+        <v>0.01920191541081013</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.001586109534872502</v>
+        <v>0.0005529891345197324</v>
       </c>
       <c r="E99" t="n">
-        <v>0.011983531818848</v>
+        <v>0.01412263048824023</v>
       </c>
       <c r="F99" t="n">
         <v>-0.009396990184753307</v>
@@ -3713,16 +3713,16 @@
         <v>0.006963339618698505</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.01373151863104196</v>
+        <v>-0.00163271406129065</v>
       </c>
       <c r="I99" t="n">
-        <v>0.03481113933222065</v>
+        <v>0.01302977889033504</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.009767475029304343</v>
+        <v>-0.007628376359912108</v>
       </c>
       <c r="K99" t="n">
-        <v>0.01362207415032537</v>
+        <v>0.01481046229998773</v>
       </c>
     </row>
     <row r="100">
@@ -3730,16 +3730,16 @@
         <v>39507</v>
       </c>
       <c r="B100" t="n">
-        <v>0.03817525879941763</v>
+        <v>0.03861975047819072</v>
       </c>
       <c r="C100" t="n">
-        <v>0.005369080912205004</v>
+        <v>0.0058135725909781</v>
       </c>
       <c r="D100" t="n">
-        <v>0.009803277696831723</v>
+        <v>0.01024776937560482</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.008816909639087945</v>
+        <v>-0.00837241796031485</v>
       </c>
       <c r="F100" t="n">
         <v>8.122436374333533e-06</v>
@@ -3748,16 +3748,16 @@
         <v>-0.01256970934744639</v>
       </c>
       <c r="H100" t="n">
-        <v>0.0380945002390382</v>
+        <v>0.01493164545408525</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.01898042312077011</v>
+        <v>-0.006030479921074638</v>
       </c>
       <c r="J100" t="n">
-        <v>0.01253844954887167</v>
+        <v>0.01298294122764477</v>
       </c>
       <c r="K100" t="n">
-        <v>-0.007988930185369392</v>
+        <v>-0.007711122886136207</v>
       </c>
     </row>
     <row r="101">
@@ -3765,16 +3765,16 @@
         <v>39538</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.02681334153140526</v>
+        <v>-0.02760664456269923</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.01194308996511118</v>
+        <v>-0.01273639299640515</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.01187167789021228</v>
+        <v>-0.01266498092150625</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.004472258144514684</v>
+        <v>-0.005265561175808653</v>
       </c>
       <c r="F101" t="n">
         <v>0.01959053434903991</v>
@@ -3783,16 +3783,16 @@
         <v>0.02694179740860183</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.03779242875403796</v>
+        <v>-0.01066205874325879</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.01120569419746684</v>
+        <v>-0.004264100086684927</v>
       </c>
       <c r="J101" t="n">
-        <v>-0.01951182912515999</v>
+        <v>-0.02030513215645396</v>
       </c>
       <c r="K101" t="n">
-        <v>-0.002645794716618382</v>
+        <v>-0.003141609111177112</v>
       </c>
     </row>
     <row r="102">
@@ -3800,16 +3800,16 @@
         <v>39568</v>
       </c>
       <c r="B102" t="n">
-        <v>9.921996853305172e-05</v>
+        <v>-0.001201608901838522</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.01066455071573165</v>
+        <v>-0.01196537958610322</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.008632147610651862</v>
+        <v>-0.009932976481023434</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.01503023450532411</v>
+        <v>-0.01633106337569568</v>
       </c>
       <c r="F102" t="n">
         <v>-0.007586149732388834</v>
@@ -3818,16 +3818,16 @@
         <v>-0.01793836408558007</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.00898941046803846</v>
+        <v>-0.001260079779470011</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.03338218733401375</v>
+        <v>-0.01199461502491896</v>
       </c>
       <c r="J102" t="n">
-        <v>-0.01274874835199756</v>
+        <v>-0.01404957722236913</v>
       </c>
       <c r="K102" t="n">
-        <v>-0.009413695810009332</v>
+        <v>-0.01013637851577132</v>
       </c>
     </row>
     <row r="103">
@@ -3835,16 +3835,16 @@
         <v>39598</v>
       </c>
       <c r="B103" t="n">
-        <v>0.009031307901932637</v>
+        <v>0.007859053214117669</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.01577186682486922</v>
+        <v>-0.01694412151268419</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.00973151808288745</v>
+        <v>-0.01090377277070242</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.02515327981727927</v>
+        <v>-0.02632553450509423</v>
       </c>
       <c r="F103" t="n">
         <v>-0.005956142172183532</v>
@@ -3853,16 +3853,16 @@
         <v>-0.02478196168999836</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.01158987920994966</v>
+        <v>-0.00197515574369932</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.06323916859914812</v>
+        <v>-0.02186122599159268</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.0226274283229044</v>
+        <v>-0.02379968301071937</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.02062829187199607</v>
+        <v>-0.02136095105188042</v>
       </c>
     </row>
     <row r="104">
@@ -3870,16 +3870,16 @@
         <v>39629</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.008384479244269306</v>
+        <v>-0.009147955106076291</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.008572876742701886</v>
+        <v>-0.009336352604508869</v>
       </c>
       <c r="D104" t="n">
-        <v>0.005985869572077695</v>
+        <v>0.005222393710270712</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.001387702334528384</v>
+        <v>-0.002151178196335367</v>
       </c>
       <c r="F104" t="n">
         <v>0.01280597543259623</v>
@@ -3888,16 +3888,16 @@
         <v>0.007024884616108042</v>
       </c>
       <c r="H104" t="n">
-        <v>0.003929389307900055</v>
+        <v>0.003534156333882875</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.007458938929973889</v>
+        <v>-0.002995296884529285</v>
       </c>
       <c r="J104" t="n">
-        <v>-0.001956581981432604</v>
+        <v>-0.002720057843239589</v>
       </c>
       <c r="K104" t="n">
-        <v>-0.00157981465235884</v>
+        <v>-0.002003967908918275</v>
       </c>
     </row>
     <row r="105">
@@ -3905,16 +3905,16 @@
         <v>39660</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0002021596230860948</v>
+        <v>0.004537347548282099</v>
       </c>
       <c r="C105" t="n">
-        <v>0.02365845408062839</v>
+        <v>0.0279936420058244</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0309064871306546</v>
+        <v>0.03524167505585061</v>
       </c>
       <c r="E105" t="n">
-        <v>0.03901061783441264</v>
+        <v>0.04334580575960865</v>
       </c>
       <c r="F105" t="n">
         <v>0.003582108420123876</v>
@@ -3923,16 +3923,16 @@
         <v>0.02854735125491718</v>
       </c>
       <c r="H105" t="n">
-        <v>0.03016050423013643</v>
+        <v>0.01397052701474044</v>
       </c>
       <c r="I105" t="n">
-        <v>0.08946031936676868</v>
+        <v>0.03271023173905356</v>
       </c>
       <c r="J105" t="n">
-        <v>0.01793723071699602</v>
+        <v>0.02227241864219202</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02610476787600713</v>
+        <v>0.02851320561222713</v>
       </c>
     </row>
     <row r="106">
@@ -3940,16 +3940,16 @@
         <v>39689</v>
       </c>
       <c r="B106" t="n">
-        <v>0.00172011896105293</v>
+        <v>0.005368462262524631</v>
       </c>
       <c r="C106" t="n">
-        <v>0.02315876819287004</v>
+        <v>0.02680711149434174</v>
       </c>
       <c r="D106" t="n">
-        <v>0.02172032158621035</v>
+        <v>0.02536866488768206</v>
       </c>
       <c r="E106" t="n">
-        <v>0.03315886950544876</v>
+        <v>0.03680721280692046</v>
       </c>
       <c r="F106" t="n">
         <v>0.003201032769411167</v>
@@ -3958,16 +3958,16 @@
         <v>0.01649519841899482</v>
       </c>
       <c r="H106" t="n">
-        <v>0.02265103379538213</v>
+        <v>0.01109182940265498</v>
       </c>
       <c r="I106" t="n">
-        <v>0.08170969859027735</v>
+        <v>0.02966879506440692</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02531876222837336</v>
+        <v>0.02896710552984506</v>
       </c>
       <c r="K106" t="n">
-        <v>0.02558555425146443</v>
+        <v>0.02761241164117093</v>
       </c>
     </row>
     <row r="107">
@@ -3975,16 +3975,16 @@
         <v>39721</v>
       </c>
       <c r="B107" t="n">
-        <v>0.02824174127919575</v>
+        <v>0.03384311992782865</v>
       </c>
       <c r="C107" t="n">
-        <v>0.05180719100699104</v>
+        <v>0.05740856965562394</v>
       </c>
       <c r="D107" t="n">
-        <v>0.09489383045406562</v>
+        <v>0.1004952091026985</v>
       </c>
       <c r="E107" t="n">
-        <v>0.08513323559442597</v>
+        <v>0.09073461424305887</v>
       </c>
       <c r="F107" t="n">
         <v>-0.04169780804979075</v>
@@ -3993,16 +3993,16 @@
         <v>0.006839471842874213</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0764850615706606</v>
+        <v>0.0292258504434682</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1540970474430653</v>
+        <v>0.05509993491344371</v>
       </c>
       <c r="J107" t="n">
-        <v>0.07205389970795142</v>
+        <v>0.07765527835658433</v>
       </c>
       <c r="K107" t="n">
-        <v>0.04343367231614349</v>
+        <v>0.04654554934316177</v>
       </c>
     </row>
     <row r="108">
@@ -4010,13 +4010,13 @@
         <v>39752</v>
       </c>
       <c r="B108" t="n">
-        <v>0.01925453515737853</v>
+        <v>0.01630902469405028</v>
       </c>
       <c r="C108" t="n">
-        <v>0.006453254671898412</v>
+        <v>0.003507744208570163</v>
       </c>
       <c r="D108" t="n">
-        <v>0.008289642602025955</v>
+        <v>0.0112351530653542</v>
       </c>
       <c r="E108" t="n">
         <v>0.0009708083942221229</v>
@@ -4028,16 +4028,16 @@
         <v>-0.01581476166598073</v>
       </c>
       <c r="H108" t="n">
-        <v>0.002410411625695923</v>
+        <v>0.001137411498567002</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.006343166240857935</v>
+        <v>-0.004078062389171478</v>
       </c>
       <c r="J108" t="n">
-        <v>0.002410411625695923</v>
+        <v>-0.0005350988376323258</v>
       </c>
       <c r="K108" t="n">
-        <v>-0.00218717957345752</v>
+        <v>-0.003659934805121645</v>
       </c>
     </row>
     <row r="109">
@@ -4045,16 +4045,16 @@
         <v>39780</v>
       </c>
       <c r="B109" t="n">
-        <v>0.02364025809351675</v>
+        <v>0.03274884308845909</v>
       </c>
       <c r="C109" t="n">
-        <v>0.01161726935007683</v>
+        <v>0.02072585434501917</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.02901385966931701</v>
+        <v>-0.01990527467437467</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.01470978953134005</v>
+        <v>-0.005601204536397709</v>
       </c>
       <c r="F109" t="n">
         <v>0.0115945920315594</v>
@@ -4063,16 +4063,16 @@
         <v>0.01869876200220003</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.01053935252787638</v>
+        <v>0.0003993737853182832</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.004563810909538377</v>
+        <v>0.00455111969344877</v>
       </c>
       <c r="J109" t="n">
-        <v>0.005447621208014732</v>
+        <v>0.01455620620295708</v>
       </c>
       <c r="K109" t="n">
-        <v>-0.004082028169862827</v>
+        <v>0.0009782968273273629</v>
       </c>
     </row>
     <row r="110">
@@ -4080,16 +4080,16 @@
         <v>39813</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.03203957235688663</v>
+        <v>-0.03016442713892229</v>
       </c>
       <c r="C110" t="n">
-        <v>0.03310456569087149</v>
+        <v>0.03497971090883584</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.02866605649486265</v>
+        <v>-0.0267909112768983</v>
       </c>
       <c r="E110" t="n">
-        <v>0.03479132362188349</v>
+        <v>0.03666646883984783</v>
       </c>
       <c r="F110" t="n">
         <v>0.03771443373187418</v>
@@ -4098,16 +4098,16 @@
         <v>0.102007515240799</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.0910471050047845</v>
+        <v>-0.02760977867251937</v>
       </c>
       <c r="I110" t="n">
-        <v>0.1031456697722189</v>
+        <v>0.0362570351420373</v>
       </c>
       <c r="J110" t="n">
-        <v>-0.07997258433292687</v>
+        <v>-0.07809743911496252</v>
       </c>
       <c r="K110" t="n">
-        <v>0.05017587616674893</v>
+        <v>0.05121762351006245</v>
       </c>
     </row>
     <row r="111">
@@ -4115,13 +4115,13 @@
         <v>39843</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.008978470811604826</v>
+        <v>-0.0100414624312975</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.01935441351185814</v>
+        <v>-0.02041740513155081</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.0008162460712946434</v>
+        <v>0.0002467455483980332</v>
       </c>
       <c r="E111" t="n">
         <v>-0.01527330114170305</v>
@@ -4133,16 +4133,16 @@
         <v>-0.01187347598285047</v>
       </c>
       <c r="H111" t="n">
-        <v>0.01395026118985757</v>
+        <v>0.004848534301166074</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.03679123705657173</v>
+        <v>-0.01297240676531902</v>
       </c>
       <c r="J111" t="n">
-        <v>0.01090137993478804</v>
+        <v>0.009838388315095366</v>
       </c>
       <c r="K111" t="n">
-        <v>-0.01405475468680671</v>
+        <v>-0.01464530558663598</v>
       </c>
     </row>
     <row r="112">
@@ -4150,16 +4150,16 @@
         <v>39871</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.0002997483152230528</v>
+        <v>0.002296384936459478</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.01204623189797767</v>
+        <v>-0.009450098646295134</v>
       </c>
       <c r="D112" t="n">
-        <v>0.03219331608161687</v>
+        <v>0.02959718282993434</v>
       </c>
       <c r="E112" t="n">
-        <v>0.004200300300442297</v>
+        <v>0.004200300300442293</v>
       </c>
       <c r="F112" t="n">
         <v>0.002304535112536685</v>
@@ -4168,16 +4168,16 @@
         <v>-0.003204342271398985</v>
       </c>
       <c r="H112" t="n">
-        <v>0.05709463257286322</v>
+        <v>0.0202624774970708</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.006593423601333477</v>
+        <v>-0.0004670523659894704</v>
       </c>
       <c r="J112" t="n">
-        <v>0.01711324976305282</v>
+        <v>0.01970938301473535</v>
       </c>
       <c r="K112" t="n">
-        <v>-0.004578612531252482</v>
+        <v>-0.0029560292489509</v>
       </c>
     </row>
     <row r="113">
@@ -4185,13 +4185,13 @@
         <v>39903</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.02719120843000777</v>
+        <v>-0.02838164207764759</v>
       </c>
       <c r="C113" t="n">
-        <v>0.006401697513215999</v>
+        <v>0.005211263865576177</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.001161279591697643</v>
+        <v>2.915405594217796e-05</v>
       </c>
       <c r="E113" t="n">
         <v>0.01941666193237106</v>
@@ -4203,16 +4203,16 @@
         <v>0.02843690366485119</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.02278707773116475</v>
+        <v>-0.007719911200342261</v>
       </c>
       <c r="I113" t="n">
-        <v>0.04900725520796616</v>
+        <v>0.01554212930422884</v>
       </c>
       <c r="J113" t="n">
-        <v>-0.006127132165998198</v>
+        <v>-0.007317565813638018</v>
       </c>
       <c r="K113" t="n">
-        <v>0.01850956912431212</v>
+        <v>0.01776554809453723</v>
       </c>
     </row>
     <row r="114">
@@ -4220,13 +4220,13 @@
         <v>39933</v>
       </c>
       <c r="B114" t="n">
-        <v>0.007908219151078151</v>
+        <v>0.008491978070627709</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.004279771055469129</v>
+        <v>-0.003696012135919569</v>
       </c>
       <c r="D114" t="n">
-        <v>0.01065464581325363</v>
+        <v>0.01007088689370407</v>
       </c>
       <c r="E114" t="n">
         <v>-0.01047322266845394</v>
@@ -4238,16 +4238,16 @@
         <v>-0.01117972750725527</v>
       </c>
       <c r="H114" t="n">
-        <v>0.04749264875742533</v>
+        <v>0.01639435811454719</v>
       </c>
       <c r="I114" t="n">
-        <v>-0.009900504184907469</v>
+        <v>-0.002910995448602783</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02087114223084256</v>
+        <v>0.02145490115039212</v>
       </c>
       <c r="K114" t="n">
-        <v>-0.006996130129595744</v>
+        <v>-0.006671819618734877</v>
       </c>
     </row>
     <row r="115">
@@ -4255,13 +4255,13 @@
         <v>39962</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.004530294994758644</v>
+        <v>-0.008776516618799936</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.007691580960944489</v>
+        <v>-0.01193780258498578</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.009268530541961983</v>
+        <v>-0.005022308917920691</v>
       </c>
       <c r="E115" t="n">
         <v>-0.008645338897061382</v>
@@ -4273,16 +4273,16 @@
         <v>-0.02356642882929596</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.01813060378568651</v>
+        <v>-0.007112015877316673</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.02512567392898162</v>
+        <v>-0.0112060390590214</v>
       </c>
       <c r="J115" t="n">
-        <v>-0.007923514672255393</v>
+        <v>-0.01216973629629669</v>
       </c>
       <c r="K115" t="n">
-        <v>-0.006990724514879809</v>
+        <v>-0.009349736528236079</v>
       </c>
     </row>
     <row r="116">
@@ -4290,13 +4290,13 @@
         <v>39994</v>
       </c>
       <c r="B116" t="n">
-        <v>0.005434807948138959</v>
+        <v>0.00625097503219019</v>
       </c>
       <c r="C116" t="n">
-        <v>0.01127702772267729</v>
+        <v>0.01209319480672852</v>
       </c>
       <c r="D116" t="n">
-        <v>0.008651131779774796</v>
+        <v>0.007834964695723564</v>
       </c>
       <c r="E116" t="n">
         <v>0.01288518963849521</v>
@@ -4308,16 +4308,16 @@
         <v>0.007187685362816308</v>
       </c>
       <c r="H116" t="n">
-        <v>0.02582012476175731</v>
+        <v>0.008542059966642765</v>
       </c>
       <c r="I116" t="n">
-        <v>0.03903009460858031</v>
+        <v>0.01328208723087718</v>
       </c>
       <c r="J116" t="n">
-        <v>0.01058439506848263</v>
+        <v>0.009768227984431398</v>
       </c>
       <c r="K116" t="n">
-        <v>0.01313615329710109</v>
+        <v>0.01364625772463311</v>
       </c>
     </row>
     <row r="117">
@@ -4325,13 +4325,13 @@
         <v>40025</v>
       </c>
       <c r="B117" t="n">
-        <v>0.01862698364681839</v>
+        <v>0.01357590841535299</v>
       </c>
       <c r="C117" t="n">
-        <v>0.01604071751255827</v>
+        <v>0.01098964228109287</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.002859753292626171</v>
+        <v>0.002191321938839225</v>
       </c>
       <c r="E117" t="n">
         <v>0.005258429332750759</v>
@@ -4343,16 +4343,16 @@
         <v>-0.0003102445455662965</v>
       </c>
       <c r="H117" t="n">
-        <v>0.004693946843540551</v>
+        <v>0.003365451802779758</v>
       </c>
       <c r="I117" t="n">
-        <v>0.02482217587092541</v>
+        <v>0.006590366879820006</v>
       </c>
       <c r="J117" t="n">
-        <v>-0.002781913872455716</v>
+        <v>0.002269161359009678</v>
       </c>
       <c r="K117" t="n">
-        <v>0.009120879288717977</v>
+        <v>0.006314726382348312</v>
       </c>
     </row>
     <row r="118">
@@ -4360,13 +4360,13 @@
         <v>40056</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.004766020525338206</v>
+        <v>-0.004323168800185437</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0004199270226186158</v>
+        <v>0.0008627787477713872</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.006918158500229608</v>
+        <v>-0.007361010225382379</v>
       </c>
       <c r="E118" t="n">
         <v>0.0002371088177369092</v>
@@ -4378,16 +4378,16 @@
         <v>0.00923003559140456</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.01597255033400553</v>
+        <v>-0.005343208093793506</v>
       </c>
       <c r="I118" t="n">
-        <v>0.004222703892103042</v>
+        <v>0.001555185205751938</v>
       </c>
       <c r="J118" t="n">
-        <v>-0.006918158500229608</v>
+        <v>-0.007361010225382379</v>
       </c>
       <c r="K118" t="n">
-        <v>0.001480066864371437</v>
+        <v>0.001756849192591919</v>
       </c>
     </row>
     <row r="119">
@@ -4395,13 +4395,13 @@
         <v>40086</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.009395289706208326</v>
+        <v>-0.009030756083745099</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.00104080865275702</v>
+        <v>-0.000676275030293794</v>
       </c>
       <c r="D119" t="n">
-        <v>0.005616285966278133</v>
+        <v>0.005251752343814907</v>
       </c>
       <c r="E119" t="n">
         <v>0.006832102558657895</v>
@@ -4413,16 +4413,16 @@
         <v>0.01663980123761153</v>
       </c>
       <c r="H119" t="n">
-        <v>0.001909895165935477</v>
+        <v>0.0006656760700463067</v>
       </c>
       <c r="I119" t="n">
-        <v>0.01433309180248941</v>
+        <v>0.00489920847498421</v>
       </c>
       <c r="J119" t="n">
-        <v>0.006614203199838182</v>
+        <v>0.006249669577374956</v>
       </c>
       <c r="K119" t="n">
-        <v>0.003483681468075026</v>
+        <v>0.003711514982114542</v>
       </c>
     </row>
     <row r="120">
@@ -4430,13 +4430,13 @@
         <v>40116</v>
       </c>
       <c r="B120" t="n">
-        <v>0.01074662677155236</v>
+        <v>0.01042221361684736</v>
       </c>
       <c r="C120" t="n">
-        <v>0.002137549164646212</v>
+        <v>0.001813136009941218</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.004213478119045156</v>
+        <v>-0.003889064964340161</v>
       </c>
       <c r="E120" t="n">
         <v>-0.005070850850599463</v>
@@ -4448,16 +4448,16 @@
         <v>-0.006920045621917881</v>
       </c>
       <c r="H120" t="n">
-        <v>0.003452648498112732</v>
+        <v>0.001507353884272576</v>
       </c>
       <c r="I120" t="n">
-        <v>-0.005034649186420717</v>
+        <v>-0.00178635411370857</v>
       </c>
       <c r="J120" t="n">
-        <v>-0.004310536206119343</v>
+        <v>-0.003986123051414349</v>
       </c>
       <c r="K120" t="n">
-        <v>-5.053230333244103e-06</v>
+        <v>-0.0002078114520238656</v>
       </c>
     </row>
     <row r="121">
@@ -4465,13 +4465,13 @@
         <v>40147</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.03895581165640441</v>
+        <v>-0.03625159081081322</v>
       </c>
       <c r="C121" t="n">
-        <v>0.006720538893990758</v>
+        <v>0.009424759739581946</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.002940116858711264</v>
+        <v>-0.005644337704302451</v>
       </c>
       <c r="E121" t="n">
         <v>0.02424103601871552</v>
@@ -4483,16 +4483,16 @@
         <v>0.01720642442310827</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.05761569641088213</v>
+        <v>-0.01985806501141703</v>
       </c>
       <c r="I121" t="n">
-        <v>0.04397120904103201</v>
+        <v>0.0155584766288744</v>
       </c>
       <c r="J121" t="n">
-        <v>-0.02738136590175818</v>
+        <v>-0.03008558674734937</v>
       </c>
       <c r="K121" t="n">
-        <v>0.01722083823886415</v>
+        <v>0.01891097626735865</v>
       </c>
     </row>
     <row r="122">
@@ -4500,13 +4500,13 @@
         <v>40178</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.007918459969256801</v>
+        <v>-0.007155999317797805</v>
       </c>
       <c r="C122" t="n">
-        <v>0.007341452334245279</v>
+        <v>0.008103912985704276</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.02901214503091536</v>
+        <v>-0.02977460568237436</v>
       </c>
       <c r="E122" t="n">
         <v>-0.003444613198259706</v>
@@ -4518,16 +4518,16 @@
         <v>-0.01282161029603794</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.06461728657496596</v>
+        <v>-0.0215647675939935</v>
       </c>
       <c r="I122" t="n">
-        <v>-0.003113022702873169</v>
+        <v>-0.0007835206838047257</v>
       </c>
       <c r="J122" t="n">
-        <v>-0.034108934848464</v>
+        <v>-0.03487139549992299</v>
       </c>
       <c r="K122" t="n">
-        <v>0.003585652554564167</v>
+        <v>0.00406219046172604</v>
       </c>
     </row>
     <row r="123">
@@ -4535,13 +4535,13 @@
         <v>40207</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.008762383380254497</v>
+        <v>-0.00901543580695156</v>
       </c>
       <c r="C123" t="n">
-        <v>0.01533945422535765</v>
+        <v>0.01508640179866059</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.02236828804619994</v>
+        <v>-0.02211523561950288</v>
       </c>
       <c r="E123" t="n">
         <v>0.006807006055367992</v>
@@ -4553,16 +4553,16 @@
         <v>-0.002217484182441677</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.06129956318225319</v>
+        <v>-0.02017000358518537</v>
       </c>
       <c r="I123" t="n">
-        <v>0.02427091201916725</v>
+        <v>0.00800595319749006</v>
       </c>
       <c r="J123" t="n">
-        <v>-0.03474695461870855</v>
+        <v>-0.03449390219201148</v>
       </c>
       <c r="K123" t="n">
-        <v>0.01209254180400741</v>
+        <v>0.01193438403732175</v>
       </c>
     </row>
     <row r="124">
@@ -4570,13 +4570,13 @@
         <v>40235</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.01076425715635278</v>
+        <v>-0.008604376162944004</v>
       </c>
       <c r="C124" t="n">
-        <v>0.003716936235917353</v>
+        <v>0.005876817229326132</v>
       </c>
       <c r="D124" t="n">
-        <v>0.004781738792278619</v>
+        <v>0.00262185779886984</v>
       </c>
       <c r="E124" t="n">
         <v>0.01220023862804927</v>
@@ -4588,16 +4588,16 @@
         <v>0.01871115616761836</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.0004122431550532789</v>
+        <v>-0.0006727821235614252</v>
       </c>
       <c r="I124" t="n">
-        <v>0.02831825082848074</v>
+        <v>0.01015937727396317</v>
       </c>
       <c r="J124" t="n">
-        <v>0.003350741487321961</v>
+        <v>0.001190860493913179</v>
       </c>
       <c r="K124" t="n">
-        <v>0.007170297279811457</v>
+        <v>0.008520222900691946</v>
       </c>
     </row>
     <row r="125">
@@ -4605,13 +4605,13 @@
         <v>40268</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.0200760739214514</v>
+        <v>-0.02105819990922383</v>
       </c>
       <c r="C125" t="n">
-        <v>0.006869541901421727</v>
+        <v>0.005887415913649297</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.009619559589768045</v>
+        <v>-0.008637433601995613</v>
       </c>
       <c r="E125" t="n">
         <v>0.01256204746691338</v>
@@ -4623,16 +4623,16 @@
         <v>0.0108769972678532</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.04452474394327818</v>
+        <v>-0.01432659487405747</v>
       </c>
       <c r="I125" t="n">
-        <v>0.02796050162350465</v>
+        <v>0.008992791878577407</v>
       </c>
       <c r="J125" t="n">
-        <v>-0.0226145062439274</v>
+        <v>-0.02163238025615497</v>
       </c>
       <c r="K125" t="n">
-        <v>0.01194567993205913</v>
+        <v>0.01140005438329667</v>
       </c>
     </row>
     <row r="126">
@@ -4640,13 +4640,13 @@
         <v>40298</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.01895620889545671</v>
+        <v>-0.01846046153355332</v>
       </c>
       <c r="C126" t="n">
-        <v>0.02886736672673947</v>
+        <v>0.02936311408864286</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.02985265328847926</v>
+        <v>-0.03034840065038264</v>
       </c>
       <c r="E126" t="n">
         <v>0.02085499577987908</v>
@@ -4658,16 +4658,16 @@
         <v>0.001408821833952478</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.09504057271429898</v>
+        <v>-0.03171544002540079</v>
       </c>
       <c r="I126" t="n">
-        <v>0.05606201496974913</v>
+        <v>0.01885258744388417</v>
       </c>
       <c r="J126" t="n">
-        <v>-0.06107107167209968</v>
+        <v>-0.06156681903400307</v>
       </c>
       <c r="K126" t="n">
-        <v>0.03041527537509236</v>
+        <v>0.03072511747628197</v>
       </c>
     </row>
     <row r="127">
@@ -4675,13 +4675,13 @@
         <v>40329</v>
       </c>
       <c r="B127" t="n">
-        <v>0.003510367225253883</v>
+        <v>0.006456445809711162</v>
       </c>
       <c r="C127" t="n">
-        <v>0.02883631220658192</v>
+        <v>0.0317823907910392</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.02204834496551105</v>
+        <v>-0.02499442354996833</v>
       </c>
       <c r="E127" t="n">
         <v>0.01193323297578723</v>
@@ -4693,16 +4693,16 @@
         <v>0.007786022256589932</v>
       </c>
       <c r="H127" t="n">
-        <v>-0.03612166337886832</v>
+        <v>-0.01292958065444186</v>
       </c>
       <c r="I127" t="n">
-        <v>0.05405718184335302</v>
+        <v>0.0190010868092701</v>
       </c>
       <c r="J127" t="n">
-        <v>-0.02422593570750655</v>
+        <v>-0.02717201429196383</v>
       </c>
       <c r="K127" t="n">
-        <v>0.02357642566715047</v>
+        <v>0.02541772478243627</v>
       </c>
     </row>
     <row r="128">
@@ -4710,13 +4710,13 @@
         <v>40359</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.008134941083224004</v>
+        <v>-0.006667726300738724</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.007354089316459733</v>
+        <v>-0.005886874533974451</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.001164293879378127</v>
+        <v>-0.00263150866186341</v>
       </c>
       <c r="E128" t="n">
         <v>-0.0057766275598089</v>
@@ -4728,16 +4728,16 @@
         <v>-0.000524035377737821</v>
       </c>
       <c r="H128" t="n">
-        <v>0.01924337374477175</v>
+        <v>0.006013164098539934</v>
       </c>
       <c r="I128" t="n">
-        <v>-0.00132742133095023</v>
+        <v>4.659781717835081e-05</v>
       </c>
       <c r="J128" t="n">
-        <v>0.006808556133593999</v>
+        <v>0.005341341351108716</v>
       </c>
       <c r="K128" t="n">
-        <v>-0.001613156758370038</v>
+        <v>-0.000798037434767104</v>
       </c>
     </row>
     <row r="129">
@@ -4745,13 +4745,13 @@
         <v>40389</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.001418936889449672</v>
+        <v>-0.001819844617871168</v>
       </c>
       <c r="C129" t="n">
-        <v>0.03039795562793395</v>
+        <v>0.02999704789951245</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.02731029006068822</v>
+        <v>-0.02690938233226672</v>
       </c>
       <c r="E129" t="n">
         <v>0.02169974402532042</v>
@@ -4763,16 +4763,16 @@
         <v>0.01699220073033567</v>
       </c>
       <c r="H129" t="n">
-        <v>-0.0634774932147224</v>
+        <v>-0.0208221951621003</v>
       </c>
       <c r="I129" t="n">
-        <v>0.06572697445988362</v>
+        <v>0.02177535557715404</v>
       </c>
       <c r="J129" t="n">
-        <v>-0.0358052200266997</v>
+        <v>-0.03540431229827821</v>
       </c>
       <c r="K129" t="n">
-        <v>0.02852473035590288</v>
+        <v>0.02830200384011316</v>
       </c>
     </row>
     <row r="130">
@@ -4780,13 +4780,13 @@
         <v>40421</v>
       </c>
       <c r="B130" t="n">
-        <v>0.01198574559581917</v>
+        <v>0.01444199992560024</v>
       </c>
       <c r="C130" t="n">
-        <v>0.00366735752538707</v>
+        <v>0.006123611855168142</v>
       </c>
       <c r="D130" t="n">
-        <v>0.02846755561233767</v>
+        <v>0.02601130128255659</v>
       </c>
       <c r="E130" t="n">
         <v>0.004109083474195079</v>
@@ -4798,16 +4798,16 @@
         <v>0.001616874041690287</v>
       </c>
       <c r="H130" t="n">
-        <v>0.05220825356927958</v>
+        <v>0.01679496270946246</v>
       </c>
       <c r="I130" t="n">
-        <v>0.01027129834787066</v>
+        <v>0.004242517559217247</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03288949600429729</v>
+        <v>0.03043324167451621</v>
       </c>
       <c r="K130" t="n">
-        <v>-0.003540841054495071</v>
+        <v>-0.002312713889604537</v>
       </c>
     </row>
     <row r="131">
@@ -4815,13 +4815,13 @@
         <v>40451</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.005925013002002975</v>
+        <v>-0.007098505862564028</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.005480814052101014</v>
+        <v>-0.006654306912662068</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.009454985147990043</v>
+        <v>-0.008281492287428988</v>
       </c>
       <c r="E131" t="n">
         <v>-0.007095334099525051</v>
@@ -4833,16 +4833,16 @@
         <v>0.01999451747254661</v>
       </c>
       <c r="H131" t="n">
-        <v>-0.02571763953388842</v>
+        <v>-0.007923048891109122</v>
       </c>
       <c r="I131" t="n">
-        <v>-0.02140247791068699</v>
+        <v>-0.007525323590416014</v>
       </c>
       <c r="J131" t="n">
-        <v>-0.01022069587811916</v>
+        <v>-0.009047203017558106</v>
       </c>
       <c r="K131" t="n">
-        <v>-0.00554075418945347</v>
+        <v>-0.006192694667542946</v>
       </c>
     </row>
     <row r="132">
@@ -4850,13 +4850,13 @@
         <v>40480</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.02292756717055591</v>
+        <v>-0.02393323857818324</v>
       </c>
       <c r="C132" t="n">
-        <v>0.01297553519689312</v>
+        <v>0.01196986378926579</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.02992598163510105</v>
+        <v>-0.02892031022747372</v>
       </c>
       <c r="E132" t="n">
         <v>0.0175006015854311</v>
@@ -4868,16 +4868,16 @@
         <v>0.03065019578421779</v>
       </c>
       <c r="H132" t="n">
-        <v>-0.05779121369324663</v>
+        <v>-0.01851929187298421</v>
       </c>
       <c r="I132" t="n">
-        <v>0.05306045645403379</v>
+        <v>0.01735159501546882</v>
       </c>
       <c r="J132" t="n">
-        <v>-0.03204572291438021</v>
+        <v>-0.03104005150675288</v>
       </c>
       <c r="K132" t="n">
-        <v>0.02667375517009015</v>
+        <v>0.02617091946627648</v>
       </c>
     </row>
     <row r="133">
@@ -4885,13 +4885,13 @@
         <v>40512</v>
       </c>
       <c r="B133" t="n">
-        <v>0.02584516326550626</v>
+        <v>0.02582478059790763</v>
       </c>
       <c r="C133" t="n">
-        <v>0.004238258670717879</v>
+        <v>0.00421787600311925</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.04392651663930028</v>
+        <v>-0.04390613397170165</v>
       </c>
       <c r="E133" t="n">
         <v>-0.03430043966363971</v>
@@ -4903,16 +4903,16 @@
         <v>-0.03264841600548853</v>
       </c>
       <c r="H133" t="n">
-        <v>-0.003876923259884511</v>
+        <v>-0.001019439456687883</v>
       </c>
       <c r="I133" t="n">
-        <v>-0.03266169298503388</v>
+        <v>-0.01089402521754416</v>
       </c>
       <c r="J133" t="n">
-        <v>-0.002416335451690475</v>
+        <v>-0.002395952784091847</v>
       </c>
       <c r="K133" t="n">
-        <v>-0.009087602730832801</v>
+        <v>-0.009097794064632115</v>
       </c>
     </row>
     <row r="134">
@@ -4920,13 +4920,13 @@
         <v>40543</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.01141622684892419</v>
+        <v>-0.01279021529133996</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.02428915754008379</v>
+        <v>-0.02566314598249955</v>
       </c>
       <c r="D134" t="n">
-        <v>0.01761085746855766</v>
+        <v>0.01898484591097342</v>
       </c>
       <c r="E134" t="n">
         <v>-0.008739508392216246</v>
@@ -4938,16 +4938,16 @@
         <v>-0.02273828694546747</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.006626550980478499</v>
+        <v>-0.001546483808983874</v>
       </c>
       <c r="I134" t="n">
-        <v>-0.05450046299005305</v>
+        <v>-0.01862481714415627</v>
       </c>
       <c r="J134" t="n">
-        <v>0.01008627016066142</v>
+        <v>0.01146025860307718</v>
       </c>
       <c r="K134" t="n">
-        <v>-0.0168302692254175</v>
+        <v>-0.0175935961378707</v>
       </c>
     </row>
     <row r="135">
@@ -4955,13 +4955,13 @@
         <v>40574</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.009770992830268757</v>
+        <v>-0.01070337528895781</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.004685526095021663</v>
+        <v>-0.005617908553710716</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.001676041812373964</v>
+        <v>-0.0007436593536849129</v>
       </c>
       <c r="E135" t="n">
         <v>0.001449488775877583</v>
@@ -4973,16 +4973,16 @@
         <v>0.01334270224869152</v>
       </c>
       <c r="H135" t="n">
-        <v>-0.01482575359309387</v>
+        <v>-0.004305623711468273</v>
       </c>
       <c r="I135" t="n">
-        <v>-0.002389217478756443</v>
+        <v>-0.001107199979148498</v>
       </c>
       <c r="J135" t="n">
-        <v>-0.01094360715303007</v>
+        <v>-0.01001122469434102</v>
       </c>
       <c r="K135" t="n">
-        <v>0.001279378842748891</v>
+        <v>0.0008131876134043646</v>
       </c>
     </row>
     <row r="136">
@@ -4990,13 +4990,13 @@
         <v>40602</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.003866681466102451</v>
+        <v>-0.004082409383133735</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.01679858283772511</v>
+        <v>-0.01701431075475639</v>
       </c>
       <c r="D136" t="n">
-        <v>0.006697605609316871</v>
+        <v>0.006913333526348154</v>
       </c>
       <c r="E136" t="n">
         <v>-0.01206279691786432</v>
@@ -5008,16 +5008,16 @@
         <v>-0.01925615089206367</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.004206746810578822</v>
+        <v>-0.001052413705256586</v>
       </c>
       <c r="I136" t="n">
-        <v>-0.04737492606611991</v>
+        <v>-0.01586355132771707</v>
       </c>
       <c r="J136" t="n">
-        <v>0.006756291271832096</v>
+        <v>0.006972019188863379</v>
       </c>
       <c r="K136" t="n">
-        <v>-0.0137037734208366</v>
+        <v>-0.01380183156494173</v>
       </c>
     </row>
     <row r="137">
@@ -5025,13 +5025,13 @@
         <v>40633</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.008042734924231394</v>
+        <v>-0.008430615769575354</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.007229049464685276</v>
+        <v>-0.007616930310029234</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.01179713632175075</v>
+        <v>-0.01140925547640679</v>
       </c>
       <c r="E137" t="n">
         <v>-0.007772392267489958</v>
@@ -5043,16 +5043,16 @@
         <v>0.0163487948373992</v>
       </c>
       <c r="H137" t="n">
-        <v>-0.03280883386651627</v>
+        <v>-0.01034944730335374</v>
       </c>
       <c r="I137" t="n">
-        <v>-0.02267344159350133</v>
+        <v>-0.007687107479615094</v>
       </c>
       <c r="J137" t="n">
-        <v>-0.01693005591883578</v>
+        <v>-0.01654217507349182</v>
       </c>
       <c r="K137" t="n">
-        <v>-0.00233340550459583</v>
+        <v>-0.002509714979752174</v>
       </c>
     </row>
     <row r="138">
@@ -5060,13 +5060,13 @@
         <v>40662</v>
       </c>
       <c r="B138" t="n">
-        <v>0.002236994168329743</v>
+        <v>0.0009572694990267715</v>
       </c>
       <c r="C138" t="n">
-        <v>0.02653637418451775</v>
+        <v>0.02525664951521478</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.009661856094108013</v>
+        <v>-0.008382131424805039</v>
       </c>
       <c r="E138" t="n">
         <v>0.02061500905453122</v>
@@ -5078,16 +5078,16 @@
         <v>0.04988314461569512</v>
       </c>
       <c r="H138" t="n">
-        <v>0.009613391771216808</v>
+        <v>0.004167538813506594</v>
       </c>
       <c r="I138" t="n">
-        <v>0.07984766352260046</v>
+        <v>0.02618931295109916</v>
       </c>
       <c r="J138" t="n">
-        <v>-0.006781050151493957</v>
+        <v>-0.005501325482190985</v>
       </c>
       <c r="K138" t="n">
-        <v>0.02427268454731482</v>
+        <v>0.02369099151581347</v>
       </c>
     </row>
     <row r="139">
@@ -5095,13 +5095,13 @@
         <v>40694</v>
       </c>
       <c r="B139" t="n">
-        <v>0.004935176428250703</v>
+        <v>0.008322932049548353</v>
       </c>
       <c r="C139" t="n">
-        <v>0.00354975870774077</v>
+        <v>0.006937514329038418</v>
       </c>
       <c r="D139" t="n">
-        <v>0.001187764191292366</v>
+        <v>-0.002199991430005285</v>
       </c>
       <c r="E139" t="n">
         <v>0.0007252321159266113</v>
@@ -5113,16 +5113,16 @@
         <v>-0.01771329079628505</v>
       </c>
       <c r="H139" t="n">
-        <v>0.001740510123664125</v>
+        <v>8.32144637517877e-05</v>
       </c>
       <c r="I139" t="n">
-        <v>0.004849972930068835</v>
+        <v>0.002745909517122161</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0005971160886720037</v>
+        <v>-0.002790639532625646</v>
       </c>
       <c r="K139" t="n">
-        <v>0.001870736149106629</v>
+        <v>0.003410625067878289</v>
       </c>
     </row>
     <row r="140">
@@ -5130,13 +5130,13 @@
         <v>40724</v>
       </c>
       <c r="B140" t="n">
-        <v>0.006617392347099777</v>
+        <v>0.008166173670515402</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0290665477546884</v>
+        <v>0.03061532907810403</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.04308221770560136</v>
+        <v>-0.04463099902901699</v>
       </c>
       <c r="E140" t="n">
         <v>0.004910556874199792</v>
@@ -5148,16 +5148,16 @@
         <v>0.03390881346837452</v>
       </c>
       <c r="H140" t="n">
-        <v>-0.0422545707218364</v>
+        <v>-0.01396722845952845</v>
       </c>
       <c r="I140" t="n">
-        <v>0.05820474035357512</v>
+        <v>0.01991784055899691</v>
       </c>
       <c r="J140" t="n">
-        <v>-0.04316574245186659</v>
+        <v>-0.04471452377528222</v>
       </c>
       <c r="K140" t="n">
-        <v>0.02434903404195782</v>
+        <v>0.02505302555260129</v>
       </c>
     </row>
     <row r="141">
@@ -5165,13 +5165,13 @@
         <v>40753</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.008418342426867145</v>
+        <v>-0.004760289592777571</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.005786612898216802</v>
+        <v>-0.002128560064127227</v>
       </c>
       <c r="D141" t="n">
-        <v>0.007958725039623023</v>
+        <v>0.004300672205533445</v>
       </c>
       <c r="E141" t="n">
         <v>-0.003190480428807674</v>
@@ -5183,16 +5183,16 @@
         <v>-0.01960139169146195</v>
       </c>
       <c r="H141" t="n">
-        <v>0.005611483848960683</v>
+        <v>0.002357050171875782</v>
       </c>
       <c r="I141" t="n">
-        <v>-0.005615530465040798</v>
+        <v>-0.000652492543650407</v>
       </c>
       <c r="J141" t="n">
-        <v>0.005611483848960683</v>
+        <v>0.005611483848960681</v>
       </c>
       <c r="K141" t="n">
-        <v>-0.003410999180470387</v>
+        <v>-0.001748247892247852</v>
       </c>
     </row>
     <row r="142">
@@ -5200,13 +5200,13 @@
         <v>40786</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.02682930125230413</v>
+        <v>-0.02506108302170272</v>
       </c>
       <c r="C142" t="n">
-        <v>0.01489609534042602</v>
+        <v>0.01666431357102743</v>
       </c>
       <c r="D142" t="n">
-        <v>0.03447888744804957</v>
+        <v>0.03271066921744817</v>
       </c>
       <c r="E142" t="n">
         <v>0.04831608784603865</v>
@@ -5218,16 +5218,16 @@
         <v>0.03893086384939237</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.007151776496662157</v>
+        <v>-0.001487741644242473</v>
       </c>
       <c r="I142" t="n">
-        <v>0.08739929951546518</v>
+        <v>0.03031191199222266</v>
       </c>
       <c r="J142" t="n">
-        <v>-0.002863557946165137</v>
+        <v>-0.001095339715563735</v>
       </c>
       <c r="K142" t="n">
-        <v>0.03135771434187097</v>
+        <v>0.03224182345717167</v>
       </c>
     </row>
     <row r="143">
@@ -5235,13 +5235,13 @@
         <v>40816</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.007535379302866383</v>
+        <v>-0.005937002067712924</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.003749164958890772</v>
+        <v>-0.002150787723737313</v>
       </c>
       <c r="D143" t="n">
-        <v>0.002359580545294326</v>
+        <v>0.0007612033101408676</v>
       </c>
       <c r="E143" t="n">
         <v>-0.003834246379428485</v>
@@ -5253,16 +5253,16 @@
         <v>-0.01018656960473039</v>
       </c>
       <c r="H143" t="n">
-        <v>0.00746889567966802</v>
+        <v>0.002602409671000452</v>
       </c>
       <c r="I143" t="n">
-        <v>-0.003628030327676984</v>
+        <v>-0.0006765510308411743</v>
       </c>
       <c r="J143" t="n">
         <v>0.00746889567966802</v>
       </c>
       <c r="K143" t="n">
-        <v>-0.002332852383721171</v>
+        <v>-0.001606317276833236</v>
       </c>
     </row>
     <row r="144">
@@ -5270,13 +5270,13 @@
         <v>40847</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.02678627088133736</v>
+        <v>-0.02704995555174381</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.007259130835591309</v>
+        <v>-0.007522815505997758</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.02231954429171294</v>
+        <v>-0.0220558596213065</v>
       </c>
       <c r="E144" t="n">
         <v>-0.006751225544868489</v>
@@ -5288,16 +5288,16 @@
         <v>0.02009331081109118</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.02118032362780509</v>
+        <v>-0.006827546319132878</v>
       </c>
       <c r="I144" t="n">
-        <v>0.003422088321015336</v>
+        <v>0.001052801216869628</v>
       </c>
       <c r="J144" t="n">
-        <v>-0.01886862828353417</v>
+        <v>-0.01860494361312772</v>
       </c>
       <c r="K144" t="n">
-        <v>0.003361198928852527</v>
+        <v>0.003229356593649303</v>
       </c>
     </row>
     <row r="145">
@@ -5305,13 +5305,13 @@
         <v>40877</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.02853518026545294</v>
+        <v>-0.02682625143971945</v>
       </c>
       <c r="C145" t="n">
-        <v>0.003026456480477191</v>
+        <v>0.004735385306210672</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.03746083809992673</v>
+        <v>-0.03916976692566021</v>
       </c>
       <c r="E145" t="n">
         <v>0.006387829938234214</v>
@@ -5323,16 +5323,16 @@
         <v>0.02577464323333556</v>
       </c>
       <c r="H145" t="n">
-        <v>-0.02791969608690125</v>
+        <v>-0.009856208304211578</v>
       </c>
       <c r="I145" t="n">
-        <v>0.05360069654614819</v>
+        <v>0.01843654179062722</v>
       </c>
       <c r="J145" t="n">
-        <v>-0.02259759693193732</v>
+        <v>-0.02430652575767079</v>
       </c>
       <c r="K145" t="n">
-        <v>0.01885987459912982</v>
+        <v>0.01971433901199656</v>
       </c>
     </row>
     <row r="146">
@@ -5340,13 +5340,13 @@
         <v>40907</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0002476556205474045</v>
+        <v>0.00180431015230942</v>
       </c>
       <c r="C146" t="n">
-        <v>0.02741626824173309</v>
+        <v>0.0289729227734951</v>
       </c>
       <c r="D146" t="n">
-        <v>0.01827545820204828</v>
+        <v>0.01671880367028626</v>
       </c>
       <c r="E146" t="n">
         <v>0.03330009988568196</v>
@@ -5358,16 +5358,16 @@
         <v>-0.002598829002646361</v>
       </c>
       <c r="H146" t="n">
-        <v>0.004037193132988757</v>
+        <v>0.0008312906448533579</v>
       </c>
       <c r="I146" t="n">
-        <v>0.07764244523393608</v>
+        <v>0.02639969992189936</v>
       </c>
       <c r="J146" t="n">
-        <v>0.004188828223794438</v>
+        <v>0.002632173692032428</v>
       </c>
       <c r="K146" t="n">
-        <v>0.02474602080550595</v>
+        <v>0.02545359104721596</v>
       </c>
     </row>
     <row r="147">
@@ -5375,13 +5375,13 @@
         <v>40939</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.01124303797619284</v>
+        <v>-0.01165285699068928</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.008560414091697168</v>
+        <v>-0.008970233106193605</v>
       </c>
       <c r="D147" t="n">
-        <v>0.03603219937466944</v>
+        <v>0.03644201838916589</v>
       </c>
       <c r="E147" t="n">
         <v>0.01417998074483742</v>
@@ -5393,16 +5393,16 @@
         <v>-0.01070237930734288</v>
       </c>
       <c r="H147" t="n">
-        <v>0.01546659466375371</v>
+        <v>0.005189309332362348</v>
       </c>
       <c r="I147" t="n">
-        <v>-0.002647872499827651</v>
+        <v>-0.001019230504774695</v>
       </c>
       <c r="J147" t="n">
         <v>0.01436360342075927</v>
       </c>
       <c r="K147" t="n">
-        <v>-0.003086425878967082</v>
+        <v>-0.003291335386215302</v>
       </c>
     </row>
     <row r="148">
@@ -5410,13 +5410,13 @@
         <v>40968</v>
       </c>
       <c r="B148" t="n">
-        <v>0.002882265346381013</v>
+        <v>0.003587338326840733</v>
       </c>
       <c r="C148" t="n">
-        <v>0.000192114288042511</v>
+        <v>0.0008971872685022307</v>
       </c>
       <c r="D148" t="n">
-        <v>0.02580661539799579</v>
+        <v>0.02510154241753607</v>
       </c>
       <c r="E148" t="n">
         <v>0.01099620947339988</v>
@@ -5428,16 +5428,16 @@
         <v>-0.001620969860893528</v>
       </c>
       <c r="H148" t="n">
-        <v>0.008723837537801911</v>
+        <v>0.002718569667262211</v>
       </c>
       <c r="I148" t="n">
-        <v>-0.001139376595765218</v>
+        <v>-0.0001447678717684982</v>
       </c>
       <c r="J148" t="n">
-        <v>0.005322550982779489</v>
+        <v>0.004617478002319767</v>
       </c>
       <c r="K148" t="n">
-        <v>-0.001018181937993133</v>
+        <v>-0.0006656454477632738</v>
       </c>
     </row>
     <row r="149">
@@ -5445,13 +5445,13 @@
         <v>40998</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.004121674642732219</v>
+        <v>-0.005687144675055786</v>
       </c>
       <c r="C149" t="n">
-        <v>0.004969492671060083</v>
+        <v>0.003404022638736514</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.01493978834826507</v>
+        <v>-0.0133743183159415</v>
       </c>
       <c r="E149" t="n">
         <v>-0.0005392815767910402</v>
@@ -5463,16 +5463,16 @@
         <v>0.01520969950944249</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.01187653115497721</v>
+        <v>-0.003390909263106769</v>
       </c>
       <c r="I149" t="n">
-        <v>0.01456479998502673</v>
+        <v>0.004333109984234387</v>
       </c>
       <c r="J149" t="n">
-        <v>-0.01460129939824254</v>
+        <v>-0.01303582936591897</v>
       </c>
       <c r="K149" t="n">
-        <v>0.007437133806117159</v>
+        <v>0.006654398789955374</v>
       </c>
     </row>
     <row r="150">
@@ -5480,13 +5480,13 @@
         <v>41029</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.01233793548558943</v>
+        <v>-0.01110275794029815</v>
       </c>
       <c r="C150" t="n">
-        <v>0.01861590349583833</v>
+        <v>0.01985108104112961</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.03530780779576292</v>
+        <v>-0.0365429853410542</v>
       </c>
       <c r="E150" t="n">
         <v>0.01452619789739875</v>
@@ -5498,16 +5498,16 @@
         <v>0.01707889757123748</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.0472598689962648</v>
+        <v>-0.0161477932916298</v>
       </c>
       <c r="I150" t="n">
-        <v>0.05814574310774723</v>
+        <v>0.0197936402176795</v>
       </c>
       <c r="J150" t="n">
-        <v>-0.02727901948915142</v>
+        <v>-0.02851419703444269</v>
       </c>
       <c r="K150" t="n">
-        <v>0.02784233914831026</v>
+        <v>0.0284599279209559</v>
       </c>
     </row>
     <row r="151">
@@ -5515,13 +5515,13 @@
         <v>41060</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.01746008980233963</v>
+        <v>-0.0157426259034469</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.000450134100312494</v>
+        <v>0.001267329798580241</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.006773286066190314</v>
+        <v>-0.008490749965083047</v>
       </c>
       <c r="E151" t="n">
         <v>0.004499047768160947</v>
@@ -5533,16 +5533,16 @@
         <v>0.01936758589116807</v>
       </c>
       <c r="H151" t="n">
-        <v>0.0231913639107408</v>
+        <v>0.007177485189134542</v>
       </c>
       <c r="I151" t="n">
-        <v>0.03229003883915714</v>
+        <v>0.01133583424601662</v>
       </c>
       <c r="J151" t="n">
-        <v>0.01591382208637899</v>
+        <v>0.01419635818748625</v>
       </c>
       <c r="K151" t="n">
-        <v>0.007900329690144991</v>
+        <v>0.008759061639591358</v>
       </c>
     </row>
     <row r="152">
@@ -5550,13 +5550,13 @@
         <v>41089</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.03562502630155789</v>
+        <v>-0.03659626061243434</v>
       </c>
       <c r="C152" t="n">
-        <v>0.00179347371008818</v>
+        <v>0.0008222393992117338</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.02935485710618807</v>
+        <v>-0.02838362279531163</v>
       </c>
       <c r="E152" t="n">
         <v>0.009332834409540646</v>
@@ -5568,16 +5568,16 @@
         <v>0.01705200945857717</v>
       </c>
       <c r="H152" t="n">
-        <v>-0.08249664234609846</v>
+        <v>-0.02714935823396289</v>
       </c>
       <c r="I152" t="n">
-        <v>0.02022737885642083</v>
+        <v>0.006418714848514794</v>
       </c>
       <c r="J152" t="n">
-        <v>-0.04281095081558256</v>
+        <v>-0.04183971650470611</v>
       </c>
       <c r="K152" t="n">
-        <v>0.01358366251378331</v>
+        <v>0.01304408789662973</v>
       </c>
     </row>
     <row r="153">
@@ -5585,13 +5585,13 @@
         <v>41121</v>
       </c>
       <c r="B153" t="n">
-        <v>0.02165821683747676</v>
+        <v>0.02369581560915041</v>
       </c>
       <c r="C153" t="n">
-        <v>0.01107523797933532</v>
+        <v>0.01311283675100896</v>
       </c>
       <c r="D153" t="n">
-        <v>0.01174333075370768</v>
+        <v>0.009705731982034034</v>
       </c>
       <c r="E153" t="n">
         <v>0.005357952671384213</v>
@@ -5603,16 +5603,16 @@
         <v>-0.01499737518408857</v>
       </c>
       <c r="H153" t="n">
-        <v>0.02849158751453591</v>
+        <v>0.008818588840213346</v>
       </c>
       <c r="I153" t="n">
-        <v>0.01346538679581452</v>
+        <v>0.005167661855829387</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02849158751453591</v>
+        <v>0.02645398874286227</v>
       </c>
       <c r="K153" t="n">
-        <v>-0.0005132682610251797</v>
+        <v>0.0005055311248116402</v>
       </c>
     </row>
     <row r="154">
@@ -5620,13 +5620,13 @@
         <v>41152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.003097100320056855</v>
+        <v>-0.003450283830639544</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.007248618029490504</v>
+        <v>-0.007601801540073193</v>
       </c>
       <c r="D154" t="n">
-        <v>0.01486617186597518</v>
+        <v>0.01521935537655787</v>
       </c>
       <c r="E154" t="n">
         <v>0.003171670226419865</v>
@@ -5638,16 +5638,16 @@
         <v>0.01114482157266414</v>
       </c>
       <c r="H154" t="n">
-        <v>0.001456805491390356</v>
+        <v>0.0006033296673243482</v>
       </c>
       <c r="I154" t="n">
-        <v>-0.01164790907854108</v>
+        <v>-0.004000364196374587</v>
       </c>
       <c r="J154" t="n">
-        <v>3.599737184440972e-05</v>
+        <v>0.0003891808824270978</v>
       </c>
       <c r="K154" t="n">
-        <v>-0.003704758031584642</v>
+        <v>-0.003881349786875987</v>
       </c>
     </row>
     <row r="155">
@@ -5655,13 +5655,13 @@
         <v>41180</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.02105638037657556</v>
+        <v>-0.02212003350968099</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.002565032722908821</v>
+        <v>-0.003628685856014257</v>
       </c>
       <c r="D155" t="n">
-        <v>0.01476919893137505</v>
+        <v>0.01583285206448048</v>
       </c>
       <c r="E155" t="n">
         <v>0.01511600735379348</v>
@@ -5673,16 +5673,16 @@
         <v>0.01007256904579244</v>
       </c>
       <c r="H155" t="n">
-        <v>0.003818369335958333</v>
+        <v>0.001627859341539774</v>
       </c>
       <c r="I155" t="n">
-        <v>0.02533593568734783</v>
+        <v>0.008090760851414127</v>
       </c>
       <c r="J155" t="n">
-        <v>0.003438934418983281</v>
+        <v>0.004502587552088717</v>
       </c>
       <c r="K155" t="n">
-        <v>0.007354028149807402</v>
+        <v>0.006822201583254685</v>
       </c>
     </row>
     <row r="156">
@@ -5690,13 +5690,13 @@
         <v>41213</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.01221761445685997</v>
+        <v>-0.0118141784235258</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.00582288030906486</v>
+        <v>-0.00541944427573069</v>
       </c>
       <c r="D156" t="n">
-        <v>0.009887279027669362</v>
+        <v>0.009483842994335192</v>
       </c>
       <c r="E156" t="n">
         <v>0.004997184150504253</v>
@@ -5708,16 +5708,16 @@
         <v>0.004944938534809552</v>
       </c>
       <c r="H156" t="n">
-        <v>-0.0002861487680545826</v>
+        <v>-0.0002231393782406955</v>
       </c>
       <c r="I156" t="n">
-        <v>-0.0004029237296274222</v>
+        <v>1.707679022477232e-07</v>
       </c>
       <c r="J156" t="n">
-        <v>0.0002736910191361132</v>
+        <v>-0.0001297450141980573</v>
       </c>
       <c r="K156" t="n">
-        <v>-0.0006701508825615785</v>
+        <v>-0.0004460197529314834</v>
       </c>
     </row>
     <row r="157">
@@ -5725,13 +5725,13 @@
         <v>41243</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.01850762978452582</v>
+        <v>-0.01783353820995193</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.01079598633054097</v>
+        <v>-0.01012189475596708</v>
       </c>
       <c r="D157" t="n">
-        <v>0.02717624616864128</v>
+        <v>0.02650215459406738</v>
       </c>
       <c r="E157" t="n">
         <v>0.01110806380709273</v>
@@ -5743,16 +5743,16 @@
         <v>0.008772979750909005</v>
       </c>
       <c r="H157" t="n">
-        <v>0.03127142827552754</v>
+        <v>0.0102080011225401</v>
       </c>
       <c r="I157" t="n">
-        <v>0.009765400556777125</v>
+        <v>0.003479830710450339</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02199098903700687</v>
+        <v>0.02131689746243298</v>
       </c>
       <c r="K157" t="n">
-        <v>-0.001044515526524232</v>
+        <v>-0.000670020207316508</v>
       </c>
     </row>
     <row r="158">
@@ -5760,13 +5760,13 @@
         <v>41274</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.002142039832630133</v>
+        <v>-0.002196893696684349</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.02289838953025991</v>
+        <v>-0.02295324339431413</v>
       </c>
       <c r="D158" t="n">
-        <v>0.01456589478230126</v>
+        <v>0.01462074864635547</v>
       </c>
       <c r="E158" t="n">
         <v>-0.01335925977870722</v>
@@ -5778,16 +5778,16 @@
         <v>0.004788748645655506</v>
       </c>
       <c r="H158" t="n">
-        <v>0.06102331239370329</v>
+        <v>0.02036799986369695</v>
       </c>
       <c r="I158" t="n">
-        <v>-0.0351718606215429</v>
+        <v>-0.0117422381618657</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04582631660273816</v>
+        <v>0.04588117046679238</v>
       </c>
       <c r="K158" t="n">
-        <v>-0.02094245036034712</v>
+        <v>-0.02097292472926613</v>
       </c>
     </row>
     <row r="159">
@@ -5795,13 +5795,13 @@
         <v>41305</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.01051358864816418</v>
+        <v>-0.0132289630608373</v>
       </c>
       <c r="C159" t="n">
-        <v>0.01190904525405896</v>
+        <v>0.009193670841385846</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.02662092401238264</v>
+        <v>-0.02390554959970953</v>
       </c>
       <c r="E159" t="n">
         <v>0.009722769737341652</v>
@@ -5813,16 +5813,16 @@
         <v>0.01076935428113617</v>
       </c>
       <c r="H159" t="n">
-        <v>-0.06012228020027961</v>
+        <v>-0.01909085748475772</v>
       </c>
       <c r="I159" t="n">
-        <v>0.02702104308957147</v>
+        <v>0.008101889558966121</v>
       </c>
       <c r="J159" t="n">
-        <v>-0.02355322295994037</v>
+        <v>-0.02083784854726726</v>
       </c>
       <c r="K159" t="n">
-        <v>0.01363828940281543</v>
+        <v>0.01212974806244148</v>
       </c>
     </row>
     <row r="160">
@@ -5830,13 +5830,13 @@
         <v>41333</v>
       </c>
       <c r="B160" t="n">
-        <v>0.005388687483132992</v>
+        <v>0.00646238351725197</v>
       </c>
       <c r="C160" t="n">
-        <v>0.01801183562190212</v>
+        <v>0.01908553165602109</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.01213909651774909</v>
+        <v>-0.01321279255186807</v>
       </c>
       <c r="E160" t="n">
         <v>0.01055949222076831</v>
@@ -5848,16 +5848,16 @@
         <v>0.01206805378775704</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.01130982215848235</v>
+        <v>-0.004125765323459702</v>
       </c>
       <c r="I160" t="n">
-        <v>0.04260018774850201</v>
+        <v>0.01455796126087366</v>
       </c>
       <c r="J160" t="n">
-        <v>-0.01178174898413019</v>
+        <v>-0.01285544501824917</v>
       </c>
       <c r="K160" t="n">
-        <v>0.01663059603519841</v>
+        <v>0.0171674440522579</v>
       </c>
     </row>
     <row r="161">
@@ -5865,13 +5865,13 @@
         <v>41362</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.01259820962598083</v>
+        <v>-0.01274578420987055</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.01372533469899941</v>
+        <v>-0.01387290928288913</v>
       </c>
       <c r="D161" t="n">
-        <v>0.01717235325878294</v>
+        <v>0.01731992784267266</v>
       </c>
       <c r="E161" t="n">
         <v>0.0006536362770350971</v>
@@ -5883,16 +5883,16 @@
         <v>-0.01513594951748543</v>
       </c>
       <c r="H161" t="n">
-        <v>0.01967659091419244</v>
+        <v>0.006613425536397759</v>
       </c>
       <c r="I161" t="n">
-        <v>-0.01444035310553957</v>
+        <v>-0.004862642563143097</v>
       </c>
       <c r="J161" t="n">
-        <v>0.0121151504048675</v>
+        <v>0.01226272498875722</v>
       </c>
       <c r="K161" t="n">
-        <v>-0.00812205466380779</v>
+        <v>-0.008204040543746523</v>
       </c>
     </row>
     <row r="162">
@@ -5900,13 +5900,13 @@
         <v>41394</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.0260088524418334</v>
+        <v>-0.02469715687343779</v>
       </c>
       <c r="C162" t="n">
-        <v>0.001914806404429426</v>
+        <v>0.003226501972825036</v>
       </c>
       <c r="D162" t="n">
-        <v>0.03566856698917716</v>
+        <v>0.03435687142078155</v>
       </c>
       <c r="E162" t="n">
         <v>0.02848124191733394</v>
@@ -5918,16 +5918,16 @@
         <v>0.03594255134347352</v>
       </c>
       <c r="H162" t="n">
-        <v>0.04176774844054205</v>
+        <v>0.01349364725367844</v>
       </c>
       <c r="I162" t="n">
-        <v>0.06138174233815308</v>
+        <v>0.02089781263551623</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03503087276829229</v>
+        <v>0.03371917719989669</v>
       </c>
       <c r="K162" t="n">
-        <v>0.01622818143631274</v>
+        <v>0.01695690119653252</v>
       </c>
     </row>
     <row r="163">
@@ -5935,13 +5935,13 @@
         <v>41425</v>
       </c>
       <c r="B163" t="n">
-        <v>0.002176312699065984</v>
+        <v>0.0006795214957466232</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.007138547748167002</v>
+        <v>-0.008635338951486361</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.002666852099538977</v>
+        <v>-0.00117006089621962</v>
       </c>
       <c r="E163" t="n">
         <v>-0.01500881315917173</v>
@@ -5953,16 +5953,16 @@
         <v>-0.02215059088640121</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.008237214190692448</v>
+        <v>-0.002227289143939177</v>
       </c>
       <c r="I163" t="n">
-        <v>-0.03999645235993379</v>
+        <v>-0.01383108118775105</v>
       </c>
       <c r="J163" t="n">
-        <v>-0.003597189521518378</v>
+        <v>-0.00210039831819902</v>
       </c>
       <c r="K163" t="n">
-        <v>-0.01366074822051335</v>
+        <v>-0.01440914382217303</v>
       </c>
     </row>
     <row r="164">
@@ -5970,13 +5970,13 @@
         <v>41453</v>
       </c>
       <c r="B164" t="n">
-        <v>0.02108462942810774</v>
+        <v>0.01825843113595096</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.009950382546148329</v>
+        <v>-0.01277658083830511</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.007819941316863319</v>
+        <v>-0.004993743024706541</v>
       </c>
       <c r="E164" t="n">
         <v>-0.02319463731497127</v>
@@ -5988,16 +5988,16 @@
         <v>-0.004948494411015504</v>
       </c>
       <c r="H164" t="n">
-        <v>0.02515571329309418</v>
+        <v>0.00933404460249106</v>
       </c>
       <c r="I164" t="n">
-        <v>-0.04768209341928581</v>
+        <v>-0.01683609723714753</v>
       </c>
       <c r="J164" t="n">
-        <v>0.01830031685586805</v>
+        <v>0.02112651514802483</v>
       </c>
       <c r="K164" t="n">
-        <v>-0.01541118048518348</v>
+        <v>-0.0169812906474928</v>
       </c>
     </row>
     <row r="165">
@@ -6005,13 +6005,13 @@
         <v>41486</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.00157095131073392</v>
+        <v>-0.0009886173263456473</v>
       </c>
       <c r="C165" t="n">
-        <v>0.008081204727630719</v>
+        <v>0.008663538712018991</v>
       </c>
       <c r="D165" t="n">
-        <v>0.005458732944608484</v>
+        <v>0.004876398960220212</v>
       </c>
       <c r="E165" t="n">
         <v>0.01149642775757171</v>
@@ -6023,16 +6023,16 @@
         <v>0.0114059055706331</v>
       </c>
       <c r="H165" t="n">
-        <v>0.004217770242907019</v>
+        <v>0.001220367641728472</v>
       </c>
       <c r="I165" t="n">
-        <v>0.02767011443427652</v>
+        <v>0.009417482806221596</v>
       </c>
       <c r="J165" t="n">
-        <v>0.002512956294821117</v>
+        <v>0.001930622310432844</v>
       </c>
       <c r="K165" t="n">
-        <v>0.008773477951934137</v>
+        <v>0.009064644944128276</v>
       </c>
     </row>
     <row r="166">
@@ -6040,13 +6040,13 @@
         <v>41516</v>
       </c>
       <c r="B166" t="n">
-        <v>0.01061773386993429</v>
+        <v>0.00990666125997198</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.002338738300112018</v>
+        <v>-0.003049810910074324</v>
       </c>
       <c r="D166" t="n">
-        <v>0.001771241651454731</v>
+        <v>0.002482314261417035</v>
       </c>
       <c r="E166" t="n">
         <v>-0.004489161843548417</v>
@@ -6058,16 +6058,16 @@
         <v>-0.001559958037134934</v>
       </c>
       <c r="H166" t="n">
-        <v>0.01740608100614337</v>
+        <v>0.006049606760924113</v>
       </c>
       <c r="I166" t="n">
-        <v>-0.01076362614511217</v>
+        <v>-0.003824899585024825</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0175018793935554</v>
+        <v>0.0182129520035177</v>
       </c>
       <c r="K166" t="n">
-        <v>-0.005366866002609116</v>
+        <v>-0.005722402307590269</v>
       </c>
     </row>
     <row r="167">
@@ -6075,13 +6075,13 @@
         <v>41547</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.003223501177430101</v>
+        <v>-0.002805302034229653</v>
       </c>
       <c r="C167" t="n">
-        <v>0.003745732326478147</v>
+        <v>0.004163931469678596</v>
       </c>
       <c r="D167" t="n">
-        <v>0.003965114301707838</v>
+        <v>0.003546915158507389</v>
       </c>
       <c r="E167" t="n">
         <v>0.004816454612430344</v>
@@ -6093,16 +6093,16 @@
         <v>0.003560173545352474</v>
       </c>
       <c r="H167" t="n">
-        <v>-0.001424513653216888</v>
+        <v>-0.0006016079691761496</v>
       </c>
       <c r="I167" t="n">
-        <v>0.01195314871058309</v>
+        <v>0.004123782617927844</v>
       </c>
       <c r="J167" t="n">
-        <v>0.001821641744474076</v>
+        <v>0.001403442601273627</v>
       </c>
       <c r="K167" t="n">
-        <v>0.002843369683798647</v>
+        <v>0.003052469255398872</v>
       </c>
     </row>
     <row r="168">
@@ -6110,13 +6110,13 @@
         <v>41578</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.01715097246880757</v>
+        <v>-0.01623119286411413</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.01193066070139401</v>
+        <v>-0.01101088109670056</v>
       </c>
       <c r="D168" t="n">
-        <v>0.03118426053336336</v>
+        <v>0.03026448092866991</v>
       </c>
       <c r="E168" t="n">
         <v>0.01596899325255132</v>
@@ -6128,16 +6128,16 @@
         <v>-0.006237847666608528</v>
       </c>
       <c r="H168" t="n">
-        <v>0.003233028191828091</v>
+        <v>0.0007917495290448795</v>
       </c>
       <c r="I168" t="n">
-        <v>-0.003240444671570704</v>
+        <v>-0.0007735550222924149</v>
       </c>
       <c r="J168" t="n">
-        <v>-0.006609781556513398</v>
+        <v>-0.007529561161206846</v>
       </c>
       <c r="K168" t="n">
-        <v>0.0003923629858696431</v>
+        <v>0.0008522527882163684</v>
       </c>
     </row>
     <row r="169">
@@ -6145,13 +6145,13 @@
         <v>41607</v>
       </c>
       <c r="B169" t="n">
-        <v>0.01516488549776334</v>
+        <v>0.01597912691356092</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.006482854110118752</v>
+        <v>-0.005668612694321173</v>
       </c>
       <c r="D169" t="n">
-        <v>0.01363397545332905</v>
+        <v>0.01281973403753148</v>
       </c>
       <c r="E169" t="n">
         <v>-0.003322501077985529</v>
@@ -6163,16 +6163,16 @@
         <v>-0.0008161845443228396</v>
       </c>
       <c r="H169" t="n">
-        <v>0.02446354673935308</v>
+        <v>0.007904046218962943</v>
       </c>
       <c r="I169" t="n">
-        <v>-0.02514276641136215</v>
+        <v>-0.008109508331854856</v>
       </c>
       <c r="J169" t="n">
-        <v>0.01642953660996204</v>
+        <v>0.01561529519416446</v>
       </c>
       <c r="K169" t="n">
-        <v>-0.01012378047131672</v>
+        <v>-0.009716659763417936</v>
       </c>
     </row>
     <row r="170">
@@ -6180,13 +6180,13 @@
         <v>41639</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.002943522032005772</v>
+        <v>-0.005133065175252325</v>
       </c>
       <c r="C170" t="n">
-        <v>0.005541534058571829</v>
+        <v>0.003351990915325277</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.01309112971057266</v>
+        <v>-0.01090158656732611</v>
       </c>
       <c r="E170" t="n">
         <v>0.0001927907328527203</v>
@@ -6198,16 +6198,16 @@
         <v>0.02746050525935553</v>
       </c>
       <c r="H170" t="n">
-        <v>-0.007619970104044122</v>
+        <v>-0.001750290468414005</v>
       </c>
       <c r="I170" t="n">
-        <v>0.015197809965555</v>
+        <v>0.004336088940769481</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0006704310769196746</v>
+        <v>0.002859974220166228</v>
       </c>
       <c r="K170" t="n">
-        <v>0.005556866349786495</v>
+        <v>0.004340453492427299</v>
       </c>
     </row>
     <row r="171">
@@ -6215,13 +6215,13 @@
         <v>41670</v>
       </c>
       <c r="B171" t="n">
-        <v>0.01100784824387787</v>
+        <v>0.0140482367449175</v>
       </c>
       <c r="C171" t="n">
-        <v>0.01168584413309441</v>
+        <v>0.01472623263413404</v>
       </c>
       <c r="D171" t="n">
-        <v>0.01835265610442481</v>
+        <v>0.01531226760338519</v>
       </c>
       <c r="E171" t="n">
         <v>0.01919677577419783</v>
@@ -6233,16 +6233,16 @@
         <v>0.003785043107871425</v>
       </c>
       <c r="H171" t="n">
-        <v>0.03668825148766443</v>
+        <v>0.01122858395850456</v>
       </c>
       <c r="I171" t="n">
-        <v>0.04450439785208758</v>
+        <v>0.01584826211770907</v>
       </c>
       <c r="J171" t="n">
-        <v>0.005283088409246026</v>
+        <v>0.002242699908206398</v>
       </c>
       <c r="K171" t="n">
-        <v>0.01288394614483233</v>
+        <v>0.01457305086763213</v>
       </c>
     </row>
     <row r="172">
@@ -6250,13 +6250,13 @@
         <v>41698</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.01007993956159139</v>
+        <v>-0.01056499433729578</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.0007467780062968329</v>
+        <v>-0.001231832782001229</v>
       </c>
       <c r="D172" t="n">
-        <v>0.008464303459452286</v>
+        <v>0.008949358235156683</v>
       </c>
       <c r="E172" t="n">
         <v>0.01010414748087107</v>
@@ -6268,16 +6268,16 @@
         <v>0.01548346023955371</v>
       </c>
       <c r="H172" t="n">
-        <v>0.005118092394196965</v>
+        <v>0.00192164164922638</v>
       </c>
       <c r="I172" t="n">
-        <v>0.01995789849204366</v>
+        <v>0.00649094790544642</v>
       </c>
       <c r="J172" t="n">
-        <v>-0.006222227019598233</v>
+        <v>-0.005737172243893835</v>
       </c>
       <c r="K172" t="n">
-        <v>0.007193220324856941</v>
+        <v>0.006950692937004743</v>
       </c>
     </row>
     <row r="173">
@@ -6285,13 +6285,13 @@
         <v>41729</v>
       </c>
       <c r="B173" t="n">
-        <v>0.009606105120065768</v>
+        <v>0.009995511462117922</v>
       </c>
       <c r="C173" t="n">
-        <v>0.006374843739970059</v>
+        <v>0.006764250082022217</v>
       </c>
       <c r="D173" t="n">
-        <v>0.008903284569565751</v>
+        <v>0.008513878227513594</v>
       </c>
       <c r="E173" t="n">
         <v>0.00675509679258417</v>
@@ -6303,16 +6303,16 @@
         <v>0.00436491723085175</v>
       </c>
       <c r="H173" t="n">
-        <v>0.02757316343629852</v>
+        <v>0.009131289401785824</v>
       </c>
       <c r="I173" t="n">
-        <v>0.02278340612910051</v>
+        <v>0.007724270823717554</v>
       </c>
       <c r="J173" t="n">
-        <v>0.01225743604304717</v>
+        <v>0.01186802970099501</v>
       </c>
       <c r="K173" t="n">
-        <v>0.005069050945434994</v>
+        <v>0.005263754116461072</v>
       </c>
     </row>
     <row r="174">
@@ -6320,13 +6320,13 @@
         <v>41759</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.01347740340676144</v>
+        <v>-0.01272541705427873</v>
       </c>
       <c r="C174" t="n">
-        <v>0.01022715111196881</v>
+        <v>0.01097913746445152</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.000134184492680824</v>
+        <v>-0.0008861708451635263</v>
       </c>
       <c r="E174" t="n">
         <v>0.0172153920851974</v>
@@ -6338,16 +6338,16 @@
         <v>0.01803529783330941</v>
       </c>
       <c r="H174" t="n">
-        <v>-0.01375969635298909</v>
+        <v>-0.004783894235157266</v>
       </c>
       <c r="I174" t="n">
-        <v>0.04502751092056198</v>
+        <v>0.01525983242434823</v>
       </c>
       <c r="J174" t="n">
-        <v>-0.01205762617249713</v>
+        <v>-0.01280961252497983</v>
       </c>
       <c r="K174" t="n">
-        <v>0.0156010316513083</v>
+        <v>0.01597702482754965</v>
       </c>
     </row>
     <row r="175">
@@ -6355,13 +6355,13 @@
         <v>41789</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.01095768600788105</v>
+        <v>-0.009890458701821904</v>
       </c>
       <c r="C175" t="n">
-        <v>0.008669021500402163</v>
+        <v>0.009736248806461312</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.005217252093206204</v>
+        <v>-0.006284479399265352</v>
       </c>
       <c r="E175" t="n">
         <v>0.01099037055221392</v>
@@ -6373,16 +6373,16 @@
         <v>0.005120736122340963</v>
       </c>
       <c r="H175" t="n">
-        <v>-0.01731927960063833</v>
+        <v>-0.00606328008001027</v>
       </c>
       <c r="I175" t="n">
-        <v>0.03296693669287796</v>
+        <v>0.01134472133297904</v>
       </c>
       <c r="J175" t="n">
-        <v>-0.01438053985319442</v>
+        <v>-0.01544776715925357</v>
       </c>
       <c r="K175" t="n">
-        <v>0.01241392822138357</v>
+        <v>0.01294754187441315</v>
       </c>
     </row>
     <row r="176">
@@ -6390,13 +6390,13 @@
         <v>41820</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.01207111947407106</v>
+        <v>-0.01147786670789651</v>
       </c>
       <c r="C176" t="n">
-        <v>0.0078109761116401</v>
+        <v>0.008404228877814645</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.001711309117690696</v>
+        <v>-0.002304561883865242</v>
       </c>
       <c r="E176" t="n">
         <v>0.01353480863035714</v>
@@ -6408,16 +6408,16 @@
         <v>0.009042571208734728</v>
       </c>
       <c r="H176" t="n">
-        <v>-0.01950821702288157</v>
+        <v>-0.006694749188944627</v>
       </c>
       <c r="I176" t="n">
-        <v>0.03255123301357346</v>
+        <v>0.01104816192658267</v>
       </c>
       <c r="J176" t="n">
-        <v>-0.01100876612739824</v>
+        <v>-0.01160201889357279</v>
       </c>
       <c r="K176" t="n">
-        <v>0.01074512921786344</v>
+        <v>0.01104175560095071</v>
       </c>
     </row>
     <row r="177">
@@ -6425,16 +6425,16 @@
         <v>41851</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.01487492751764261</v>
+        <v>-0.01414290673492884</v>
       </c>
       <c r="C177" t="n">
-        <v>0.009340249587957806</v>
+        <v>0.01007227037067158</v>
       </c>
       <c r="D177" t="n">
-        <v>0.001565620225219266</v>
+        <v>0.000833599442505494</v>
       </c>
       <c r="E177" t="n">
-        <v>0.01734925940001581</v>
+        <v>0.01734925940001582</v>
       </c>
       <c r="F177" t="n">
         <v>0.005288984846710563</v>
@@ -6443,16 +6443,16 @@
         <v>0.01144893270220318</v>
       </c>
       <c r="H177" t="n">
-        <v>-0.02058868289086728</v>
+        <v>-0.007100012335638129</v>
       </c>
       <c r="I177" t="n">
-        <v>0.03966248743910888</v>
+        <v>0.01346483607394088</v>
       </c>
       <c r="J177" t="n">
-        <v>-0.01884862885189547</v>
+        <v>-0.01958064963460924</v>
       </c>
       <c r="K177" t="n">
-        <v>0.01525799189236007</v>
+        <v>0.01562400228371695</v>
       </c>
     </row>
     <row r="178">
@@ -6460,13 +6460,13 @@
         <v>41880</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.02359809792982648</v>
+        <v>-0.02277271407670827</v>
       </c>
       <c r="C178" t="n">
-        <v>0.0101374613961225</v>
+        <v>0.01096284524924072</v>
       </c>
       <c r="D178" t="n">
-        <v>0.02290340124970731</v>
+        <v>0.02207801739658911</v>
       </c>
       <c r="E178" t="n">
         <v>0.03339390689832929</v>
@@ -6478,16 +6478,16 @@
         <v>0.007258338984262049</v>
       </c>
       <c r="H178" t="n">
-        <v>-0.0138626306858444</v>
+        <v>-0.004901912253728275</v>
       </c>
       <c r="I178" t="n">
-        <v>0.05568299636323554</v>
+        <v>0.01883612673878459</v>
       </c>
       <c r="J178" t="n">
-        <v>-0.01183673765427496</v>
+        <v>-0.01266212150739318</v>
       </c>
       <c r="K178" t="n">
-        <v>0.01865063563362105</v>
+        <v>0.01906332756018015</v>
       </c>
     </row>
     <row r="179">
@@ -6495,13 +6495,13 @@
         <v>41912</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.00556431666830918</v>
+        <v>-0.005511844647253042</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.002583572532580081</v>
+        <v>-0.002531100511523943</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.006182553308532383</v>
+        <v>-0.00623502532958852</v>
       </c>
       <c r="E179" t="n">
         <v>-0.00280341304862215</v>
@@ -6513,16 +6513,16 @@
         <v>0.009448061286411583</v>
       </c>
       <c r="H179" t="n">
-        <v>-0.00570739645257587</v>
+        <v>-0.001950178380099557</v>
       </c>
       <c r="I179" t="n">
-        <v>-0.001470203207323538</v>
+        <v>-0.0004725770620891335</v>
       </c>
       <c r="J179" t="n">
-        <v>0.000455920166300684</v>
+        <v>0.0004034481452445463</v>
       </c>
       <c r="K179" t="n">
-        <v>-0.002325323032601855</v>
+        <v>-0.002299087022073787</v>
       </c>
     </row>
     <row r="180">
@@ -6530,13 +6530,13 @@
         <v>41943</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.01268079582696591</v>
+        <v>-0.01259448674900652</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.004904846179752841</v>
+        <v>-0.004818537101793452</v>
       </c>
       <c r="D180" t="n">
-        <v>0.00267875239169876</v>
+        <v>0.002592443313739369</v>
       </c>
       <c r="E180" t="n">
         <v>0.002844272029596028</v>
@@ -6548,16 +6548,16 @@
         <v>-0.002458838697848887</v>
       </c>
       <c r="H180" t="n">
-        <v>-0.01370887427478912</v>
+        <v>-0.004617912969434687</v>
       </c>
       <c r="I180" t="n">
-        <v>-0.001603819618276337</v>
+        <v>-0.0005058368467723154</v>
       </c>
       <c r="J180" t="n">
-        <v>-0.002373714168821012</v>
+        <v>-0.002460023246780402</v>
       </c>
       <c r="K180" t="n">
-        <v>-0.0007018066059778288</v>
+        <v>-0.0006586520669981336</v>
       </c>
     </row>
     <row r="181">
@@ -6565,13 +6565,13 @@
         <v>41971</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.01581872434565768</v>
+        <v>-0.01421481405576957</v>
       </c>
       <c r="C181" t="n">
-        <v>0.01448801975920571</v>
+        <v>0.01609193004909382</v>
       </c>
       <c r="D181" t="n">
-        <v>0.01455346152216742</v>
+        <v>0.01294955123227931</v>
       </c>
       <c r="E181" t="n">
         <v>0.02926700166155083</v>
@@ -6583,16 +6583,16 @@
         <v>0.02704269951547768</v>
       </c>
       <c r="H181" t="n">
-        <v>0.005303880841589653</v>
+        <v>0.001231767961678292</v>
       </c>
       <c r="I181" t="n">
-        <v>0.0695788072228397</v>
+        <v>0.0237275725042426</v>
       </c>
       <c r="J181" t="n">
-        <v>-0.006978963079560221</v>
+        <v>-0.008582873369448331</v>
       </c>
       <c r="K181" t="n">
-        <v>0.02409415047530139</v>
+        <v>0.02498521174746145</v>
       </c>
     </row>
     <row r="182">
@@ -6600,16 +6600,16 @@
         <v>42004</v>
       </c>
       <c r="B182" t="n">
-        <v>0.007810898071478951</v>
+        <v>0.008692605840812002</v>
       </c>
       <c r="C182" t="n">
-        <v>0.05887082055123498</v>
+        <v>0.05975252832056803</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.03425715056641941</v>
+        <v>-0.03513885833575246</v>
       </c>
       <c r="E182" t="n">
-        <v>0.03809988759346032</v>
+        <v>0.03809988759346033</v>
       </c>
       <c r="F182" t="n">
         <v>-0.05171263363203889</v>
@@ -6618,16 +6618,16 @@
         <v>0.01917056796384229</v>
       </c>
       <c r="H182" t="n">
-        <v>-0.08314827822433646</v>
+        <v>-0.02807538422011206</v>
       </c>
       <c r="I182" t="n">
-        <v>0.1234869834621595</v>
+        <v>0.04145623041049751</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.07933881317420605</v>
+        <v>-0.0802205209435391</v>
       </c>
       <c r="K182" t="n">
-        <v>0.05695406164853008</v>
+        <v>0.05744389929815955</v>
       </c>
     </row>
     <row r="183">
@@ -6635,13 +6635,13 @@
         <v>42034</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.03301330819063555</v>
+        <v>-0.02764923980999878</v>
       </c>
       <c r="C183" t="n">
-        <v>0.009353718365780672</v>
+        <v>0.01471778674641744</v>
       </c>
       <c r="D183" t="n">
-        <v>0.03061121614835694</v>
+        <v>0.02524714776772018</v>
       </c>
       <c r="E183" t="n">
         <v>0.0409727931145317</v>
@@ -6653,16 +6653,16 @@
         <v>0.01630357793357507</v>
       </c>
       <c r="H183" t="n">
-        <v>0.0229798666377258</v>
+        <v>0.005796932752363012</v>
       </c>
       <c r="I183" t="n">
-        <v>0.08876536328141303</v>
+        <v>0.03137647722068326</v>
       </c>
       <c r="J183" t="n">
-        <v>0.007405085024517248</v>
+        <v>0.002041016643880478</v>
       </c>
       <c r="K183" t="n">
-        <v>0.02696132098672728</v>
+        <v>0.02994135897596993</v>
       </c>
     </row>
     <row r="184">
@@ -6670,16 +6670,16 @@
         <v>42062</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.002531844307702535</v>
+        <v>-0.004046431859419185</v>
       </c>
       <c r="C184" t="n">
-        <v>0.01906116855775173</v>
+        <v>0.01754658100603508</v>
       </c>
       <c r="D184" t="n">
         <v>-0.0177801064995491</v>
       </c>
       <c r="E184" t="n">
-        <v>0.008530044351216407</v>
+        <v>0.008530044351216405</v>
       </c>
       <c r="F184" t="n">
         <v>-0.04419207958486124</v>
@@ -6688,16 +6688,16 @@
         <v>-0.005063579568319597</v>
       </c>
       <c r="H184" t="n">
-        <v>-0.05235819045122037</v>
+        <v>-0.01754450792818456</v>
       </c>
       <c r="I184" t="n">
-        <v>0.0317575171319201</v>
+        <v>0.01008097652673448</v>
       </c>
       <c r="J184" t="n">
         <v>-0.03681833380950553</v>
       </c>
       <c r="K184" t="n">
-        <v>0.01457097099587998</v>
+        <v>0.01372953346714851</v>
       </c>
     </row>
     <row r="185">
@@ -6705,13 +6705,13 @@
         <v>42094</v>
       </c>
       <c r="B185" t="n">
-        <v>0.01267192985044121</v>
+        <v>0.01350779835621549</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.001236031654375691</v>
+        <v>-0.0004001631486014075</v>
       </c>
       <c r="D185" t="n">
-        <v>0.004135381947723862</v>
+        <v>0.004135381947723863</v>
       </c>
       <c r="E185" t="n">
         <v>-0.003389939758442487</v>
@@ -6723,16 +6723,16 @@
         <v>0.008103955110192197</v>
       </c>
       <c r="H185" t="n">
-        <v>0.05476595435280911</v>
+        <v>0.01812494774723266</v>
       </c>
       <c r="I185" t="n">
-        <v>0.006585797729351996</v>
+        <v>0.002473888745042091</v>
       </c>
       <c r="J185" t="n">
         <v>0.03035067850902532</v>
       </c>
       <c r="K185" t="n">
-        <v>-0.004166028092889228</v>
+        <v>-0.003701656700792403</v>
       </c>
     </row>
     <row r="186">
@@ -6740,16 +6740,16 @@
         <v>42124</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.02110344524198655</v>
+        <v>-0.02188801332384414</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.008650109959462738</v>
+        <v>-0.009434678041320324</v>
       </c>
       <c r="D186" t="n">
-        <v>0.009724906543615198</v>
+        <v>0.01050947462547278</v>
       </c>
       <c r="E186" t="n">
-        <v>0.001400563945522836</v>
+        <v>0.001400563945522838</v>
       </c>
       <c r="F186" t="n">
         <v>-0.05041194916131662</v>
@@ -6758,16 +6758,16 @@
         <v>-0.007884116224939763</v>
       </c>
       <c r="H186" t="n">
-        <v>-0.03679272441373505</v>
+        <v>-0.01214494099951471</v>
       </c>
       <c r="I186" t="n">
-        <v>-0.01826835954342454</v>
+        <v>-0.006350975875094042</v>
       </c>
       <c r="J186" t="n">
-        <v>-0.01599453417704385</v>
+        <v>-0.01520996609518626</v>
       </c>
       <c r="K186" t="n">
-        <v>-0.002436336953535203</v>
+        <v>-0.002872208110122751</v>
       </c>
     </row>
     <row r="187">
@@ -6775,13 +6775,13 @@
         <v>42153</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.003027403280245114</v>
+        <v>-0.001934273967848486</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.01374127269458321</v>
+        <v>-0.01264814338218658</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.01114531101133176</v>
+        <v>-0.01223844032372838</v>
       </c>
       <c r="E187" t="n">
         <v>-0.02067631689572678</v>
@@ -6793,16 +6793,16 @@
         <v>-0.01381258226251978</v>
       </c>
       <c r="H187" t="n">
-        <v>-0.01139186438570885</v>
+        <v>-0.004272294195664788</v>
       </c>
       <c r="I187" t="n">
-        <v>-0.04542068013628107</v>
+        <v>-0.01477585027462815</v>
       </c>
       <c r="J187" t="n">
-        <v>0.001133436758703592</v>
+        <v>4.030744630696779e-05</v>
       </c>
       <c r="K187" t="n">
-        <v>-0.01253982347036392</v>
+        <v>-0.01193252940792136</v>
       </c>
     </row>
     <row r="188">
@@ -6810,13 +6810,13 @@
         <v>42185</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.01074296785254444</v>
+        <v>-0.01268396474709111</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.01959605921799761</v>
+        <v>-0.02153705611254429</v>
       </c>
       <c r="D188" t="n">
-        <v>0.01179428229917927</v>
+        <v>0.01373527919372594</v>
       </c>
       <c r="E188" t="n">
         <v>-0.009403452145795433</v>
@@ -6828,16 +6828,16 @@
         <v>-0.01273666190976594</v>
       </c>
       <c r="H188" t="n">
-        <v>0.001625551494948058</v>
+        <v>0.0009998124261278735</v>
       </c>
       <c r="I188" t="n">
-        <v>-0.04322052368691739</v>
+        <v>-0.01505384019382135</v>
       </c>
       <c r="J188" t="n">
-        <v>0.006211841892231194</v>
+        <v>0.008152838786777873</v>
       </c>
       <c r="K188" t="n">
-        <v>-0.011282310406424</v>
+        <v>-0.01236064201450549</v>
       </c>
     </row>
     <row r="189">
@@ -6845,16 +6845,16 @@
         <v>42216</v>
       </c>
       <c r="B189" t="n">
-        <v>0.04166993794949287</v>
+        <v>0.0424785805828812</v>
       </c>
       <c r="C189" t="n">
-        <v>0.01266271215159891</v>
+        <v>0.01347135478498724</v>
       </c>
       <c r="D189" t="n">
-        <v>0.01178007507026421</v>
+        <v>0.01097143243687588</v>
       </c>
       <c r="E189" t="n">
-        <v>-0.002801378304377922</v>
+        <v>-0.002801378304377926</v>
       </c>
       <c r="F189" t="n">
         <v>-0.01150230500888393</v>
@@ -6863,16 +6863,16 @@
         <v>-0.01010618716612937</v>
       </c>
       <c r="H189" t="n">
-        <v>0.04584898928153544</v>
+        <v>0.0151119223531044</v>
       </c>
       <c r="I189" t="n">
-        <v>0.001204454297797898</v>
+        <v>0.0006710323103954162</v>
       </c>
       <c r="J189" t="n">
         <v>0.0321936496212965</v>
       </c>
       <c r="K189" t="n">
-        <v>-0.006266614078344852</v>
+        <v>-0.005899049244986515</v>
       </c>
     </row>
     <row r="190">
@@ -6880,16 +6880,16 @@
         <v>42247</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.01109206600576451</v>
+        <v>-0.01032212384691169</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.005032008784299347</v>
+        <v>-0.004262066625446526</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.001933604673022501</v>
+        <v>-0.002703546831875322</v>
       </c>
       <c r="E190" t="n">
-        <v>-0.0001038259632229364</v>
+        <v>-0.0001038259632229355</v>
       </c>
       <c r="F190" t="n">
         <v>0.01376307714534182</v>
@@ -6898,16 +6898,16 @@
         <v>0.02787276070289253</v>
       </c>
       <c r="H190" t="n">
-        <v>-0.01367493485382038</v>
+        <v>-0.004716756062384572</v>
       </c>
       <c r="I190" t="n">
-        <v>-0.005963184762959541</v>
+        <v>-0.001731080868035572</v>
       </c>
       <c r="J190" t="n">
-        <v>-0.00812712813900898</v>
+        <v>-0.008127128139008979</v>
       </c>
       <c r="K190" t="n">
-        <v>0.0003951908852495743</v>
+        <v>0.0007801619646759855</v>
       </c>
     </row>
     <row r="191">
@@ -6915,13 +6915,13 @@
         <v>42277</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.02885620709635845</v>
+        <v>-0.02857150937082031</v>
       </c>
       <c r="C191" t="n">
-        <v>0.01241939144183579</v>
+        <v>0.01270408916737393</v>
       </c>
       <c r="D191" t="n">
-        <v>0.00199480877498211</v>
+        <v>0.001710111049443967</v>
       </c>
       <c r="E191" t="n">
         <v>0.02390058784497304</v>
@@ -6933,16 +6933,16 @@
         <v>0.03541560960555506</v>
       </c>
       <c r="H191" t="n">
-        <v>-0.01900071978352029</v>
+        <v>-0.00639756290821627</v>
       </c>
       <c r="I191" t="n">
-        <v>0.06538279549967939</v>
+        <v>0.02198406365025189</v>
       </c>
       <c r="J191" t="n">
-        <v>-0.01173038970981718</v>
+        <v>-0.01144569198427904</v>
       </c>
       <c r="K191" t="n">
-        <v>0.023860990381456</v>
+        <v>0.02401915578453274</v>
       </c>
     </row>
     <row r="192">
@@ -6950,13 +6950,13 @@
         <v>42307</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.02753879431744788</v>
+        <v>-0.0262358183336747</v>
       </c>
       <c r="C192" t="n">
-        <v>0.01380197285165137</v>
+        <v>0.01510494883542455</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.01156226810952785</v>
+        <v>-0.01286524409330103</v>
       </c>
       <c r="E192" t="n">
         <v>0.01771525605328006</v>
@@ -6968,16 +6968,16 @@
         <v>0.002390100785055506</v>
       </c>
       <c r="H192" t="n">
-        <v>-0.05464666444807613</v>
+        <v>-0.01797567393254543</v>
       </c>
       <c r="I192" t="n">
-        <v>0.05102413123808987</v>
+        <v>0.01787669440187874</v>
       </c>
       <c r="J192" t="n">
-        <v>-0.0374400387756044</v>
+        <v>-0.03613706279183122</v>
       </c>
       <c r="K192" t="n">
-        <v>0.02207357595085321</v>
+        <v>0.02288793594071145</v>
       </c>
     </row>
     <row r="193">
@@ -6985,13 +6985,13 @@
         <v>42338</v>
       </c>
       <c r="B193" t="n">
-        <v>0.03878063353345244</v>
+        <v>0.04038495790130558</v>
       </c>
       <c r="C193" t="n">
-        <v>0.003878617497446313</v>
+        <v>0.005482941865299452</v>
       </c>
       <c r="D193" t="n">
-        <v>0.003728248757687901</v>
+        <v>0.002123924389834764</v>
       </c>
       <c r="E193" t="n">
         <v>-0.01374307210625688</v>
@@ -7003,16 +7003,16 @@
         <v>-0.02234635382149115</v>
       </c>
       <c r="H193" t="n">
-        <v>0.04486961812242533</v>
+        <v>0.01527316601527801</v>
       </c>
       <c r="I193" t="n">
-        <v>-0.02452300818467019</v>
+        <v>-0.007104786482987973</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0377336925801303</v>
+        <v>0.03933801694798344</v>
       </c>
       <c r="K193" t="n">
-        <v>-0.01567531038039102</v>
+        <v>-0.01487314819646445</v>
       </c>
     </row>
     <row r="194">
@@ -7020,16 +7020,16 @@
         <v>42369</v>
       </c>
       <c r="B194" t="n">
-        <v>0.014760743696586</v>
+        <v>0.01123625969454487</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.009946465583151022</v>
+        <v>-0.01347094958519215</v>
       </c>
       <c r="D194" t="n">
-        <v>0.002609711227445556</v>
+        <v>0.006134195229486685</v>
       </c>
       <c r="E194" t="n">
-        <v>-0.01600022180956811</v>
+        <v>-0.0160002218095681</v>
       </c>
       <c r="F194" t="n">
         <v>-0.03148601958301159</v>
@@ -7038,16 +7038,16 @@
         <v>-0.01402791148348624</v>
       </c>
       <c r="H194" t="n">
-        <v>-0.004896213138101799</v>
+        <v>-0.003077287935603199</v>
       </c>
       <c r="I194" t="n">
-        <v>-0.05322294227891949</v>
+        <v>-0.02009063676100058</v>
       </c>
       <c r="J194" t="n">
-        <v>-0.005149461723999089</v>
+        <v>-0.008673945726040216</v>
       </c>
       <c r="K194" t="n">
-        <v>-0.01659708630554592</v>
+        <v>-0.01855513297334654</v>
       </c>
     </row>
     <row r="195">
@@ -7055,13 +7055,13 @@
         <v>42398</v>
       </c>
       <c r="B195" t="n">
-        <v>0.02925213946683651</v>
+        <v>0.03146639510342741</v>
       </c>
       <c r="C195" t="n">
-        <v>0.03333020974958041</v>
+        <v>0.03554446538617131</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.01472846827148295</v>
+        <v>-0.01694272390807386</v>
       </c>
       <c r="E195" t="n">
         <v>0.01750942496380275</v>
@@ -7073,16 +7073,16 @@
         <v>0.04385893124598261</v>
       </c>
       <c r="H195" t="n">
-        <v>0.02237507946895792</v>
+        <v>0.007216693156319304</v>
       </c>
       <c r="I195" t="n">
-        <v>0.07920573602672124</v>
+        <v>0.02713999722110404</v>
       </c>
       <c r="J195" t="n">
         <v>0.01506822723197501</v>
       </c>
       <c r="K195" t="n">
-        <v>0.02445409857246288</v>
+        <v>0.02556122639075833</v>
       </c>
     </row>
     <row r="196">
@@ -7090,13 +7090,13 @@
         <v>42429</v>
       </c>
       <c r="B196" t="n">
-        <v>0.008725416279366696</v>
+        <v>0.01097750764889669</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.001041820923778225</v>
+        <v>0.001210270445751772</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.007211262666253871</v>
+        <v>-0.009463354035783866</v>
       </c>
       <c r="E196" t="n">
         <v>-0.006190197677363886</v>
@@ -7108,16 +7108,16 @@
         <v>-0.02034655071083631</v>
       </c>
       <c r="H196" t="n">
-        <v>0.001032655011751671</v>
+        <v>-0.0006958121192594409</v>
       </c>
       <c r="I196" t="n">
-        <v>-0.00948978760239862</v>
+        <v>-0.00241256541095621</v>
       </c>
       <c r="J196" t="n">
-        <v>-0.006180737533852007</v>
+        <v>-0.008432828903382003</v>
       </c>
       <c r="K196" t="n">
-        <v>-0.0005204618061528631</v>
+        <v>0.0007307000658082468</v>
       </c>
     </row>
     <row r="197">
@@ -7125,13 +7125,13 @@
         <v>42460</v>
       </c>
       <c r="B197" t="n">
-        <v>0.004327879767541632</v>
+        <v>0.002724117390614978</v>
       </c>
       <c r="C197" t="n">
-        <v>0.01410130073264468</v>
+        <v>0.01249753835571803</v>
       </c>
       <c r="D197" t="n">
-        <v>0.004725130655584578</v>
+        <v>0.006328893032511232</v>
       </c>
       <c r="E197" t="n">
         <v>0.01309259143360257</v>
@@ -7143,16 +7143,16 @@
         <v>0.03352529678638234</v>
       </c>
       <c r="H197" t="n">
-        <v>0.01866255828112695</v>
+        <v>0.005931519427042316</v>
       </c>
       <c r="I197" t="n">
-        <v>0.043441465398671</v>
+        <v>0.01394590100724811</v>
       </c>
       <c r="J197" t="n">
         <v>0.01858533087526613</v>
       </c>
       <c r="K197" t="n">
-        <v>0.01072728085686171</v>
+        <v>0.009836301758569123</v>
       </c>
     </row>
     <row r="198">
@@ -7160,16 +7160,16 @@
         <v>42489</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.01826815026744264</v>
+        <v>-0.01968122634499521</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.003770091839466572</v>
+        <v>-0.005183167917019139</v>
       </c>
       <c r="D198" t="n">
-        <v>0.004175863249373838</v>
+        <v>0.005588939326926405</v>
       </c>
       <c r="E198" t="n">
-        <v>0.005248838941438261</v>
+        <v>0.005248838941438263</v>
       </c>
       <c r="F198" t="n">
         <v>-0.002933667341797787</v>
@@ -7178,16 +7178,16 @@
         <v>-0.007879055565902227</v>
       </c>
       <c r="H198" t="n">
-        <v>-0.01121683699096264</v>
+        <v>-0.003546642526692245</v>
       </c>
       <c r="I198" t="n">
-        <v>-0.0003365279895553228</v>
+        <v>-0.000583201355702629</v>
       </c>
       <c r="J198" t="n">
-        <v>0.000174378989467931</v>
+        <v>0.001587455067020497</v>
       </c>
       <c r="K198" t="n">
-        <v>0.001821601492390456</v>
+        <v>0.0009384289439201016</v>
       </c>
     </row>
     <row r="199">
@@ -7201,7 +7201,7 @@
         <v>0.02545706890397433</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.02856983414562423</v>
+        <v>-0.02933678766915924</v>
       </c>
       <c r="E199" t="n">
         <v>0.0002680305252282583</v>
@@ -7213,13 +7213,13 @@
         <v>0.02325946089119413</v>
       </c>
       <c r="H199" t="n">
-        <v>0.01335346802752861</v>
+        <v>0.003624594400893597</v>
       </c>
       <c r="I199" t="n">
-        <v>0.04601538343665749</v>
+        <v>0.0153384611455525</v>
       </c>
       <c r="J199" t="n">
-        <v>0.0001166449862240208</v>
+        <v>-0.0006503085373109983</v>
       </c>
       <c r="K199" t="n">
         <v>0.01649436420317139</v>
@@ -7236,7 +7236,7 @@
         <v>0.01899639606485892</v>
       </c>
       <c r="D200" t="n">
-        <v>0.006832501581671318</v>
+        <v>0.003408698199746733</v>
       </c>
       <c r="E200" t="n">
         <v>0.02413401939650875</v>
@@ -7248,13 +7248,13 @@
         <v>0.01443399890345791</v>
       </c>
       <c r="H200" t="n">
-        <v>0.01676034039540974</v>
+        <v>0.002893688988297968</v>
       </c>
       <c r="I200" t="n">
-        <v>0.06836718839010582</v>
+        <v>0.02278906279670194</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01140363201590444</v>
+        <v>0.007979828633979854</v>
       </c>
       <c r="K200" t="n">
         <v>0.02366261187423724</v>
@@ -7271,10 +7271,10 @@
         <v>0.000675938857739756</v>
       </c>
       <c r="D201" t="n">
-        <v>0.004128918370624464</v>
+        <v>0.005113928939667252</v>
       </c>
       <c r="E201" t="n">
-        <v>0.007365475901646759</v>
+        <v>0.007365475901646757</v>
       </c>
       <c r="F201" t="n">
         <v>0.002663247224411767</v>
@@ -7283,13 +7283,13 @@
         <v>0.004016443992904109</v>
       </c>
       <c r="H201" t="n">
-        <v>-0.01301631362823902</v>
+        <v>-0.004054264163384482</v>
       </c>
       <c r="I201" t="n">
-        <v>0.007328475456710649</v>
+        <v>0.002442825152236883</v>
       </c>
       <c r="J201" t="n">
-        <v>-0.004970237586718607</v>
+        <v>-0.003985227017675819</v>
       </c>
       <c r="K201" t="n">
         <v>0.00336017227024063</v>
@@ -7306,10 +7306,10 @@
         <v>-0.0005507643650515485</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.01078099202539314</v>
+        <v>-0.009265117615913318</v>
       </c>
       <c r="E202" t="n">
-        <v>-0.003035540304817785</v>
+        <v>-0.003035540304817786</v>
       </c>
       <c r="F202" t="n">
         <v>-0.001941635625885171</v>
@@ -7318,13 +7318,13 @@
         <v>0.006113845431493892</v>
       </c>
       <c r="H202" t="n">
-        <v>-0.02212900566017618</v>
+        <v>-0.006781918947072179</v>
       </c>
       <c r="I202" t="n">
-        <v>-0.005735752901565075</v>
+        <v>-0.001911917633855024</v>
       </c>
       <c r="J202" t="n">
-        <v>-0.007812660590749396</v>
+        <v>-0.006296786181269574</v>
       </c>
       <c r="K202" t="n">
         <v>-0.002341598862028033</v>
@@ -7335,13 +7335,13 @@
         <v>42643</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.006195017950036935</v>
+        <v>-0.006195017950036934</v>
       </c>
       <c r="C203" t="n">
-        <v>0.0005657972549284686</v>
+        <v>0.0005657972549284684</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.003656914444308972</v>
+        <v>-0.004691949678752277</v>
       </c>
       <c r="E203" t="n">
         <v>0.006974197999926757</v>
@@ -7353,13 +7353,13 @@
         <v>-0.006414191094088605</v>
       </c>
       <c r="H203" t="n">
-        <v>-0.02681269351175028</v>
+        <v>-0.01005536577132341</v>
       </c>
       <c r="I203" t="n">
-        <v>-0.0008154241014248322</v>
+        <v>-0.0002718080338082775</v>
       </c>
       <c r="J203" t="n">
-        <v>-0.01703419313746679</v>
+        <v>-0.01806922837191009</v>
       </c>
       <c r="K203" t="n">
         <v>-0.002801403878419744</v>
@@ -7376,7 +7376,7 @@
         <v>-0.021009236699516</v>
       </c>
       <c r="D204" t="n">
-        <v>0.003939202324743218</v>
+        <v>0.005963011700353987</v>
       </c>
       <c r="E204" t="n">
         <v>-0.0002783580985951523</v>
@@ -7388,13 +7388,13 @@
         <v>-0.0005153051785785883</v>
       </c>
       <c r="H204" t="n">
-        <v>-0.04944385628566662</v>
+        <v>-0.01559535695592613</v>
       </c>
       <c r="I204" t="n">
-        <v>-0.03107379406042143</v>
+        <v>-0.01035793135347381</v>
       </c>
       <c r="J204" t="n">
-        <v>-0.0284697475952587</v>
+        <v>-0.02644593821964793</v>
       </c>
       <c r="K204" t="n">
         <v>-0.005913700842851304</v>
@@ -7411,7 +7411,7 @@
         <v>-0.02146306392774453</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.01520940306725493</v>
+        <v>-0.01275261529751958</v>
       </c>
       <c r="E205" t="n">
         <v>-0.02062776364859354</v>
@@ -7423,13 +7423,13 @@
         <v>-0.02756674805788975</v>
       </c>
       <c r="H205" t="n">
-        <v>-0.036469386722014</v>
+        <v>-0.01103693706084777</v>
       </c>
       <c r="I205" t="n">
-        <v>-0.06764808716732187</v>
+        <v>-0.02254936238910729</v>
       </c>
       <c r="J205" t="n">
-        <v>-0.02011063135539931</v>
+        <v>-0.01765384358566396</v>
       </c>
       <c r="K205" t="n">
         <v>-0.02230956245839126</v>
@@ -7446,7 +7446,7 @@
         <v>0.006295838903354879</v>
       </c>
       <c r="D206" t="n">
-        <v>0.008500924428999914</v>
+        <v>0.008130667518068027</v>
       </c>
       <c r="E206" t="n">
         <v>-0.0001908422064084382</v>
@@ -7458,16 +7458,16 @@
         <v>0.00887079321091613</v>
       </c>
       <c r="H206" t="n">
-        <v>0.03106555532074673</v>
+        <v>0.009560013832960982</v>
       </c>
       <c r="I206" t="n">
-        <v>0.002709415338547336</v>
+        <v>0.0009031384461824455</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0210462007995249</v>
+        <v>0.02067594388859301</v>
       </c>
       <c r="K206" t="n">
-        <v>-0.001527864205459337</v>
+        <v>-0.001527864205459338</v>
       </c>
     </row>
     <row r="207">
@@ -7481,7 +7481,7 @@
         <v>-0.004872309561996694</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.01732419047949061</v>
+        <v>-0.01630021476656982</v>
       </c>
       <c r="E207" t="n">
         <v>-0.003572485335498633</v>
@@ -7493,13 +7493,13 @@
         <v>0.01257753673961528</v>
       </c>
       <c r="H207" t="n">
-        <v>-0.03385700173433864</v>
+        <v>-0.01106168343616568</v>
       </c>
       <c r="I207" t="n">
-        <v>0.001132209605598115</v>
+        <v>0.0003774032018660414</v>
       </c>
       <c r="J207" t="n">
-        <v>-0.03054475144793984</v>
+        <v>-0.02952077573501906</v>
       </c>
       <c r="K207" t="n">
         <v>0.002231922596562685</v>
@@ -7516,7 +7516,7 @@
         <v>0.0102273741373871</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.01113046961536613</v>
+        <v>-0.01287287469644414</v>
       </c>
       <c r="E208" t="n">
         <v>0.0009867516192832325</v>
@@ -7528,13 +7528,13 @@
         <v>-0.003365574750406354</v>
       </c>
       <c r="H208" t="n">
-        <v>0.0111572779676929</v>
+        <v>0.002049859638882661</v>
       </c>
       <c r="I208" t="n">
-        <v>0.02289722080214773</v>
+        <v>0.007632406934049244</v>
       </c>
       <c r="J208" t="n">
-        <v>0.002866058635122542</v>
+        <v>0.001123653554044528</v>
       </c>
       <c r="K208" t="n">
         <v>0.009810886751588956</v>
@@ -7545,13 +7545,13 @@
         <v>42825</v>
       </c>
       <c r="B209" t="n">
-        <v>0.007410387672775961</v>
+        <v>0.007410387672775963</v>
       </c>
       <c r="C209" t="n">
         <v>-0.0101365977518249</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.008764442362898608</v>
+        <v>-0.007295480321680139</v>
       </c>
       <c r="E209" t="n">
         <v>-0.01135569624204194</v>
@@ -7563,13 +7563,13 @@
         <v>0.001308882758432927</v>
       </c>
       <c r="H209" t="n">
-        <v>0.01596325008247562</v>
+        <v>0.005370422559749881</v>
       </c>
       <c r="I209" t="n">
-        <v>-0.01990828978932387</v>
+        <v>-0.006636096596441288</v>
       </c>
       <c r="J209" t="n">
-        <v>0.006995097455496473</v>
+        <v>0.008464059496714943</v>
       </c>
       <c r="K209" t="n">
         <v>-0.006326263958906555</v>
@@ -7586,7 +7586,7 @@
         <v>-0.003104158457827211</v>
       </c>
       <c r="D210" t="n">
-        <v>0.01050351290630026</v>
+        <v>0.01061210563788458</v>
       </c>
       <c r="E210" t="n">
         <v>-0.0008936724035459639</v>
@@ -7598,16 +7598,16 @@
         <v>-0.01325291936472375</v>
       </c>
       <c r="H210" t="n">
-        <v>0.0128087540255719</v>
+        <v>0.003882671141274296</v>
       </c>
       <c r="I210" t="n">
-        <v>-0.02638279199360525</v>
+        <v>-0.008794263997868416</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01020096314500252</v>
+        <v>0.01030955587658685</v>
       </c>
       <c r="K210" t="n">
-        <v>-0.01301336977348135</v>
+        <v>-0.01301336977348136</v>
       </c>
     </row>
     <row r="211">
@@ -7618,10 +7618,10 @@
         <v>-0.0138554284511796</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.002764508805878531</v>
+        <v>-0.00276450880587853</v>
       </c>
       <c r="D211" t="n">
-        <v>0.00201440801189388</v>
+        <v>0.001015710760379211</v>
       </c>
       <c r="E211" t="n">
         <v>0.0008778764328753585</v>
@@ -7633,16 +7633,16 @@
         <v>0.0320379473338539</v>
       </c>
       <c r="H211" t="n">
-        <v>-0.0007907788968289227</v>
+        <v>-0.001352280022174975</v>
       </c>
       <c r="I211" t="n">
-        <v>0.00395753847401554</v>
+        <v>0.001319179491338514</v>
       </c>
       <c r="J211" t="n">
-        <v>0.003553428706415399</v>
+        <v>0.002554731454900731</v>
       </c>
       <c r="K211" t="n">
-        <v>0.0005103639038307349</v>
+        <v>0.0005103639038307357</v>
       </c>
     </row>
     <row r="212">
@@ -7656,7 +7656,7 @@
         <v>-0.006598023777125396</v>
       </c>
       <c r="D212" t="n">
-        <v>0.005166735613495836</v>
+        <v>0.006871732967854066</v>
       </c>
       <c r="E212" t="n">
         <v>-0.01086674728755826</v>
@@ -7668,13 +7668,13 @@
         <v>-0.00961135752919764</v>
       </c>
       <c r="H212" t="n">
-        <v>0.008476331337605888</v>
+        <v>0.002965998452876928</v>
       </c>
       <c r="I212" t="n">
-        <v>-0.02987249628716365</v>
+        <v>-0.009957498762387881</v>
       </c>
       <c r="J212" t="n">
-        <v>0.004743245449552475</v>
+        <v>0.006448242803910705</v>
       </c>
       <c r="K212" t="n">
         <v>-0.01325823216582686</v>
@@ -7685,13 +7685,13 @@
         <v>42947</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.0006940004971618032</v>
+        <v>-0.0006940004971618037</v>
       </c>
       <c r="C213" t="n">
         <v>-0.0005850497891505934</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.004918804199331358</v>
+        <v>-0.003934254214357899</v>
       </c>
       <c r="E213" t="n">
         <v>0.001094962106761699</v>
@@ -7703,13 +7703,13 @@
         <v>0.01197064458824599</v>
       </c>
       <c r="H213" t="n">
-        <v>-0.006215935953718418</v>
+        <v>-0.001850760142738647</v>
       </c>
       <c r="I213" t="n">
-        <v>-0.0004944307615478696</v>
+        <v>-0.0001648102538492906</v>
       </c>
       <c r="J213" t="n">
-        <v>-0.002709429691603091</v>
+        <v>-0.001724879706629631</v>
       </c>
       <c r="K213" t="n">
         <v>-0.0002507622062522096</v>
@@ -7726,7 +7726,7 @@
         <v>0.001782417881374876</v>
       </c>
       <c r="D214" t="n">
-        <v>0.003995100409980491</v>
+        <v>0.001956937115406466</v>
       </c>
       <c r="E214" t="n">
         <v>0.003997510990536713</v>
@@ -7738,13 +7738,13 @@
         <v>0.007627490771182188</v>
       </c>
       <c r="H214" t="n">
-        <v>-0.01126977378577935</v>
+        <v>-0.005602181606457279</v>
       </c>
       <c r="I214" t="n">
-        <v>0.007389663156501892</v>
+        <v>0.002463221052167297</v>
       </c>
       <c r="J214" t="n">
-        <v>-0.01158475756228524</v>
+        <v>-0.01362292085685927</v>
       </c>
       <c r="K214" t="n">
         <v>0.001373879862066024</v>
@@ -7755,13 +7755,13 @@
         <v>43007</v>
       </c>
       <c r="B215" t="n">
-        <v>0.007426320359024669</v>
+        <v>0.007426320359024668</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.002631112571320537</v>
+        <v>-0.002631112571320538</v>
       </c>
       <c r="D215" t="n">
-        <v>0.003465408816145459</v>
+        <v>0.005082549158021448</v>
       </c>
       <c r="E215" t="n">
         <v>-0.003756305692703754</v>
@@ -7773,13 +7773,13 @@
         <v>-0.00130538249058778</v>
       </c>
       <c r="H215" t="n">
-        <v>0.01114250984948303</v>
+        <v>0.004342226474041298</v>
       </c>
       <c r="I215" t="n">
-        <v>-0.01389914238578907</v>
+        <v>-0.004633047461929688</v>
       </c>
       <c r="J215" t="n">
-        <v>0.004991057833363644</v>
+        <v>0.006608198175239633</v>
       </c>
       <c r="K215" t="n">
         <v>-0.006072843329139976</v>
@@ -7796,7 +7796,7 @@
         <v>0.002187985519597492</v>
       </c>
       <c r="D216" t="n">
-        <v>0.0190091727952428</v>
+        <v>0.01837686004093856</v>
       </c>
       <c r="E216" t="n">
         <v>0.003512096910687501</v>
@@ -7808,13 +7808,13 @@
         <v>-0.01882127903517779</v>
       </c>
       <c r="H216" t="n">
-        <v>0.03339014756757436</v>
+        <v>0.01020124809372936</v>
       </c>
       <c r="I216" t="n">
-        <v>-0.002678608175831123</v>
+        <v>-0.0008928693919437085</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01112203513680754</v>
+        <v>0.0104897223825033</v>
       </c>
       <c r="K216" t="n">
         <v>-0.003919791897835979</v>
@@ -7843,16 +7843,16 @@
         <v>0.01658423484253142</v>
       </c>
       <c r="H217" t="n">
-        <v>-0.001869726377389767</v>
+        <v>-0.001095137068998163</v>
       </c>
       <c r="I217" t="n">
-        <v>0.006932060561585908</v>
+        <v>0.002310686853861969</v>
       </c>
       <c r="J217" t="n">
-        <v>0.006713099900171092</v>
+        <v>0.006854081737233041</v>
       </c>
       <c r="K217" t="n">
-        <v>0.001074538772264192</v>
+        <v>0.001074538772264193</v>
       </c>
     </row>
     <row r="218">
@@ -7860,13 +7860,13 @@
         <v>43098</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.00346610805091976</v>
+        <v>-0.003466108050919762</v>
       </c>
       <c r="C218" t="n">
         <v>-0.00761683488911118</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.006263448232047832</v>
+        <v>-0.006263448232047834</v>
       </c>
       <c r="E218" t="n">
         <v>-0.01247407175103719</v>
@@ -7878,13 +7878,13 @@
         <v>-0.02224151838032644</v>
       </c>
       <c r="H218" t="n">
-        <v>-0.02321292880282855</v>
+        <v>-0.008198854122100599</v>
       </c>
       <c r="I218" t="n">
-        <v>-0.02841743118428022</v>
+        <v>-0.009472477061426739</v>
       </c>
       <c r="J218" t="n">
-        <v>-0.01266708564499198</v>
+        <v>-0.01275377476402078</v>
       </c>
       <c r="K218" t="n">
         <v>-0.00949712778967372</v>
@@ -7913,13 +7913,13 @@
         <v>0.01991230205066579</v>
       </c>
       <c r="H219" t="n">
-        <v>-0.01896321330480284</v>
+        <v>-0.006275057970294034</v>
       </c>
       <c r="I219" t="n">
-        <v>0.01565576658383989</v>
+        <v>0.005218588861279963</v>
       </c>
       <c r="J219" t="n">
-        <v>-0.0180398475816245</v>
+        <v>-0.01660197485437043</v>
       </c>
       <c r="K219" t="n">
         <v>0.005857516811696328</v>
@@ -7948,13 +7948,13 @@
         <v>-0.004517330599281033</v>
       </c>
       <c r="H220" t="n">
-        <v>0.004518914308487804</v>
+        <v>0.0009560894410505528</v>
       </c>
       <c r="I220" t="n">
-        <v>-0.007204500142566572</v>
+        <v>-0.00240150004752219</v>
       </c>
       <c r="J220" t="n">
-        <v>0.005264331405798826</v>
+        <v>0.004757018753796013</v>
       </c>
       <c r="K220" t="n">
         <v>-0.004167108608803616</v>
@@ -7971,7 +7971,7 @@
         <v>0.01227157332217028</v>
       </c>
       <c r="D221" t="n">
-        <v>0.003585240691093472</v>
+        <v>0.003585240691093474</v>
       </c>
       <c r="E221" t="n">
         <v>0.01904444431736216</v>
@@ -7983,13 +7983,13 @@
         <v>0.02653582751542443</v>
       </c>
       <c r="H221" t="n">
-        <v>-0.0002223522686570951</v>
+        <v>-0.0006029330231922302</v>
       </c>
       <c r="I221" t="n">
-        <v>0.05042536528715971</v>
+        <v>0.0168084550957199</v>
       </c>
       <c r="J221" t="n">
-        <v>-0.01013698496211065</v>
+        <v>-0.01042843176303024</v>
       </c>
       <c r="K221" t="n">
         <v>0.01553582185404645</v>
@@ -8000,7 +8000,7 @@
         <v>43220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.001599853489210503</v>
+        <v>0.001599853489210504</v>
       </c>
       <c r="C222" t="n">
         <v>0.008128934154303226</v>
@@ -8018,13 +8018,13 @@
         <v>0.009462176857487493</v>
       </c>
       <c r="H222" t="n">
-        <v>-0.02587807049264736</v>
+        <v>-0.008822935804858458</v>
       </c>
       <c r="I222" t="n">
-        <v>0.01436037052454808</v>
+        <v>0.00478679017484936</v>
       </c>
       <c r="J222" t="n">
-        <v>-0.01650872213581899</v>
+        <v>-0.01590940350219144</v>
       </c>
       <c r="K222" t="n">
         <v>0.008909316798063624</v>
@@ -8035,13 +8035,13 @@
         <v>43251</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.009853235327534616</v>
+        <v>-0.009853235327534619</v>
       </c>
       <c r="C223" t="n">
         <v>-0.02078698308340323</v>
       </c>
       <c r="D223" t="n">
-        <v>0.006622596367691847</v>
+        <v>0.005426028392359551</v>
       </c>
       <c r="E223" t="n">
         <v>-0.009672949715683332</v>
@@ -8053,13 +8053,13 @@
         <v>-0.0405751421859309</v>
       </c>
       <c r="H223" t="n">
-        <v>-0.01407283526685712</v>
+        <v>-0.005871564479914644</v>
       </c>
       <c r="I223" t="n">
-        <v>-0.05322895503654522</v>
+        <v>-0.01774298501218174</v>
       </c>
       <c r="J223" t="n">
-        <v>-0.001225745007653718</v>
+        <v>-0.002422312982986015</v>
       </c>
       <c r="K223" t="n">
         <v>-0.01412027172575191</v>
@@ -8070,13 +8070,13 @@
         <v>43280</v>
       </c>
       <c r="B224" t="n">
-        <v>0.013070957905779</v>
+        <v>0.01264553133876129</v>
       </c>
       <c r="C224" t="n">
-        <v>0.002318722627096049</v>
+        <v>0.001893296060078332</v>
       </c>
       <c r="D224" t="n">
-        <v>0.01124026963308814</v>
+        <v>0.01166569620010586</v>
       </c>
       <c r="E224" t="n">
         <v>0.005847251089855754</v>
@@ -8088,16 +8088,16 @@
         <v>0.004847907229907801</v>
       </c>
       <c r="H224" t="n">
-        <v>0.01156095161980518</v>
+        <v>0.003445502391786912</v>
       </c>
       <c r="I224" t="n">
-        <v>0.0007054578564013704</v>
+        <v>9.334376312788517e-05</v>
       </c>
       <c r="J224" t="n">
         <v>0.01446611112735666</v>
       </c>
       <c r="K224" t="n">
-        <v>-0.002451274889906474</v>
+        <v>-0.002644650602187255</v>
       </c>
     </row>
     <row r="225">
@@ -8105,13 +8105,13 @@
         <v>43312</v>
       </c>
       <c r="B225" t="n">
-        <v>0.01730674303085115</v>
+        <v>0.01613632933845941</v>
       </c>
       <c r="C225" t="n">
-        <v>0.006576222505254649</v>
+        <v>0.005405808812862902</v>
       </c>
       <c r="D225" t="n">
-        <v>0.006601294108629439</v>
+        <v>0.00660129410862944</v>
       </c>
       <c r="E225" t="n">
         <v>-0.001576310683840254</v>
@@ -8123,16 +8123,16 @@
         <v>-0.0002347668840678939</v>
       </c>
       <c r="H225" t="n">
-        <v>0.01217416317561111</v>
+        <v>0.003615387725203702</v>
       </c>
       <c r="I225" t="n">
-        <v>-0.00563489913174447</v>
+        <v>-0.002268437608045404</v>
       </c>
       <c r="J225" t="n">
         <v>0.00477696540478951</v>
       </c>
       <c r="K225" t="n">
-        <v>-0.001574417176999011</v>
+        <v>-0.002106423400813442</v>
       </c>
     </row>
     <row r="226">
@@ -8140,10 +8140,10 @@
         <v>43343</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.01083755574741791</v>
+        <v>-0.009544981449067097</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.01132946122409315</v>
+        <v>-0.01003688692574234</v>
       </c>
       <c r="D226" t="n">
         <v>-0.0005588124333856821</v>
@@ -8158,16 +8158,16 @@
         <v>0.006857721627902369</v>
       </c>
       <c r="H226" t="n">
-        <v>0.007421799966285416</v>
+        <v>0.002064044433206249</v>
       </c>
       <c r="I226" t="n">
-        <v>-0.01277059369374651</v>
+        <v>-0.0038260064651319</v>
       </c>
       <c r="J226" t="n">
         <v>-0.01188833325405919</v>
       </c>
       <c r="K226" t="n">
-        <v>-0.00243436894784973</v>
+        <v>-0.001788081798674324</v>
       </c>
     </row>
     <row r="227">
@@ -8175,13 +8175,13 @@
         <v>43371</v>
       </c>
       <c r="B227" t="n">
-        <v>0.01055267417496479</v>
+        <v>0.008798213007228561</v>
       </c>
       <c r="C227" t="n">
-        <v>0.00956253631346209</v>
+        <v>0.007808075145725857</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.001306013540005434</v>
+        <v>-0.001306013540005435</v>
       </c>
       <c r="E227" t="n">
         <v>0.003674361802618686</v>
@@ -8193,16 +8193,16 @@
         <v>-0.005531822499097806</v>
       </c>
       <c r="H227" t="n">
-        <v>-0.007211417546626018</v>
+        <v>-0.002769879922949413</v>
       </c>
       <c r="I227" t="n">
-        <v>0.007569526449681558</v>
+        <v>0.001938355093981777</v>
       </c>
       <c r="J227" t="n">
-        <v>-0.007295165456013716</v>
+        <v>-0.007295165456013717</v>
       </c>
       <c r="K227" t="n">
-        <v>0.003341503026809466</v>
+        <v>0.002544020677838451</v>
       </c>
     </row>
     <row r="228">
@@ -8210,10 +8210,10 @@
         <v>43404</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.01026604286813527</v>
+        <v>-0.009665688777303748</v>
       </c>
       <c r="C228" t="n">
-        <v>0.001326263005384321</v>
+        <v>0.001926617096215844</v>
       </c>
       <c r="D228" t="n">
         <v>-0.01919683163370783</v>
@@ -8228,16 +8228,16 @@
         <v>0.00234998726732829</v>
       </c>
       <c r="H228" t="n">
-        <v>-0.03707440539853236</v>
+        <v>-0.01287819068839968</v>
       </c>
       <c r="I228" t="n">
-        <v>0.004566857487008379</v>
+        <v>0.001722403859279968</v>
       </c>
       <c r="J228" t="n">
         <v>-0.01478525854039637</v>
       </c>
       <c r="K228" t="n">
-        <v>0.003128159060203538</v>
+        <v>0.003378306598050006</v>
       </c>
     </row>
     <row r="229">
@@ -8245,13 +8245,13 @@
         <v>43434</v>
       </c>
       <c r="B229" t="n">
-        <v>0.005768348812580633</v>
+        <v>0.006845824348381675</v>
       </c>
       <c r="C229" t="n">
-        <v>0.01387115078777888</v>
+        <v>0.01494862632357992</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.001309028649175311</v>
+        <v>-0.001309028649175308</v>
       </c>
       <c r="E229" t="n">
         <v>0.005777955494249887</v>
@@ -8263,16 +8263,16 @@
         <v>-0.01567477923786138</v>
       </c>
       <c r="H229" t="n">
-        <v>-0.01861150636929386</v>
+        <v>-0.006305232500053163</v>
       </c>
       <c r="I229" t="n">
-        <v>0.009901892473272729</v>
+        <v>0.003659789336357925</v>
       </c>
       <c r="J229" t="n">
-        <v>-0.004843238731208689</v>
+        <v>-0.003765763195407645</v>
       </c>
       <c r="K229" t="n">
-        <v>0.002155343061385469</v>
+        <v>0.002645104668567762</v>
       </c>
     </row>
     <row r="230">
@@ -8280,10 +8280,10 @@
         <v>43465</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.01912310108967083</v>
+        <v>-0.01759091716391496</v>
       </c>
       <c r="C230" t="n">
-        <v>0.01496555697849666</v>
+        <v>0.01649774090425253</v>
       </c>
       <c r="D230" t="n">
         <v>-0.01906169181267307</v>
@@ -8298,16 +8298,16 @@
         <v>0.03887081135370665</v>
       </c>
       <c r="H230" t="n">
-        <v>-0.04658681441806053</v>
+        <v>-0.01546771016410155</v>
       </c>
       <c r="I230" t="n">
-        <v>0.04964874663061469</v>
+        <v>0.01706031018545685</v>
       </c>
       <c r="J230" t="n">
-        <v>-0.01820060059073237</v>
+        <v>-0.0166684166649765</v>
       </c>
       <c r="K230" t="n">
-        <v>0.02038338366346847</v>
+        <v>0.02114947562634641</v>
       </c>
     </row>
     <row r="231">
@@ -8318,7 +8318,7 @@
         <v>-0.01771230734306564</v>
       </c>
       <c r="C231" t="n">
-        <v>0.006329994312871735</v>
+        <v>0.006329994312871736</v>
       </c>
       <c r="D231" t="n">
         <v>0.01930035909525318</v>
@@ -8333,13 +8333,13 @@
         <v>0.008030148287289939</v>
       </c>
       <c r="H231" t="n">
-        <v>-0.001443945858688771</v>
+        <v>-0.0008412597306740347</v>
       </c>
       <c r="I231" t="n">
-        <v>0.03792867604096239</v>
+        <v>0.01264289201365413</v>
       </c>
       <c r="J231" t="n">
-        <v>-0.004358196333577858</v>
+        <v>-0.004358196333577857</v>
       </c>
       <c r="K231" t="n">
         <v>0.01407577910129118</v>
@@ -8356,7 +8356,7 @@
         <v>0.004457698405463241</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.01554889798177581</v>
+        <v>-0.01507497336114039</v>
       </c>
       <c r="E232" t="n">
         <v>0.003772330041373227</v>
@@ -8368,13 +8368,13 @@
         <v>0.007739564687232138</v>
       </c>
       <c r="H232" t="n">
-        <v>-0.03950425677861125</v>
+        <v>-0.01316169140133569</v>
       </c>
       <c r="I232" t="n">
-        <v>0.01554655671460809</v>
+        <v>0.005182185571536031</v>
       </c>
       <c r="J232" t="n">
-        <v>-0.02371826169135693</v>
+        <v>-0.0232443370707215</v>
       </c>
       <c r="K232" t="n">
         <v>0.00682997792057407</v>
@@ -8391,7 +8391,7 @@
         <v>0.01380505210624428</v>
       </c>
       <c r="D233" t="n">
-        <v>0.009375805150351326</v>
+        <v>0.008142986196001848</v>
       </c>
       <c r="E233" t="n">
         <v>0.01528349986112745</v>
@@ -8403,13 +8403,13 @@
         <v>0.01030907022306038</v>
       </c>
       <c r="H233" t="n">
-        <v>-0.01640563672318314</v>
+        <v>-0.00620492967028865</v>
       </c>
       <c r="I233" t="n">
-        <v>0.04467891485591305</v>
+        <v>0.01489297161863768</v>
       </c>
       <c r="J233" t="n">
-        <v>-0.0005416451373445944</v>
+        <v>-0.001774464091694074</v>
       </c>
       <c r="K233" t="n">
         <v>0.01405175827721822</v>
@@ -8426,7 +8426,7 @@
         <v>0.002920518455717369</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.01037948243543007</v>
+        <v>-0.009132808140160639</v>
       </c>
       <c r="E234" t="n">
         <v>-0.004089199155645873</v>
@@ -8438,13 +8438,13 @@
         <v>0.007321628287747028</v>
       </c>
       <c r="H234" t="n">
-        <v>-0.001207938633196523</v>
+        <v>8.476628207707872e-05</v>
       </c>
       <c r="I234" t="n">
-        <v>0.002542843440091281</v>
+        <v>0.0008476144800304264</v>
       </c>
       <c r="J234" t="n">
-        <v>0.003460991557050401</v>
+        <v>0.004707665852319835</v>
       </c>
       <c r="K234" t="n">
         <v>0.001501890856078829</v>
@@ -8461,7 +8461,7 @@
         <v>0.004289906141285748</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.007199267103911842</v>
+        <v>-0.009596011214988528</v>
       </c>
       <c r="E235" t="n">
         <v>0.003812200098536511</v>
@@ -8473,13 +8473,13 @@
         <v>0.02104819718168482</v>
       </c>
       <c r="H235" t="n">
-        <v>-0.002902260128340746</v>
+        <v>-0.002913712413127669</v>
       </c>
       <c r="I235" t="n">
-        <v>0.02291147000797366</v>
+        <v>0.007637156669324555</v>
       </c>
       <c r="J235" t="n">
-        <v>-0.0008611323212145561</v>
+        <v>-0.003257876432291242</v>
       </c>
       <c r="K235" t="n">
         <v>0.007550150531332234</v>
@@ -8490,13 +8490,13 @@
         <v>43644</v>
       </c>
       <c r="B236" t="n">
-        <v>0.0004869507188355647</v>
+        <v>0.0004869507188355665</v>
       </c>
       <c r="C236" t="n">
         <v>0.02204725118644224</v>
       </c>
       <c r="D236" t="n">
-        <v>0.01344560563915716</v>
+        <v>0.0129330022950569</v>
       </c>
       <c r="E236" t="n">
         <v>0.03209232529273574</v>
@@ -8508,13 +8508,13 @@
         <v>0.03425929844664921</v>
       </c>
       <c r="H236" t="n">
-        <v>0.01933719609188858</v>
+        <v>0.005746218690118243</v>
       </c>
       <c r="I236" t="n">
-        <v>0.08236127273191758</v>
+        <v>0.02745375757730586</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01668346761032238</v>
+        <v>0.01617086426622213</v>
       </c>
       <c r="K236" t="n">
         <v>0.02582296491362619</v>
@@ -8531,7 +8531,7 @@
         <v>0.01772387205555801</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.004403844605081272</v>
+        <v>-0.006594131796983494</v>
       </c>
       <c r="E237" t="n">
         <v>0.005376591480766881</v>
@@ -8543,16 +8543,16 @@
         <v>-0.008081077583977647</v>
       </c>
       <c r="H237" t="n">
-        <v>0.006145216811404815</v>
+        <v>0.0001329363647556807</v>
       </c>
       <c r="I237" t="n">
-        <v>0.02810500804381729</v>
+        <v>0.009368336014605759</v>
       </c>
       <c r="J237" t="n">
-        <v>0.002918487864790677</v>
+        <v>0.0007282006728884559</v>
       </c>
       <c r="K237" t="n">
-        <v>0.008035898475627214</v>
+        <v>0.008035898475627213</v>
       </c>
     </row>
     <row r="238">
@@ -8566,10 +8566,10 @@
         <v>0.0255101884848556</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.01613438501354155</v>
+        <v>-0.01897010378920535</v>
       </c>
       <c r="E238" t="n">
-        <v>0.006863819855096678</v>
+        <v>0.006863819855096677</v>
       </c>
       <c r="F238" t="n">
         <v>0.009864421210923006</v>
@@ -8578,13 +8578,13 @@
         <v>0.01995759172543401</v>
       </c>
       <c r="H238" t="n">
-        <v>-0.001169819690780187</v>
+        <v>-0.002738196858480374</v>
       </c>
       <c r="I238" t="n">
-        <v>0.04810174547625538</v>
+        <v>0.01603391515875179</v>
       </c>
       <c r="J238" t="n">
-        <v>-0.01926155263162477</v>
+        <v>-0.02209727140728857</v>
       </c>
       <c r="K238" t="n">
         <v>0.01682275384077843</v>
@@ -8595,13 +8595,13 @@
         <v>43738</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.003010560428863776</v>
+        <v>-0.003010560428863775</v>
       </c>
       <c r="C239" t="n">
         <v>-0.007533041157547516</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.005136477564268216</v>
+        <v>-0.00161406618022314</v>
       </c>
       <c r="E239" t="n">
         <v>-0.006238631322994847</v>
@@ -8613,13 +8613,13 @@
         <v>-0.0031939217850103</v>
       </c>
       <c r="H239" t="n">
-        <v>0.01176833805359955</v>
+        <v>0.005856572125748419</v>
       </c>
       <c r="I239" t="n">
-        <v>-0.006115534816523315</v>
+        <v>-0.002038511605507771</v>
       </c>
       <c r="J239" t="n">
-        <v>-0.0009122558304073798</v>
+        <v>0.002610155553637697</v>
       </c>
       <c r="K239" t="n">
         <v>-0.003263648185547263</v>
@@ -8636,7 +8636,7 @@
         <v>-0.004598336243899848</v>
       </c>
       <c r="D240" t="n">
-        <v>0.007755636891473212</v>
+        <v>0.009960606083202112</v>
       </c>
       <c r="E240" t="n">
         <v>0.007818123051158143</v>
@@ -8648,13 +8648,13 @@
         <v>-0.006137954483814289</v>
       </c>
       <c r="H240" t="n">
-        <v>-0.01552252687956703</v>
+        <v>-0.004104899869073446</v>
       </c>
       <c r="I240" t="n">
-        <v>-0.002555489705071223</v>
+        <v>-0.0008518299016904078</v>
       </c>
       <c r="J240" t="n">
-        <v>-0.01017585697127249</v>
+        <v>-0.007970887779543592</v>
       </c>
       <c r="K240" t="n">
         <v>0.0006333234772037625</v>
@@ -8671,7 +8671,7 @@
         <v>-0.008917701603749785</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.01683555052394768</v>
+        <v>-0.01717196081550243</v>
       </c>
       <c r="E241" t="n">
         <v>-0.01066473397473475</v>
@@ -8683,13 +8683,13 @@
         <v>-0.005227871671545014</v>
       </c>
       <c r="H241" t="n">
-        <v>-0.0317878275405948</v>
+        <v>-0.01117251233753107</v>
       </c>
       <c r="I241" t="n">
-        <v>-0.02227359523802752</v>
+        <v>-0.007424531746009174</v>
       </c>
       <c r="J241" t="n">
-        <v>-0.01248514486379987</v>
+        <v>-0.01282155515535462</v>
       </c>
       <c r="K241" t="n">
         <v>-0.003171589174614042</v>
@@ -8706,7 +8706,7 @@
         <v>-0.001515000427187331</v>
       </c>
       <c r="D242" t="n">
-        <v>0.01226234434454121</v>
+        <v>0.01387270182418161</v>
       </c>
       <c r="E242" t="n">
         <v>0.01245879764168041</v>
@@ -8718,16 +8718,16 @@
         <v>-0.0132068534584592</v>
       </c>
       <c r="H242" t="n">
-        <v>-0.01917625352305163</v>
+        <v>-0.005757031373108796</v>
       </c>
       <c r="I242" t="n">
-        <v>-0.0004347650711613391</v>
+        <v>-0.0001449216903871135</v>
       </c>
       <c r="J242" t="n">
-        <v>-0.01899914760115778</v>
+        <v>-0.01738879012151738</v>
       </c>
       <c r="K242" t="n">
-        <v>-5.481607064592537e-05</v>
+        <v>-5.481607064592581e-05</v>
       </c>
     </row>
     <row r="243">
@@ -8741,7 +8741,7 @@
         <v>0.01563413978113504</v>
       </c>
       <c r="D243" t="n">
-        <v>0.00846543164181341</v>
+        <v>0.005590109730111798</v>
       </c>
       <c r="E243" t="n">
         <v>0.02132566961590605</v>
@@ -8753,13 +8753,13 @@
         <v>0.02578246647896217</v>
       </c>
       <c r="H243" t="n">
-        <v>0.0008518159049647452</v>
+        <v>-0.001988294491331345</v>
       </c>
       <c r="I243" t="n">
-        <v>0.05275999458860637</v>
+        <v>0.01758666486286879</v>
       </c>
       <c r="J243" t="n">
-        <v>-0.007516527246235583</v>
+        <v>-0.01039184915793719</v>
       </c>
       <c r="K243" t="n">
         <v>0.01516436612676595</v>
@@ -8770,13 +8770,13 @@
         <v>43889</v>
       </c>
       <c r="B244" t="n">
-        <v>0.00698267921430756</v>
+        <v>0.007806112516210113</v>
       </c>
       <c r="C244" t="n">
-        <v>0.006145760701263736</v>
+        <v>0.00696919400316629</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0172242372519422</v>
+        <v>0.01640080395003965</v>
       </c>
       <c r="E244" t="n">
         <v>0.003884194408562536</v>
@@ -8788,16 +8788,16 @@
         <v>0.005224767963416864</v>
       </c>
       <c r="H244" t="n">
-        <v>0.01417093027824024</v>
+        <v>0.004089313806927376</v>
       </c>
       <c r="I244" t="n">
-        <v>0.0117736349708401</v>
+        <v>0.004199022757580884</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01209494589194406</v>
+        <v>0.01127151259004151</v>
       </c>
       <c r="K244" t="n">
-        <v>0.006220810726335832</v>
+        <v>0.006678273671837253</v>
       </c>
     </row>
     <row r="245">
@@ -8805,16 +8805,16 @@
         <v>43921</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.02366254986733773</v>
+        <v>-0.02761276488956689</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.01074652271992933</v>
+        <v>-0.0146967377421585</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.004730137561173055</v>
+        <v>-0.0007799225389438884</v>
       </c>
       <c r="E245" t="n">
-        <v>0.0009894430476541163</v>
+        <v>0.0009894430476541129</v>
       </c>
       <c r="F245" t="n">
         <v>0.01625949465590409</v>
@@ -8823,16 +8823,16 @@
         <v>0.01311932365516697</v>
       </c>
       <c r="H245" t="n">
-        <v>-0.008609961278014807</v>
+        <v>-0.00196332282600262</v>
       </c>
       <c r="I245" t="n">
-        <v>-0.003727292462206981</v>
+        <v>-0.002559169161478718</v>
       </c>
       <c r="J245" t="n">
-        <v>0.005768028511065435</v>
+        <v>0.009718243533294597</v>
       </c>
       <c r="K245" t="n">
-        <v>0.007610319548300114</v>
+        <v>0.005635212037185531</v>
       </c>
     </row>
     <row r="246">
@@ -8840,13 +8840,13 @@
         <v>43951</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.01750692899140488</v>
+        <v>-0.01662636086851952</v>
       </c>
       <c r="C246" t="n">
-        <v>-0.004386371787081213</v>
+        <v>-0.003505803664195862</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.01011967945087784</v>
+        <v>-0.01100024757376319</v>
       </c>
       <c r="E246" t="n">
         <v>-0.0006442175513522875</v>
@@ -8858,16 +8858,16 @@
         <v>-0.00333297599420457</v>
       </c>
       <c r="H246" t="n">
-        <v>-0.02087592747973606</v>
+        <v>-0.007572720756429357</v>
       </c>
       <c r="I246" t="n">
-        <v>-0.0004476886699234205</v>
+        <v>0.0001442931509873105</v>
       </c>
       <c r="J246" t="n">
-        <v>-0.006074392398245256</v>
+        <v>-0.006954960521130602</v>
       </c>
       <c r="K246" t="n">
-        <v>0.001127756115844526</v>
+        <v>0.0015680401772872</v>
       </c>
     </row>
     <row r="247">
@@ -8875,13 +8875,13 @@
         <v>43980</v>
       </c>
       <c r="B247" t="n">
-        <v>0.01754644356754843</v>
+        <v>0.01663398137609165</v>
       </c>
       <c r="C247" t="n">
-        <v>0.005691629102753093</v>
+        <v>0.004779166911296318</v>
       </c>
       <c r="D247" t="n">
-        <v>0.008298484012270813</v>
+        <v>0.009210946203727588</v>
       </c>
       <c r="E247" t="n">
         <v>-0.0006955120061630012</v>
@@ -8893,16 +8893,16 @@
         <v>0.008864773498046152</v>
       </c>
       <c r="H247" t="n">
-        <v>0.02760978867402645</v>
+        <v>0.009207213251457369</v>
       </c>
       <c r="I247" t="n">
-        <v>0.003642316272725668</v>
+        <v>0.000909951360422964</v>
       </c>
       <c r="J247" t="n">
-        <v>0.0145219976372185</v>
+        <v>0.01543445982867528</v>
       </c>
       <c r="K247" t="n">
-        <v>-0.002950871758002782</v>
+        <v>-0.003407102853731169</v>
       </c>
     </row>
     <row r="248">
@@ -8910,13 +8910,13 @@
         <v>44012</v>
       </c>
       <c r="B248" t="n">
-        <v>0.01064020099199648</v>
+        <v>0.009921689712009515</v>
       </c>
       <c r="C248" t="n">
-        <v>-0.01240247667142416</v>
+        <v>-0.01312098795141112</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.003784091069511286</v>
+        <v>-0.003065579789524318</v>
       </c>
       <c r="E248" t="n">
         <v>-0.01591768358043064</v>
@@ -8928,16 +8928,16 @@
         <v>-0.01187327763291955</v>
       </c>
       <c r="H248" t="n">
-        <v>-0.002298297212300762</v>
+        <v>-0.0008981508663268209</v>
       </c>
       <c r="I248" t="n">
-        <v>-0.04408336375543173</v>
+        <v>-0.01493395834513956</v>
       </c>
       <c r="J248" t="n">
-        <v>-0.00189825312695598</v>
+        <v>-0.001179741846969013</v>
       </c>
       <c r="K248" t="n">
-        <v>-0.01845067687272356</v>
+        <v>-0.01880993251271704</v>
       </c>
     </row>
     <row r="249">
@@ -8945,13 +8945,13 @@
         <v>44043</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.009116550140946251</v>
+        <v>-0.007998059585682999</v>
       </c>
       <c r="C249" t="n">
-        <v>0.006375331047129796</v>
+        <v>0.007493821602393048</v>
       </c>
       <c r="D249" t="n">
-        <v>0.007567806359572377</v>
+        <v>0.006449315804309123</v>
       </c>
       <c r="E249" t="n">
         <v>0.01429762031647412</v>
@@ -8963,16 +8963,16 @@
         <v>0.03807071913281115</v>
       </c>
       <c r="H249" t="n">
-        <v>0.008598676054011194</v>
+        <v>0.002115654425508573</v>
       </c>
       <c r="I249" t="n">
-        <v>0.0337931757703893</v>
+        <v>0.01163722210855085</v>
       </c>
       <c r="J249" t="n">
-        <v>0.004059641443829514</v>
+        <v>0.002941150888566262</v>
       </c>
       <c r="K249" t="n">
-        <v>0.01192304420499722</v>
+        <v>0.01243144900284416</v>
       </c>
     </row>
     <row r="250">
@@ -8986,7 +8986,7 @@
         <v>-0.002702587785857791</v>
       </c>
       <c r="D250" t="n">
-        <v>0.01884821647769686</v>
+        <v>0.01994953488070661</v>
       </c>
       <c r="E250" t="n">
         <v>0.009030641990609991</v>
@@ -8998,13 +8998,13 @@
         <v>-0.00566219117258402</v>
       </c>
       <c r="H250" t="n">
-        <v>0.02754271868559612</v>
+        <v>0.009520155534242248</v>
       </c>
       <c r="I250" t="n">
-        <v>0.01446549876018169</v>
+        <v>0.004821832920060561</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01566924690785405</v>
+        <v>0.0167705653108638</v>
       </c>
       <c r="K250" t="n">
         <v>0.00316177176489359</v>
@@ -9021,7 +9021,7 @@
         <v>0.01284925484134152</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.0002232400581941769</v>
+        <v>-0.001317808664891831</v>
       </c>
       <c r="E251" t="n">
         <v>0.0161543517299005</v>
@@ -9033,13 +9033,13 @@
         <v>0.0009979598335175159</v>
       </c>
       <c r="H251" t="n">
-        <v>-0.002812726271395917</v>
+        <v>-0.002047843383819298</v>
       </c>
       <c r="I251" t="n">
-        <v>0.04360126318381257</v>
+        <v>0.01453375439460419</v>
       </c>
       <c r="J251" t="n">
-        <v>0.002227031042910845</v>
+        <v>0.00113246243621319</v>
       </c>
       <c r="K251" t="n">
         <v>0.01366614816306027</v>
@@ -9050,13 +9050,13 @@
         <v>44134</v>
       </c>
       <c r="B252" t="n">
-        <v>0.002692274992469059</v>
+        <v>0.002519468357667821</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.002407027531305394</v>
+        <v>-0.002579834166106631</v>
       </c>
       <c r="D252" t="n">
-        <v>0.005225868479842063</v>
+        <v>0.0053986751146433</v>
       </c>
       <c r="E252" t="n">
         <v>0.003389674987140044</v>
@@ -9068,16 +9068,16 @@
         <v>-0.01299237249689396</v>
       </c>
       <c r="H252" t="n">
-        <v>0.003470847248145156</v>
+        <v>0.0007795512943154651</v>
       </c>
       <c r="I252" t="n">
-        <v>-0.005370644916031897</v>
+        <v>-0.001847817183611046</v>
       </c>
       <c r="J252" t="n">
-        <v>0.005379034255327705</v>
+        <v>0.005551840890128943</v>
       </c>
       <c r="K252" t="n">
-        <v>-0.00245819501037975</v>
+        <v>-0.002544598327780368</v>
       </c>
     </row>
     <row r="253">
@@ -9085,16 +9085,16 @@
         <v>44165</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.001300881071556457</v>
+        <v>-0.001544633426674656</v>
       </c>
       <c r="C253" t="n">
-        <v>0.001773474250956442</v>
+        <v>0.001529721895838243</v>
       </c>
       <c r="D253" t="n">
-        <v>0.005849823940926657</v>
+        <v>0.006093576296044857</v>
       </c>
       <c r="E253" t="n">
-        <v>0.005856087380572261</v>
+        <v>0.00585608738057226</v>
       </c>
       <c r="F253" t="n">
         <v>-0.00191580811095988</v>
@@ -9103,16 +9103,16 @@
         <v>0.01157195847377739</v>
       </c>
       <c r="H253" t="n">
-        <v>0.00141710914527915</v>
+        <v>0.0001242130927250427</v>
       </c>
       <c r="I253" t="n">
-        <v>0.008270748842786935</v>
+        <v>0.002675665495889579</v>
       </c>
       <c r="J253" t="n">
-        <v>-0.0009942127771427976</v>
+        <v>-0.0007504604220245998</v>
       </c>
       <c r="K253" t="n">
-        <v>0.004629349090142065</v>
+        <v>0.004507472912582966</v>
       </c>
     </row>
     <row r="254">
@@ -9120,13 +9120,13 @@
         <v>44196</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.02201392507425253</v>
+        <v>-0.02208760240109682</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.001617416282780582</v>
+        <v>-0.001691093609624873</v>
       </c>
       <c r="D254" t="n">
-        <v>0.01695824630046059</v>
+        <v>0.01703192362730488</v>
       </c>
       <c r="E254" t="n">
         <v>0.01465744734501138</v>
@@ -9138,16 +9138,16 @@
         <v>0.02489505928383269</v>
       </c>
       <c r="H254" t="n">
-        <v>0.006059635972257667</v>
+        <v>0.001616752581182134</v>
       </c>
       <c r="I254" t="n">
-        <v>0.02179344998743447</v>
+        <v>0.007239924220196725</v>
       </c>
       <c r="J254" t="n">
-        <v>0.004149398979188396</v>
+        <v>0.004223076306032686</v>
       </c>
       <c r="K254" t="n">
-        <v>0.006317608252353226</v>
+        <v>0.00628076958893108</v>
       </c>
     </row>
     <row r="255">
@@ -9155,13 +9155,13 @@
         <v>44225</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.01050376141791112</v>
+        <v>-0.01133606288854423</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.01108157796736797</v>
+        <v>-0.01191387943800109</v>
       </c>
       <c r="D255" t="n">
-        <v>0.009808925644712169</v>
+        <v>0.01064122711534528</v>
       </c>
       <c r="E255" t="n">
         <v>-0.0006208695882298435</v>
@@ -9173,16 +9173,16 @@
         <v>-0.0121069590681957</v>
       </c>
       <c r="H255" t="n">
-        <v>0.004145207981760215</v>
+        <v>0.001305262410057035</v>
       </c>
       <c r="I255" t="n">
-        <v>-0.0152138108578814</v>
+        <v>-0.005348704109504838</v>
       </c>
       <c r="J255" t="n">
-        <v>0.003405031553987216</v>
+        <v>0.004237333024620329</v>
       </c>
       <c r="K255" t="n">
-        <v>-0.005726415435865041</v>
+        <v>-0.006142566171181596</v>
       </c>
     </row>
     <row r="256">
@@ -9190,13 +9190,13 @@
         <v>44253</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.01314339860827979</v>
+        <v>-0.01512085900011721</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.01331780002999843</v>
+        <v>-0.01529526042183584</v>
       </c>
       <c r="D256" t="n">
-        <v>0.01100834697497646</v>
+        <v>0.01298580736681388</v>
       </c>
       <c r="E256" t="n">
         <v>-0.00433330918704429</v>
@@ -9208,16 +9208,16 @@
         <v>-0.0009170870294456859</v>
       </c>
       <c r="H256" t="n">
-        <v>0.02049103234791706</v>
+        <v>0.007161275357695934</v>
       </c>
       <c r="I256" t="n">
-        <v>-0.01629312801712564</v>
+        <v>-0.00609019613632102</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01523088656553791</v>
+        <v>0.01720834695737533</v>
       </c>
       <c r="K256" t="n">
-        <v>-0.006455095333353934</v>
+        <v>-0.007443825529272642</v>
       </c>
     </row>
     <row r="257">
@@ -9225,13 +9225,13 @@
         <v>44286</v>
       </c>
       <c r="B257" t="n">
-        <v>0.01847975011547411</v>
+        <v>0.01915478260018807</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.00177914770794514</v>
+        <v>-0.001104115223231174</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.01165486056026741</v>
+        <v>-0.01232989304498138</v>
       </c>
       <c r="E257" t="n">
         <v>-0.01308588087036069</v>
@@ -9243,16 +9243,16 @@
         <v>-0.03620374465093516</v>
       </c>
       <c r="H257" t="n">
-        <v>0.008890517597421259</v>
+        <v>0.002346772815346875</v>
       </c>
       <c r="I257" t="n">
-        <v>-0.02239011096535466</v>
+        <v>-0.007238359493546898</v>
       </c>
       <c r="J257" t="n">
-        <v>-0.003495902061994155</v>
+        <v>-0.004170934546708122</v>
       </c>
       <c r="K257" t="n">
-        <v>-0.009333325141951032</v>
+        <v>-0.00899580889959405</v>
       </c>
     </row>
     <row r="258">
@@ -9260,13 +9260,13 @@
         <v>44316</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.01711956464753984</v>
+        <v>-0.01796922571051277</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.007536596881632662</v>
+        <v>-0.008386257944605593</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.001474027306162998</v>
+        <v>-0.00062436624319007</v>
       </c>
       <c r="E258" t="n">
         <v>-0.004178158810090692</v>
@@ -9278,16 +9278,16 @@
         <v>0.01262750125084564</v>
       </c>
       <c r="H258" t="n">
-        <v>-0.02094391846142839</v>
+        <v>-0.007344639487142795</v>
       </c>
       <c r="I258" t="n">
-        <v>-0.01265646241186611</v>
+        <v>-0.00450204115827968</v>
       </c>
       <c r="J258" t="n">
         <v>-0.008198893828049576</v>
       </c>
       <c r="K258" t="n">
-        <v>-0.002566501612626151</v>
+        <v>-0.002952711186704755</v>
       </c>
     </row>
     <row r="259">
@@ -9295,13 +9295,13 @@
         <v>44347</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.01976744809074611</v>
+        <v>-0.02067527389592936</v>
       </c>
       <c r="C259" t="n">
-        <v>0.007651664126236479</v>
+        <v>0.00674383832105323</v>
       </c>
       <c r="D259" t="n">
-        <v>0.009690939479627585</v>
+        <v>0.01059876528481083</v>
       </c>
       <c r="E259" t="n">
         <v>0.01521632943825389</v>
@@ -9313,16 +9313,16 @@
         <v>0.01624070846732417</v>
       </c>
       <c r="H259" t="n">
-        <v>-0.005829480607585037</v>
+        <v>-0.002311715758083901</v>
       </c>
       <c r="I259" t="n">
-        <v>0.04201992365894867</v>
+        <v>0.01370403261792181</v>
       </c>
       <c r="J259" t="n">
         <v>-0.001326528954307337</v>
       </c>
       <c r="K259" t="n">
-        <v>0.01606019012995939</v>
+        <v>0.01560627722736776</v>
       </c>
     </row>
     <row r="260">
@@ -9330,13 +9330,13 @@
         <v>44377</v>
       </c>
       <c r="B260" t="n">
-        <v>0.004508937329097137</v>
+        <v>0.005738955367288319</v>
       </c>
       <c r="C260" t="n">
-        <v>0.003927682767208874</v>
+        <v>0.005157700805400057</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.01632379071833113</v>
+        <v>-0.01755380875652231</v>
       </c>
       <c r="E260" t="n">
         <v>-0.003925745309103989</v>
@@ -9348,16 +9348,16 @@
         <v>-0.009362078234321914</v>
       </c>
       <c r="H260" t="n">
-        <v>-0.01926424822757836</v>
+        <v>-0.006791416075859452</v>
       </c>
       <c r="I260" t="n">
-        <v>-0.00248199609577826</v>
+        <v>-0.0004173260191956916</v>
       </c>
       <c r="J260" t="n">
         <v>-0.01147476733382358</v>
       </c>
       <c r="K260" t="n">
-        <v>0.0001548311958318612</v>
+        <v>0.000769840214927453</v>
       </c>
     </row>
     <row r="261">
@@ -9365,13 +9365,13 @@
         <v>44407</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.00948747018894802</v>
+        <v>-0.007651196520084145</v>
       </c>
       <c r="C261" t="n">
-        <v>0.01179459979892821</v>
+        <v>0.01363087346779208</v>
       </c>
       <c r="D261" t="n">
-        <v>0.003988404455192378</v>
+        <v>0.002152130786328502</v>
       </c>
       <c r="E261" t="n">
         <v>0.01753228120271415</v>
@@ -9383,16 +9383,16 @@
         <v>0.01611114163228911</v>
       </c>
       <c r="H261" t="n">
-        <v>-0.006192398614038415</v>
+        <v>-0.002453021760235026</v>
       </c>
       <c r="I261" t="n">
-        <v>0.04746303431405914</v>
+        <v>0.01643310266097434</v>
       </c>
       <c r="J261" t="n">
-        <v>-0.001611307046687214</v>
+        <v>-0.001611307046687213</v>
       </c>
       <c r="K261" t="n">
-        <v>0.01594222335938222</v>
+        <v>0.01686036019381416</v>
       </c>
     </row>
     <row r="262">
@@ -9400,13 +9400,13 @@
         <v>44439</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.01834260036488047</v>
+        <v>-0.01910235302539311</v>
       </c>
       <c r="C262" t="n">
-        <v>0.001955926526445715</v>
+        <v>0.001196173865933068</v>
       </c>
       <c r="D262" t="n">
-        <v>0.01459455687879776</v>
+        <v>0.01535430953931041</v>
       </c>
       <c r="E262" t="n">
         <v>0.01471216146245325</v>
@@ -9418,16 +9418,16 @@
         <v>0.00685055210306993</v>
       </c>
       <c r="H262" t="n">
-        <v>0.001066106631207164</v>
+        <v>0.0001789901342769741</v>
       </c>
       <c r="I262" t="n">
-        <v>0.02970202656211991</v>
+        <v>0.009647424633869087</v>
       </c>
       <c r="J262" t="n">
-        <v>0.0006250977450792828</v>
+        <v>0.001384850405591932</v>
       </c>
       <c r="K262" t="n">
-        <v>0.01030955022806981</v>
+        <v>0.009964208109654968</v>
       </c>
     </row>
     <row r="263">
@@ -9435,16 +9435,16 @@
         <v>44469</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.00243671737308398</v>
+        <v>-0.004809935109008739</v>
       </c>
       <c r="C263" t="n">
-        <v>-0.006922623959531027</v>
+        <v>-0.009295841695455788</v>
       </c>
       <c r="D263" t="n">
-        <v>0.00226573514765937</v>
+        <v>0.004638952883584131</v>
       </c>
       <c r="E263" t="n">
-        <v>-0.002104962238808872</v>
+        <v>-0.002104962238808874</v>
       </c>
       <c r="F263" t="n">
         <v>-0.0007705186636188452</v>
@@ -9453,16 +9453,16 @@
         <v>-0.01737275365322262</v>
       </c>
       <c r="H263" t="n">
-        <v>-0.002300679719989781</v>
+        <v>-0.001170782128885482</v>
       </c>
       <c r="I263" t="n">
-        <v>-0.02004310701633145</v>
+        <v>-0.007472108250752072</v>
       </c>
       <c r="J263" t="n">
         <v>-0.002107065590396407</v>
       </c>
       <c r="K263" t="n">
-        <v>-0.00300103884760579</v>
+        <v>-0.004079774182117047</v>
       </c>
     </row>
     <row r="264">
@@ -9470,13 +9470,13 @@
         <v>44498</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.007077465676454535</v>
+        <v>-0.008760943962576853</v>
       </c>
       <c r="C264" t="n">
-        <v>0.00305471963593662</v>
+        <v>0.0013712413498143</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.03458454686820674</v>
+        <v>-0.03290106858208442</v>
       </c>
       <c r="E264" t="n">
         <v>-0.01386453792823159</v>
@@ -9488,16 +9488,16 @@
         <v>0.01487730407439678</v>
       </c>
       <c r="H264" t="n">
-        <v>-0.02953385351234193</v>
+        <v>-0.01023182154115101</v>
       </c>
       <c r="I264" t="n">
-        <v>-0.001180307097391545</v>
+        <v>-0.0009545951278379563</v>
       </c>
       <c r="J264" t="n">
         <v>-0.019123201674113</v>
       </c>
       <c r="K264" t="n">
-        <v>-0.0007975777486290882</v>
+        <v>-0.00156279515141196</v>
       </c>
     </row>
     <row r="265">
@@ -9505,13 +9505,13 @@
         <v>44530</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.0129678950060672</v>
+        <v>-0.01038957460138071</v>
       </c>
       <c r="C265" t="n">
-        <v>0.006763899575543663</v>
+        <v>0.009342219980230149</v>
       </c>
       <c r="D265" t="n">
-        <v>0.003768569808740551</v>
+        <v>0.001190249404054066</v>
       </c>
       <c r="E265" t="n">
         <v>0.01627189728851424</v>
@@ -9523,16 +9523,16 @@
         <v>-0.006919601640985418</v>
       </c>
       <c r="H265" t="n">
-        <v>-0.02965481132015707</v>
+        <v>-0.01046449266227458</v>
       </c>
       <c r="I265" t="n">
-        <v>0.02821134034145683</v>
+        <v>0.01026322024871443</v>
       </c>
       <c r="J265" t="n">
         <v>-0.01412643578872093</v>
       </c>
       <c r="K265" t="n">
-        <v>0.01178274977093901</v>
+        <v>0.01307190997328225</v>
       </c>
     </row>
     <row r="266">
@@ -9540,16 +9540,16 @@
         <v>44561</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.01074689283385616</v>
+        <v>-0.01190481352305287</v>
       </c>
       <c r="C266" t="n">
-        <v>-0.005872476767299517</v>
+        <v>-0.007030397456496229</v>
       </c>
       <c r="D266" t="n">
-        <v>0.000971735937588228</v>
+        <v>0.002129656626784941</v>
       </c>
       <c r="E266" t="n">
-        <v>-0.001820540530758416</v>
+        <v>-0.001820540530758417</v>
       </c>
       <c r="F266" t="n">
         <v>0.0232493657625514</v>
@@ -9558,16 +9558,16 @@
         <v>0.007367546306535667</v>
       </c>
       <c r="H266" t="n">
-        <v>0.003535777924743105</v>
+        <v>0.00068488893787733</v>
       </c>
       <c r="I266" t="n">
-        <v>7.019964305126324e-05</v>
+        <v>-0.0003625736820484816</v>
       </c>
       <c r="J266" t="n">
         <v>0.002691552304440896</v>
       </c>
       <c r="K266" t="n">
-        <v>-0.001719590609350542</v>
+        <v>-0.002245918195349048</v>
       </c>
     </row>
     <row r="267">
@@ -9575,13 +9575,13 @@
         <v>44592</v>
       </c>
       <c r="B267" t="n">
-        <v>0.01865735951897234</v>
+        <v>0.01622032190681839</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.00392191100761774</v>
+        <v>-0.006358948619771687</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.003322314409501394</v>
+        <v>-0.000885276797347446</v>
       </c>
       <c r="E267" t="n">
         <v>-0.008005203088234537</v>
@@ -9593,16 +9593,16 @@
         <v>-0.0116985928623977</v>
       </c>
       <c r="H267" t="n">
-        <v>0.02745121098970783</v>
+        <v>0.007924724459184625</v>
       </c>
       <c r="I267" t="n">
-        <v>-0.01236890104168493</v>
+        <v>-0.00574765875533094</v>
       </c>
       <c r="J267" t="n">
-        <v>0.009886765038518324</v>
+        <v>0.007449727426364376</v>
       </c>
       <c r="K267" t="n">
-        <v>-0.002805825236613901</v>
+        <v>-0.004024344042690875</v>
       </c>
     </row>
     <row r="268">
@@ -9610,16 +9610,16 @@
         <v>44620</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.006692078365246388</v>
+        <v>-0.008317569310250293</v>
       </c>
       <c r="C268" t="n">
-        <v>-0.009390043828111396</v>
+        <v>-0.0110155347731153</v>
       </c>
       <c r="D268" t="n">
-        <v>0.01131703354171948</v>
+        <v>0.01294252448672338</v>
       </c>
       <c r="E268" t="n">
-        <v>-0.004584386424068377</v>
+        <v>-0.004584386424068379</v>
       </c>
       <c r="F268" t="n">
         <v>0.004110642683584725</v>
@@ -9628,16 +9628,16 @@
         <v>-0.007765469771540536</v>
       </c>
       <c r="H268" t="n">
-        <v>0.003067204918569916</v>
+        <v>0.001159268991561643</v>
       </c>
       <c r="I268" t="n">
-        <v>-0.01983991023894101</v>
+        <v>-0.007155133727981634</v>
       </c>
       <c r="J268" t="n">
-        <v>-0.009909569755060616</v>
+        <v>-0.008284078810056713</v>
       </c>
       <c r="K268" t="n">
-        <v>-0.008785614598456405</v>
+        <v>-0.009598360070958357</v>
       </c>
     </row>
     <row r="269">
@@ -9645,13 +9645,13 @@
         <v>44651</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.02535939248619481</v>
+        <v>-0.02981865478833685</v>
       </c>
       <c r="C269" t="n">
-        <v>-0.02374081083285207</v>
+        <v>-0.02820007313499411</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.001754917365511791</v>
+        <v>-0.00175491736551179</v>
       </c>
       <c r="E269" t="n">
         <v>-0.01586388010629498</v>
@@ -9663,16 +9663,16 @@
         <v>0.001218311272509862</v>
       </c>
       <c r="H269" t="n">
-        <v>-0.005125214057949965</v>
+        <v>-0.002121738019316657</v>
       </c>
       <c r="I269" t="n">
-        <v>-0.03459392260226427</v>
+        <v>-0.01301772830146877</v>
       </c>
       <c r="J269" t="n">
-        <v>-0.0005962867856211069</v>
+        <v>-0.0005962867856211039</v>
       </c>
       <c r="K269" t="n">
-        <v>-0.009504281570440577</v>
+        <v>-0.0117339127215116</v>
       </c>
     </row>
     <row r="270">
@@ -9680,16 +9680,16 @@
         <v>44680</v>
       </c>
       <c r="B270" t="n">
-        <v>0.01426017619244423</v>
+        <v>0.01228457024453723</v>
       </c>
       <c r="C270" t="n">
-        <v>-0.02717292634489525</v>
+        <v>-0.02914853229280225</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.00476355170690629</v>
+        <v>-0.004763551706906288</v>
       </c>
       <c r="E270" t="n">
-        <v>-0.03914933062237947</v>
+        <v>-0.03914933062237946</v>
       </c>
       <c r="F270" t="n">
         <v>-0.02638470447815159</v>
@@ -9698,16 +9698,16 @@
         <v>-0.06037032378286536</v>
       </c>
       <c r="H270" t="n">
-        <v>0.002544738166289159</v>
+        <v>-0.0001185485197985397</v>
       </c>
       <c r="I270" t="n">
-        <v>-0.1101118740846399</v>
+        <v>-0.0373624933441823</v>
       </c>
       <c r="J270" t="n">
-        <v>-0.005109811676631228</v>
+        <v>-0.007085417624538227</v>
       </c>
       <c r="K270" t="n">
-        <v>-0.03479127415413225</v>
+        <v>-0.03568927685772634</v>
       </c>
     </row>
     <row r="271">
@@ -9715,13 +9715,13 @@
         <v>44712</v>
       </c>
       <c r="B271" t="n">
-        <v>0.0100379374148178</v>
+        <v>0.009793074431590521</v>
       </c>
       <c r="C271" t="n">
-        <v>-0.0008043226361135435</v>
+        <v>-0.001049185619340822</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.003491842791225098</v>
+        <v>-0.003491842791225097</v>
       </c>
       <c r="E271" t="n">
         <v>-0.01329695652180349</v>
@@ -9733,16 +9733,16 @@
         <v>0.01868774306293524</v>
       </c>
       <c r="H271" t="n">
-        <v>0.02483943968079634</v>
+        <v>0.007865904571447259</v>
       </c>
       <c r="I271" t="n">
-        <v>-0.01513898390592166</v>
+        <v>-0.005209569957458736</v>
       </c>
       <c r="J271" t="n">
-        <v>0.004583289772761406</v>
+        <v>0.004338426789534128</v>
       </c>
       <c r="K271" t="n">
-        <v>-0.007167330634904059</v>
+        <v>-0.007289762126517698</v>
       </c>
     </row>
     <row r="272">
@@ -9750,16 +9750,16 @@
         <v>44742</v>
       </c>
       <c r="B272" t="n">
-        <v>0.008961069549805009</v>
+        <v>0.0074466170127475</v>
       </c>
       <c r="C272" t="n">
-        <v>0.01137477896177785</v>
+        <v>0.009860326424720341</v>
       </c>
       <c r="D272" t="n">
         <v>-0.01799158187477808</v>
       </c>
       <c r="E272" t="n">
-        <v>-0.008432289481302393</v>
+        <v>-0.008432289481302389</v>
       </c>
       <c r="F272" t="n">
         <v>0.01252998665134378</v>
@@ -9768,16 +9768,16 @@
         <v>0.005863928962408213</v>
       </c>
       <c r="H272" t="n">
-        <v>0.01387545469204672</v>
+        <v>0.003501072094866122</v>
       </c>
       <c r="I272" t="n">
-        <v>0.01772070961854042</v>
+        <v>0.00489726818147513</v>
       </c>
       <c r="J272" t="n">
-        <v>0.005356004533984021</v>
+        <v>0.003841551996926512</v>
       </c>
       <c r="K272" t="n">
-        <v>0.003172965328381282</v>
+        <v>0.002415739059852529</v>
       </c>
     </row>
     <row r="273">
@@ -9785,13 +9785,13 @@
         <v>44771</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.01618403307629873</v>
+        <v>-0.009815456740827764</v>
       </c>
       <c r="C273" t="n">
-        <v>0.01085853166208228</v>
+        <v>0.01722710799755325</v>
       </c>
       <c r="D273" t="n">
-        <v>0.02321539179234212</v>
+        <v>0.01684681545687116</v>
       </c>
       <c r="E273" t="n">
         <v>0.03002672097321437</v>
@@ -9803,16 +9803,16 @@
         <v>-0.01606935976830384</v>
       </c>
       <c r="H273" t="n">
-        <v>-0.01802252982696798</v>
+        <v>-0.003891632645313821</v>
       </c>
       <c r="I273" t="n">
-        <v>0.04592999492671886</v>
+        <v>0.01955571586588693</v>
       </c>
       <c r="J273" t="n">
-        <v>-0.01153139334874824</v>
+        <v>-0.005162817013277274</v>
       </c>
       <c r="K273" t="n">
-        <v>0.01896439129437435</v>
+        <v>0.02250248925852489</v>
       </c>
     </row>
     <row r="274">
@@ -9820,13 +9820,13 @@
         <v>44804</v>
       </c>
       <c r="B274" t="n">
-        <v>0.008421321961713989</v>
+        <v>0.004245883299477547</v>
       </c>
       <c r="C274" t="n">
-        <v>-0.03382693191233396</v>
+        <v>-0.03800237057457041</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.01702027524297658</v>
+        <v>-0.01284483658074014</v>
       </c>
       <c r="E274" t="n">
         <v>-0.05599476511755446</v>
@@ -9838,16 +9838,16 @@
         <v>-0.0135863540285581</v>
       </c>
       <c r="H274" t="n">
-        <v>0.04629978592248827</v>
+        <v>0.01422722686452839</v>
       </c>
       <c r="I274" t="n">
-        <v>-0.1002682740733402</v>
+        <v>-0.03620638379927105</v>
       </c>
       <c r="J274" t="n">
-        <v>-0.01084474406151334</v>
+        <v>-0.01502018272374978</v>
       </c>
       <c r="K274" t="n">
-        <v>-0.03322067108050314</v>
+        <v>-0.03530839041162136</v>
       </c>
     </row>
     <row r="275">
@@ -9855,16 +9855,16 @@
         <v>44834</v>
       </c>
       <c r="B275" t="n">
-        <v>0.001800496837838946</v>
+        <v>-0.002893404201923964</v>
       </c>
       <c r="C275" t="n">
-        <v>-0.04099477202824362</v>
+        <v>-0.04568867306800653</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.004242117752172436</v>
+        <v>0.0004517832875904669</v>
       </c>
       <c r="E275" t="n">
-        <v>-0.04119601684683854</v>
+        <v>-0.04119601684683853</v>
       </c>
       <c r="F275" t="n">
         <v>-0.0261687404757684</v>
@@ -9873,16 +9873,16 @@
         <v>-0.04523625954175244</v>
       </c>
       <c r="H275" t="n">
-        <v>-0.0003203865479551246</v>
+        <v>-0.00102587364035046</v>
       </c>
       <c r="I275" t="n">
-        <v>-0.1234355486087063</v>
+        <v>-0.04427445022941069</v>
       </c>
       <c r="J275" t="n">
-        <v>0.009935600539628633</v>
+        <v>0.005241699499865728</v>
       </c>
       <c r="K275" t="n">
-        <v>-0.03911237442690774</v>
+        <v>-0.04172009722677601</v>
       </c>
     </row>
     <row r="276">
@@ -9890,13 +9890,13 @@
         <v>44865</v>
       </c>
       <c r="B276" t="n">
-        <v>0.01458814075666892</v>
+        <v>0.0162487767300228</v>
       </c>
       <c r="C276" t="n">
-        <v>-0.0004753493366684639</v>
+        <v>0.001185286636685422</v>
       </c>
       <c r="D276" t="n">
-        <v>0.01692716141589396</v>
+        <v>0.01526652544254008</v>
       </c>
       <c r="E276" t="n">
         <v>-0.001477655937740253</v>
@@ -9908,16 +9908,16 @@
         <v>0.01762314426360636</v>
       </c>
       <c r="H276" t="n">
-        <v>0.01320761666489597</v>
+        <v>0.005835565694231435</v>
       </c>
       <c r="I276" t="n">
-        <v>-0.01108058190238264</v>
+        <v>-0.002586436651891622</v>
       </c>
       <c r="J276" t="n">
-        <v>0.02355560375332471</v>
+        <v>0.02521623972667859</v>
       </c>
       <c r="K276" t="n">
-        <v>-0.004314502129386721</v>
+        <v>-0.003276604646040543</v>
       </c>
     </row>
     <row r="277">
@@ -9925,13 +9925,13 @@
         <v>44895</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.003270828365529204</v>
+        <v>-0.003904146742812625</v>
       </c>
       <c r="C277" t="n">
-        <v>0.006741296350201842</v>
+        <v>0.006107977972918418</v>
       </c>
       <c r="D277" t="n">
-        <v>0.01193824751223961</v>
+        <v>0.01257156588952303</v>
       </c>
       <c r="E277" t="n">
         <v>0.01695263708744845</v>
@@ -9943,16 +9943,16 @@
         <v>0.004507958772615561</v>
       </c>
       <c r="H277" t="n">
-        <v>-0.003841210576212114</v>
+        <v>-0.0006403985400540643</v>
       </c>
       <c r="I277" t="n">
-        <v>0.03010183296123721</v>
+        <v>0.009611732068890121</v>
       </c>
       <c r="J277" t="n">
-        <v>-0.003416885958060136</v>
+        <v>-0.004050204335343557</v>
       </c>
       <c r="K277" t="n">
-        <v>0.01072368669224334</v>
+        <v>0.01037184314930811</v>
       </c>
     </row>
     <row r="278">
@@ -9960,13 +9960,13 @@
         <v>44925</v>
       </c>
       <c r="B278" t="n">
-        <v>0.02047780611035422</v>
+        <v>0.0152401895484293</v>
       </c>
       <c r="C278" t="n">
-        <v>-0.01290849273190702</v>
+        <v>-0.01814610929383194</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.006238293425894938</v>
+        <v>-0.00100067686397002</v>
       </c>
       <c r="E278" t="n">
         <v>-0.02065615686781188</v>
@@ -9978,16 +9978,16 @@
         <v>0.003231609874981523</v>
       </c>
       <c r="H278" t="n">
-        <v>0.04417445161137169</v>
+        <v>0.01383005612759337</v>
       </c>
       <c r="I278" t="n">
-        <v>-0.04363861462998753</v>
+        <v>-0.01803794925127912</v>
       </c>
       <c r="J278" t="n">
-        <v>0.02347916965402565</v>
+        <v>0.01824155309210073</v>
       </c>
       <c r="K278" t="n">
-        <v>-0.01669906598065586</v>
+        <v>-0.01960885295950304</v>
       </c>
     </row>
     <row r="279">
@@ -9995,13 +9995,13 @@
         <v>44957</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.02866957529279896</v>
+        <v>-0.02568253522657921</v>
       </c>
       <c r="C279" t="n">
-        <v>0.007761400229821856</v>
+        <v>0.01074844029604161</v>
       </c>
       <c r="D279" t="n">
-        <v>0.00335791843742766</v>
+        <v>0.0003708783712079097</v>
       </c>
       <c r="E279" t="n">
         <v>0.02227373097965495</v>
@@ -10013,16 +10013,16 @@
         <v>0.0129123755601315</v>
       </c>
       <c r="H279" t="n">
-        <v>-0.04268242937057445</v>
+        <v>-0.01232394458293305</v>
       </c>
       <c r="I279" t="n">
-        <v>0.03950309321709464</v>
+        <v>0.01515905778317804</v>
       </c>
       <c r="J279" t="n">
-        <v>-0.03715771035551285</v>
+        <v>-0.0341706702892931</v>
       </c>
       <c r="K279" t="n">
-        <v>0.01442101356171999</v>
+        <v>0.0160804802651754</v>
       </c>
     </row>
     <row r="280">
@@ -10030,13 +10030,13 @@
         <v>44985</v>
       </c>
       <c r="B280" t="n">
-        <v>0.01067703351896042</v>
+        <v>0.008931597337457176</v>
       </c>
       <c r="C280" t="n">
-        <v>-0.01651932227284039</v>
+        <v>-0.01826475845434363</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.007107768023358963</v>
+        <v>-0.005362331841855717</v>
       </c>
       <c r="E280" t="n">
         <v>-0.03000008409804611</v>
@@ -10048,16 +10048,16 @@
         <v>-0.02479589557387743</v>
       </c>
       <c r="H280" t="n">
-        <v>-0.0102515510506157</v>
+        <v>-0.002622813313168196</v>
       </c>
       <c r="I280" t="n">
-        <v>-0.08178506895300422</v>
+        <v>-0.02784350171150249</v>
       </c>
       <c r="J280" t="n">
         <v>0.009240897620763432</v>
       </c>
       <c r="K280" t="n">
-        <v>-0.02115999064776512</v>
+        <v>-0.02203270873851674</v>
       </c>
     </row>
     <row r="281">
@@ -10065,13 +10065,13 @@
         <v>45016</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.005207120916614577</v>
+        <v>-0.001986297862876789</v>
       </c>
       <c r="C281" t="n">
-        <v>0.01902480574216465</v>
+        <v>0.02224562879590244</v>
       </c>
       <c r="D281" t="n">
-        <v>0.004257408577931951</v>
+        <v>0.001036585524194163</v>
       </c>
       <c r="E281" t="n">
         <v>0.02371826540944313</v>
@@ -10083,16 +10083,16 @@
         <v>0.04343540849498728</v>
       </c>
       <c r="H281" t="n">
-        <v>-0.004487540539759197</v>
+        <v>0.0004572423194743444</v>
       </c>
       <c r="I281" t="n">
-        <v>0.06580529437391358</v>
+        <v>0.02408231349379638</v>
       </c>
       <c r="J281" t="n">
-        <v>0.001309399479967091</v>
+        <v>0.004530222533704877</v>
       </c>
       <c r="K281" t="n">
-        <v>0.02222229099484601</v>
+        <v>0.02401163713581145</v>
       </c>
     </row>
   </sheetData>

--- a/Pictures/allTotalReturns_excl_TC_hedge.xlsx
+++ b/Pictures/allTotalReturns_excl_TC_hedge.xlsx
@@ -909,10 +909,10 @@
         <v>0.005052966549370866</v>
       </c>
       <c r="F17" t="n">
-        <v>0.006839903814723309</v>
+        <v>0.009541074091990993</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01490481359901075</v>
+        <v>0.01556369553197648</v>
       </c>
       <c r="H17" t="n">
         <v>0.0006261809281435579</v>
@@ -940,10 +940,10 @@
         <v>0.02688874543055413</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02062300276388964</v>
+        <v>-0.01687457827672311</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.007196370824952038</v>
+        <v>0.0006664631181379612</v>
       </c>
       <c r="H18" t="n">
         <v>0.003304485915761505</v>
@@ -971,10 +971,10 @@
         <v>-0.007936985664536602</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03771486684291425</v>
+        <v>-0.01727296876114485</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.00740066837869684</v>
+        <v>0.007283314305285838</v>
       </c>
       <c r="H19" t="n">
         <v>0.00459078018407995</v>
@@ -1002,10 +1002,10 @@
         <v>-0.01601320070419066</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.007323594631716136</v>
+        <v>0.01297114713153565</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.004743896671288407</v>
+        <v>-0.007662525101150531</v>
       </c>
       <c r="H20" t="n">
         <v>-0.001313680124055198</v>
@@ -1033,10 +1033,10 @@
         <v>0.006065643950302403</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.004416085354843448</v>
+        <v>-0.003070175343374985</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01911202362505407</v>
+        <v>-0.002763988566479105</v>
       </c>
       <c r="H21" t="n">
         <v>0.0013682578100017</v>
@@ -1064,10 +1064,10 @@
         <v>-0.01048668326941344</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01385626939088931</v>
+        <v>0.01469267629559028</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.004428377155230947</v>
+        <v>-0.007379648935395913</v>
       </c>
       <c r="H22" t="n">
         <v>-0.001608297082698923</v>
@@ -1095,10 +1095,10 @@
         <v>0.002940319909676157</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001897846568186064</v>
+        <v>0.02260165665905183</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03386483702755094</v>
+        <v>-0.00257524663732984</v>
       </c>
       <c r="H23" t="n">
         <v>0.003482686301941961</v>
@@ -1126,10 +1126,10 @@
         <v>0.02015288332605261</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.007648397809792798</v>
+        <v>0.01983324655113773</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02361143195809792</v>
+        <v>0.03744322782582188</v>
       </c>
       <c r="H24" t="n">
         <v>0.005209571281200355</v>
@@ -1157,10 +1157,10 @@
         <v>-0.0124599900136795</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.001334865315778927</v>
+        <v>0.02287919633829399</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.02087820842266326</v>
+        <v>-0.004041771604695743</v>
       </c>
       <c r="H25" t="n">
         <v>0.002025767163847656</v>
@@ -1188,10 +1188,10 @@
         <v>0.0008071477982538391</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.01312719056988861</v>
+        <v>-0.007135896020233958</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.002602943733567641</v>
+        <v>-0.008341849085703457</v>
       </c>
       <c r="H26" t="n">
         <v>0.0004455373547395695</v>
@@ -1219,10 +1219,10 @@
         <v>0.004626990957001565</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02185652881575006</v>
+        <v>-0.009663258884334237</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0004848243613436278</v>
+        <v>0.01442525404884367</v>
       </c>
       <c r="H27" t="n">
         <v>0.005884134869635971</v>
@@ -1250,10 +1250,10 @@
         <v>0.005153733494847646</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.001276399517840121</v>
+        <v>0.0009304938772469191</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0001337114492933945</v>
+        <v>0.003516125262787573</v>
       </c>
       <c r="H28" t="n">
         <v>0.003755445922754191</v>
@@ -1281,10 +1281,10 @@
         <v>-0.009930930886081147</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01104490859077664</v>
+        <v>0.002527501961728145</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01327232345144955</v>
+        <v>-0.01209758042648625</v>
       </c>
       <c r="H29" t="n">
         <v>0.002716778810280407</v>
@@ -1312,10 +1312,10 @@
         <v>0.006429332922662389</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.00174987186811244</v>
+        <v>0.01845786464843398</v>
       </c>
       <c r="G30" t="n">
-        <v>0.006913256065596764</v>
+        <v>-9.916640168316365e-06</v>
       </c>
       <c r="H30" t="n">
         <v>0.006526392799202359</v>
@@ -1343,10 +1343,10 @@
         <v>-0.006557239061132036</v>
       </c>
       <c r="F31" t="n">
-        <v>0.02025083479623296</v>
+        <v>0.03916343017287246</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.003526612551748331</v>
+        <v>-0.0192078048407488</v>
       </c>
       <c r="H31" t="n">
         <v>0.01573560980516019</v>
@@ -1374,10 +1374,10 @@
         <v>0.01929905584267684</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.02600053076341814</v>
+        <v>0.03436534676057977</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03386765421175632</v>
+        <v>0.005320541749750296</v>
       </c>
       <c r="H32" t="n">
         <v>0.005689429998078936</v>
@@ -1405,10 +1405,10 @@
         <v>0.01416070407136152</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.0002337010313004221</v>
+        <v>0.01092222267325684</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01577976177688822</v>
+        <v>0.02021407260454464</v>
       </c>
       <c r="H33" t="n">
         <v>0.004616744905478858</v>
@@ -1436,10 +1436,10 @@
         <v>0.008206485921042093</v>
       </c>
       <c r="F34" t="n">
-        <v>0.007040900009373671</v>
+        <v>0.0118828968008208</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01811769251568969</v>
+        <v>0.01664696536210426</v>
       </c>
       <c r="H34" t="n">
         <v>0.007864116390897468</v>
@@ -1467,10 +1467,10 @@
         <v>0.01137368408263424</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.01509962750155622</v>
+        <v>0.01266652074422548</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01597491314847251</v>
+        <v>0.01862852237292359</v>
       </c>
       <c r="H35" t="n">
         <v>0.001014951719998645</v>
@@ -1502,10 +1502,10 @@
         <v>-0.001654236571721368</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0001242384140781136</v>
+        <v>-0.007842046572629503</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.005278024344234122</v>
+        <v>-0.007631339656684498</v>
       </c>
       <c r="H36" t="n">
         <v>-7.218825407160381e-05</v>
@@ -1537,10 +1537,10 @@
         <v>-0.0009642510353268241</v>
       </c>
       <c r="F37" t="n">
-        <v>0.01004516495534823</v>
+        <v>0.006543418890001998</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.01058345492419852</v>
+        <v>-0.01425085928714502</v>
       </c>
       <c r="H37" t="n">
         <v>0.009446722774929309</v>
@@ -1572,10 +1572,10 @@
         <v>0.01296303025250301</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.0177797395116527</v>
+        <v>0.005222248885167959</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03209242612256591</v>
+        <v>-0.004119951354836044</v>
       </c>
       <c r="H38" t="n">
         <v>-0.003369509991031635</v>
@@ -1607,10 +1607,10 @@
         <v>0.01066990029134312</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01464704191712553</v>
+        <v>0.01252927190354035</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02461186325389204</v>
+        <v>0.01302371526862465</v>
       </c>
       <c r="H39" t="n">
         <v>0.00299154510259062</v>
@@ -1642,10 +1642,10 @@
         <v>0.006402349331977919</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.00503837091055208</v>
+        <v>0.02181824626427751</v>
       </c>
       <c r="G40" t="n">
-        <v>0.004521691683287066</v>
+        <v>0.0167047306630754</v>
       </c>
       <c r="H40" t="n">
         <v>0.006127249824234595</v>
@@ -1677,10 +1677,10 @@
         <v>-0.006333959761422259</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0004751060719938791</v>
+        <v>0.02382711978476377</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.004511061253174864</v>
+        <v>-0.006493568541804562</v>
       </c>
       <c r="H41" t="n">
         <v>0.000550828891685213</v>
@@ -1712,10 +1712,10 @@
         <v>-0.005017639705554222</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01259062503609607</v>
+        <v>0.03869591762036497</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.002015573712266971</v>
+        <v>-0.007817720506580916</v>
       </c>
       <c r="H42" t="n">
         <v>0.007084267687233001</v>
@@ -1747,10 +1747,10 @@
         <v>0.02128272912152549</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.04467333485062373</v>
+        <v>0.005366794868277749</v>
       </c>
       <c r="G43" t="n">
-        <v>0.03235328517991629</v>
+        <v>0.02185718847883349</v>
       </c>
       <c r="H43" t="n">
         <v>-0.006522481915600643</v>
@@ -1782,10 +1782,10 @@
         <v>0.003347962136769889</v>
       </c>
       <c r="F44" t="n">
-        <v>0.02264141494664083</v>
+        <v>-0.02314994966330471</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.01089271718750915</v>
+        <v>0.002718393923601959</v>
       </c>
       <c r="H44" t="n">
         <v>0.00478800105942399</v>
@@ -1817,10 +1817,10 @@
         <v>-0.01230764429260491</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.01078533819825205</v>
+        <v>-0.02070481781025906</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.00790016888627294</v>
+        <v>-0.01300346378883042</v>
       </c>
       <c r="H45" t="n">
         <v>-0.009582286246437661</v>
@@ -1852,10 +1852,10 @@
         <v>-0.01191185133075112</v>
       </c>
       <c r="F46" t="n">
-        <v>0.04383797880764382</v>
+        <v>0.003508218874435845</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.003230779592630872</v>
+        <v>0.004790023643428043</v>
       </c>
       <c r="H46" t="n">
         <v>0.0004954761153782477</v>
@@ -1887,10 +1887,10 @@
         <v>0.01593749393178636</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.03203834307029137</v>
+        <v>-0.009295964310119118</v>
       </c>
       <c r="G47" t="n">
-        <v>0.02490002423781976</v>
+        <v>0.02067782822413888</v>
       </c>
       <c r="H47" t="n">
         <v>-0.005466049960413441</v>
@@ -1922,10 +1922,10 @@
         <v>-0.02023842515348091</v>
       </c>
       <c r="F48" t="n">
-        <v>0.04224641526798183</v>
+        <v>0.00650424069297641</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.02283149684016481</v>
+        <v>-0.004555252456667103</v>
       </c>
       <c r="H48" t="n">
         <v>0.001203883485368308</v>
@@ -1957,10 +1957,10 @@
         <v>-0.009566855460027602</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0002897388507930136</v>
+        <v>0.03528994944649137</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.003772261722530403</v>
+        <v>-0.008761866712135349</v>
       </c>
       <c r="H49" t="n">
         <v>0.003827893505761644</v>
@@ -1992,10 +1992,10 @@
         <v>0.01420644851099677</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.03921654117989598</v>
+        <v>-0.004416275199032881</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02131175563667682</v>
+        <v>0.01689093186569002</v>
       </c>
       <c r="H50" t="n">
         <v>-0.007524910749429183</v>
@@ -2027,10 +2027,10 @@
         <v>0.003932118612404078</v>
       </c>
       <c r="F51" t="n">
-        <v>0.02075835642223458</v>
+        <v>-0.01576929358742355</v>
       </c>
       <c r="G51" t="n">
-        <v>0.002737831357460196</v>
+        <v>0.01267750043338154</v>
       </c>
       <c r="H51" t="n">
         <v>0.0002813308023091807</v>
@@ -2062,10 +2062,10 @@
         <v>0.0193018016514027</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.01879837240869744</v>
+        <v>-0.01776627964072995</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01288929252878006</v>
+        <v>0.01742221749049522</v>
       </c>
       <c r="H52" t="n">
         <v>-0.0005009578316705853</v>
@@ -2097,10 +2097,10 @@
         <v>0.01274368733472726</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0313922107866681</v>
+        <v>-0.005667092092359849</v>
       </c>
       <c r="G53" t="n">
-        <v>0.00320723098958633</v>
+        <v>0.005239449081284044</v>
       </c>
       <c r="H53" t="n">
         <v>0.01245222571053923</v>
@@ -2132,10 +2132,10 @@
         <v>-0.0102990448649223</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.001760478662260538</v>
+        <v>0.02423897142053083</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.008559385473747082</v>
+        <v>-0.02240917996870287</v>
       </c>
       <c r="H54" t="n">
         <v>0.006831548621334459</v>
@@ -2167,10 +2167,10 @@
         <v>-0.003354113696454575</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.0085408626339224</v>
+        <v>0.005417413197395523</v>
       </c>
       <c r="G55" t="n">
-        <v>0.00377867762625188</v>
+        <v>-0.006381428308501924</v>
       </c>
       <c r="H55" t="n">
         <v>-0.001064610091179437</v>
@@ -2202,10 +2202,10 @@
         <v>-0.002071369968785964</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.004231984645664073</v>
+        <v>0.0110693367461586</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01040635768953746</v>
+        <v>0.0008970832119605358</v>
       </c>
       <c r="H56" t="n">
         <v>-0.002356947405862254</v>
@@ -2237,10 +2237,10 @@
         <v>0.00589401275845025</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00891028701771134</v>
+        <v>0.009147656873719158</v>
       </c>
       <c r="G57" t="n">
-        <v>0.002863051871950838</v>
+        <v>0.01072957328700732</v>
       </c>
       <c r="H57" t="n">
         <v>0.005507309082063971</v>
@@ -2272,10 +2272,10 @@
         <v>0.008572332016865048</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.008454148379607281</v>
+        <v>0.006345299029077004</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01475666208873141</v>
+        <v>0.01007775227471803</v>
       </c>
       <c r="H58" t="n">
         <v>-0.004432581846511275</v>
@@ -2307,10 +2307,10 @@
         <v>0.007650736751049837</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.004232649183773783</v>
+        <v>0.006688221061559077</v>
       </c>
       <c r="G59" t="n">
-        <v>0.005682577142969158</v>
+        <v>0.00372433380243633</v>
       </c>
       <c r="H59" t="n">
         <v>0.00405176467417963</v>
@@ -2342,10 +2342,10 @@
         <v>0.01250443112441761</v>
       </c>
       <c r="F60" t="n">
-        <v>0.001785819519000666</v>
+        <v>0.009806029665326123</v>
       </c>
       <c r="G60" t="n">
-        <v>0.009371605083041624</v>
+        <v>0.009163259557203342</v>
       </c>
       <c r="H60" t="n">
         <v>0.006911373110393053</v>
@@ -2377,10 +2377,10 @@
         <v>0.005072943041407261</v>
       </c>
       <c r="F61" t="n">
-        <v>0.006675770777836345</v>
+        <v>0.01852644085892288</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01069126983075479</v>
+        <v>0.009512037707958564</v>
       </c>
       <c r="H61" t="n">
         <v>0.004020301392994891</v>
@@ -2412,10 +2412,10 @@
         <v>0.005996419614474391</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.02162817450743838</v>
+        <v>0.001851785614219561</v>
       </c>
       <c r="G62" t="n">
-        <v>0.01434346092469032</v>
+        <v>0.009854049927030451</v>
       </c>
       <c r="H62" t="n">
         <v>-0.005452000146679964</v>
@@ -2447,10 +2447,10 @@
         <v>0.01026177816289729</v>
       </c>
       <c r="F63" t="n">
-        <v>0.01986388582354657</v>
+        <v>0.0009026740060055849</v>
       </c>
       <c r="G63" t="n">
-        <v>0.008587694353541677</v>
+        <v>0.02155182998188776</v>
       </c>
       <c r="H63" t="n">
         <v>0.004111603604007447</v>
@@ -2482,10 +2482,10 @@
         <v>-0.008349724358449207</v>
       </c>
       <c r="F64" t="n">
-        <v>0.001391348268230517</v>
+        <v>0.009820961496438617</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.007014988937696209</v>
+        <v>-0.00218157765188165</v>
       </c>
       <c r="H64" t="n">
         <v>-0.0003304564737396636</v>
@@ -2517,10 +2517,10 @@
         <v>0.007989743336527378</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.01631436361529656</v>
+        <v>-0.01243464729878751</v>
       </c>
       <c r="G65" t="n">
-        <v>0.009962517560781771</v>
+        <v>0.008357919309075347</v>
       </c>
       <c r="H65" t="n">
         <v>-0.002777646110616819</v>
@@ -2552,10 +2552,10 @@
         <v>0.01586706803804656</v>
       </c>
       <c r="F66" t="n">
-        <v>0.004847550201969631</v>
+        <v>-0.03015139458032197</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01267415760528767</v>
+        <v>0.01934762996929524</v>
       </c>
       <c r="H66" t="n">
         <v>-0.003052243849821689</v>
@@ -2587,10 +2587,10 @@
         <v>0.002853144914362127</v>
       </c>
       <c r="F67" t="n">
-        <v>0.01055689892579782</v>
+        <v>-0.007764446233076714</v>
       </c>
       <c r="G67" t="n">
-        <v>0.01307258682933081</v>
+        <v>0.0114471011116551</v>
       </c>
       <c r="H67" t="n">
         <v>-0.006215967730797926</v>
@@ -2622,10 +2622,10 @@
         <v>0.002174454695861218</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0133423657635205</v>
+        <v>0.007103788020294741</v>
       </c>
       <c r="G68" t="n">
-        <v>0.009811922622525325</v>
+        <v>0.01058001715723735</v>
       </c>
       <c r="H68" t="n">
         <v>-0.0003567403664723121</v>
@@ -2657,10 +2657,10 @@
         <v>-0.001325149628202116</v>
       </c>
       <c r="F69" t="n">
-        <v>0.006633436628372414</v>
+        <v>0.01677802140034497</v>
       </c>
       <c r="G69" t="n">
-        <v>0.001042051514077947</v>
+        <v>-0.001974773084645708</v>
       </c>
       <c r="H69" t="n">
         <v>0.006069863572807506</v>
@@ -2692,10 +2692,10 @@
         <v>0.005614928450921665</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.01792158621424345</v>
+        <v>0.001657003014125323</v>
       </c>
       <c r="G70" t="n">
-        <v>0.008390957042412394</v>
+        <v>0.01141343710042546</v>
       </c>
       <c r="H70" t="n">
         <v>-0.009910719185530782</v>
@@ -2727,10 +2727,10 @@
         <v>-0.005561831376347271</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02759154831965059</v>
+        <v>0.004664352990314414</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0009502996857648328</v>
+        <v>0.0002020819254397564</v>
       </c>
       <c r="H71" t="n">
         <v>0.006450306438774697</v>
@@ -2762,10 +2762,10 @@
         <v>-0.01174541035986749</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.01102125073098842</v>
+        <v>0.003187758528536509</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.009205783823351889</v>
+        <v>-0.006916715591510347</v>
       </c>
       <c r="H72" t="n">
         <v>-0.007366263125013654</v>
@@ -2797,10 +2797,10 @@
         <v>0.001335500551401748</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.003001082033226713</v>
+        <v>-0.003341698350922977</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0008064653772950074</v>
+        <v>-0.001513487397203183</v>
       </c>
       <c r="H73" t="n">
         <v>0.004389207299219234</v>
@@ -2832,10 +2832,10 @@
         <v>0.00454848058808519</v>
       </c>
       <c r="F74" t="n">
-        <v>0.01564900726077347</v>
+        <v>0.008795208009466822</v>
       </c>
       <c r="G74" t="n">
-        <v>0.01618456958204675</v>
+        <v>0.01262199713475898</v>
       </c>
       <c r="H74" t="n">
         <v>0.001631920983110243</v>
@@ -2867,10 +2867,10 @@
         <v>-0.002300894365118888</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.008522946895829022</v>
+        <v>0.005841819851186146</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.005329361596192905</v>
+        <v>0.0007246013504149666</v>
       </c>
       <c r="H75" t="n">
         <v>0.001148351687058417</v>
@@ -2902,10 +2902,10 @@
         <v>-0.007765597711396488</v>
       </c>
       <c r="F76" t="n">
-        <v>0.008772568572185124</v>
+        <v>-0.00750379706402934</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.01263135903636552</v>
+        <v>-0.01127461903929634</v>
       </c>
       <c r="H76" t="n">
         <v>0.003376093875535794</v>
@@ -2937,10 +2937,10 @@
         <v>-0.01352283897333793</v>
       </c>
       <c r="F77" t="n">
-        <v>0.01965994456843938</v>
+        <v>0.01076321391727828</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01100967455544837</v>
+        <v>-0.02065261853996228</v>
       </c>
       <c r="H77" t="n">
         <v>0.006548177796106268</v>
@@ -2972,10 +2972,10 @@
         <v>-0.01169985030358389</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.005364691059377022</v>
+        <v>0.0118804415637861</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.01689029680539092</v>
+        <v>-0.007102447828440451</v>
       </c>
       <c r="H78" t="n">
         <v>0.005191529343851913</v>
@@ -3007,10 +3007,10 @@
         <v>-0.0005897137558325666</v>
       </c>
       <c r="F79" t="n">
-        <v>0.003882765538785275</v>
+        <v>0.004036890738339497</v>
       </c>
       <c r="G79" t="n">
-        <v>0.00509264308273545</v>
+        <v>-0.0002935600794140799</v>
       </c>
       <c r="H79" t="n">
         <v>0.001661414377039453</v>
@@ -3042,10 +3042,10 @@
         <v>-0.003562699505438238</v>
       </c>
       <c r="F80" t="n">
-        <v>0.01767230708118733</v>
+        <v>0.01527761194272874</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01428002400830719</v>
+        <v>0.005353835474091984</v>
       </c>
       <c r="H80" t="n">
         <v>-0.0005171529558537936</v>
@@ -3077,10 +3077,10 @@
         <v>0.002908049623845365</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.0002837175134267327</v>
+        <v>0.02135837466250529</v>
       </c>
       <c r="G81" t="n">
-        <v>0.003424539695083029</v>
+        <v>0.02311192418601737</v>
       </c>
       <c r="H81" t="n">
         <v>0.0003139529753621163</v>
@@ -3112,10 +3112,10 @@
         <v>0.01305754854240881</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.01343806917256343</v>
+        <v>0.002340310254225071</v>
       </c>
       <c r="G82" t="n">
-        <v>0.005393906842303875</v>
+        <v>0.008935691576283733</v>
       </c>
       <c r="H82" t="n">
         <v>7.879435342979853e-05</v>
@@ -3147,10 +3147,10 @@
         <v>0.01112119131915961</v>
       </c>
       <c r="F83" t="n">
-        <v>0.01907728962807137</v>
+        <v>0.01260978156874889</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02327895855390047</v>
+        <v>0.01648609474268281</v>
       </c>
       <c r="H83" t="n">
         <v>0.004255218177448371</v>
@@ -3182,10 +3182,10 @@
         <v>-0.01070787195015634</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.01273758767107407</v>
+        <v>0.01065350629567105</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.01856349205003101</v>
+        <v>0.004095602169127856</v>
       </c>
       <c r="H84" t="n">
         <v>0.0003634642162368246</v>
@@ -3217,10 +3217,10 @@
         <v>0.002427965257909602</v>
       </c>
       <c r="F85" t="n">
-        <v>0.01977481990928971</v>
+        <v>0.009800380753456345</v>
       </c>
       <c r="G85" t="n">
-        <v>0.02175217798659026</v>
+        <v>0.001198866052354353</v>
       </c>
       <c r="H85" t="n">
         <v>0.001316781673536205</v>
@@ -3252,10 +3252,10 @@
         <v>-0.0104567649044603</v>
       </c>
       <c r="F86" t="n">
-        <v>0.006573705388507357</v>
+        <v>0.02627767681416357</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.001075333862486259</v>
+        <v>0.003452858907827096</v>
       </c>
       <c r="H86" t="n">
         <v>0.001930488698589024</v>
@@ -3287,10 +3287,10 @@
         <v>-0.003150222142771763</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.006477004816667994</v>
+        <v>0.01166704538268271</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01436765429224431</v>
+        <v>-4.201363692177881e-05</v>
       </c>
       <c r="H87" t="n">
         <v>0.009016122845656199</v>
@@ -3322,10 +3322,10 @@
         <v>0.003794174336040433</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004552584414335613</v>
+        <v>-0.0003994902285223937</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01226753849863474</v>
+        <v>0.002948975929398536</v>
       </c>
       <c r="H88" t="n">
         <v>-0.004605178447745672</v>
@@ -3357,10 +3357,10 @@
         <v>-0.01531374301185158</v>
       </c>
       <c r="F89" t="n">
-        <v>0.01124278111005044</v>
+        <v>0.01741111501646513</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.007715007502573569</v>
+        <v>-0.00699081618086226</v>
       </c>
       <c r="H89" t="n">
         <v>0.003019594927996809</v>
@@ -3392,10 +3392,10 @@
         <v>0.001790297838659916</v>
       </c>
       <c r="F90" t="n">
-        <v>0.01091456791275491</v>
+        <v>0.01720140211542151</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01836500984415919</v>
+        <v>0.001819452275195357</v>
       </c>
       <c r="H90" t="n">
         <v>0.003305232166228197</v>
@@ -3427,10 +3427,10 @@
         <v>-0.01602317679638721</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.0002617749284424204</v>
+        <v>0.0101318547271048</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01544676602741053</v>
+        <v>-0.003411126042876966</v>
       </c>
       <c r="H91" t="n">
         <v>-0.003798629809279152</v>
@@ -3462,10 +3462,10 @@
         <v>0.0009765827431655865</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0108508719476356</v>
+        <v>0.003691014800732586</v>
       </c>
       <c r="G92" t="n">
-        <v>0.001605818976255979</v>
+        <v>-0.003723483026181529</v>
       </c>
       <c r="H92" t="n">
         <v>0.01056005361741379</v>
@@ -3497,10 +3497,10 @@
         <v>0.0120852617440264</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.003720462116136366</v>
+        <v>-0.003733122790513117</v>
       </c>
       <c r="G93" t="n">
-        <v>0.005299689212737091</v>
+        <v>0.008045507625512639</v>
       </c>
       <c r="H93" t="n">
         <v>0.00360592275074475</v>
@@ -3532,10 +3532,10 @@
         <v>-0.004312476421973141</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.004406470918731571</v>
+        <v>-0.004814852559333721</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.003474246044416264</v>
+        <v>-0.005688073692027574</v>
       </c>
       <c r="H94" t="n">
         <v>-0.004406810358288065</v>
@@ -3567,10 +3567,10 @@
         <v>-0.001891212895784089</v>
       </c>
       <c r="F95" t="n">
-        <v>0.01342541458079578</v>
+        <v>0.001701958632707234</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01684875637948904</v>
+        <v>-0.01080573985787609</v>
       </c>
       <c r="H95" t="n">
         <v>0.0008219764868350908</v>
@@ -3602,10 +3602,10 @@
         <v>0.004184102675965495</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.008288158468289657</v>
+        <v>-0.0006147275848690263</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.008397314234098816</v>
+        <v>-0.004988943591642057</v>
       </c>
       <c r="H96" t="n">
         <v>0.009808007328061964</v>
@@ -3637,10 +3637,10 @@
         <v>0.006830168591148199</v>
       </c>
       <c r="F97" t="n">
-        <v>0.01098849501692129</v>
+        <v>-0.01021114536103774</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01901448516928453</v>
+        <v>-0.005434125132588009</v>
       </c>
       <c r="H97" t="n">
         <v>0.002144376439210199</v>
@@ -3672,10 +3672,10 @@
         <v>0.003502650988922885</v>
       </c>
       <c r="F98" t="n">
-        <v>0.01127224234393583</v>
+        <v>-0.001059261880779309</v>
       </c>
       <c r="G98" t="n">
-        <v>0.009032563179337805</v>
+        <v>-0.00245614944914454</v>
       </c>
       <c r="H98" t="n">
         <v>0.00901450801558492</v>
@@ -3707,10 +3707,10 @@
         <v>0.01412263048824023</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.009396990184753307</v>
+        <v>-0.02292839041134914</v>
       </c>
       <c r="G99" t="n">
-        <v>0.006963339618698505</v>
+        <v>0.004566241925211</v>
       </c>
       <c r="H99" t="n">
         <v>-0.00163271406129065</v>
@@ -3742,10 +3742,10 @@
         <v>-0.00837241796031485</v>
       </c>
       <c r="F100" t="n">
-        <v>8.122436374333533e-06</v>
+        <v>-0.01702446653205692</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.01256970934744639</v>
+        <v>-0.02293106799662943</v>
       </c>
       <c r="H100" t="n">
         <v>0.01493164545408525</v>
@@ -3777,10 +3777,10 @@
         <v>-0.005265561175808653</v>
       </c>
       <c r="F101" t="n">
-        <v>0.01959053434903991</v>
+        <v>-0.003019635840181712</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02694179740860183</v>
+        <v>-0.01652248958428379</v>
       </c>
       <c r="H101" t="n">
         <v>-0.01066205874325879</v>
@@ -3812,10 +3812,10 @@
         <v>-0.01633106337569568</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.007586149732388834</v>
+        <v>0.01914931553758971</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.01793836408558007</v>
+        <v>0.0009907967178125921</v>
       </c>
       <c r="H102" t="n">
         <v>-0.001260079779470011</v>
@@ -3847,10 +3847,10 @@
         <v>-0.02632553450509423</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.005956142172183532</v>
+        <v>0.009462315619414938</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.02478196168999836</v>
+        <v>-0.01521224782587198</v>
       </c>
       <c r="H103" t="n">
         <v>-0.00197515574369932</v>
@@ -3882,10 +3882,10 @@
         <v>-0.002151178196335367</v>
       </c>
       <c r="F104" t="n">
-        <v>0.01280597543259623</v>
+        <v>0.008714767468592101</v>
       </c>
       <c r="G104" t="n">
-        <v>0.007024884616108042</v>
+        <v>-0.005789263268455322</v>
       </c>
       <c r="H104" t="n">
         <v>0.003534156333882875</v>
@@ -3917,10 +3917,10 @@
         <v>0.04334580575960865</v>
       </c>
       <c r="F105" t="n">
-        <v>0.003582108420123876</v>
+        <v>0.01369118930659408</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02854735125491718</v>
+        <v>0.03153923407180848</v>
       </c>
       <c r="H105" t="n">
         <v>0.01397052701474044</v>
@@ -3952,10 +3952,10 @@
         <v>0.03680721280692046</v>
       </c>
       <c r="F106" t="n">
-        <v>0.003201032769411167</v>
+        <v>0.009499125182184029</v>
       </c>
       <c r="G106" t="n">
-        <v>0.01649519841899482</v>
+        <v>0.03810064128296162</v>
       </c>
       <c r="H106" t="n">
         <v>0.01109182940265498</v>
@@ -3987,10 +3987,10 @@
         <v>0.09073461424305887</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.04169780804979075</v>
+        <v>-0.0578173632327067</v>
       </c>
       <c r="G107" t="n">
-        <v>0.006839471842874213</v>
+        <v>0.02437696189929628</v>
       </c>
       <c r="H107" t="n">
         <v>0.0292258504434682</v>
@@ -4022,10 +4022,10 @@
         <v>0.0009708083942221229</v>
       </c>
       <c r="F108" t="n">
-        <v>0.04239185951293846</v>
+        <v>-0.06681464444773554</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.01581476166598073</v>
+        <v>-0.005690167078327764</v>
       </c>
       <c r="H108" t="n">
         <v>0.001137411498567002</v>
@@ -4057,10 +4057,10 @@
         <v>-0.005601204536397709</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0115945920315594</v>
+        <v>-0.03409109504517178</v>
       </c>
       <c r="G109" t="n">
-        <v>0.01869876200220003</v>
+        <v>-0.02124414790742697</v>
       </c>
       <c r="H109" t="n">
         <v>0.0003993737853182832</v>
@@ -4092,10 +4092,10 @@
         <v>0.03666646883984783</v>
       </c>
       <c r="F110" t="n">
-        <v>0.03771443373187418</v>
+        <v>-0.05539205457152235</v>
       </c>
       <c r="G110" t="n">
-        <v>0.102007515240799</v>
+        <v>-0.01072247670402915</v>
       </c>
       <c r="H110" t="n">
         <v>-0.02760977867251937</v>
@@ -4127,10 +4127,10 @@
         <v>-0.01527330114170305</v>
       </c>
       <c r="F111" t="n">
-        <v>0.06111061847537275</v>
+        <v>0.01263639395098949</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.01187347598285047</v>
+        <v>0.01795363436422746</v>
       </c>
       <c r="H111" t="n">
         <v>0.004848534301166074</v>
@@ -4162,10 +4162,10 @@
         <v>0.004200300300442293</v>
       </c>
       <c r="F112" t="n">
-        <v>0.002304535112536685</v>
+        <v>0.04420908086971093</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.003204342271398985</v>
+        <v>0.00526456803347304</v>
       </c>
       <c r="H112" t="n">
         <v>0.0202624774970708</v>
@@ -4197,10 +4197,10 @@
         <v>0.01941666193237106</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.01634908223631707</v>
+        <v>0.02673459107767432</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02843690366485119</v>
+        <v>0.01556002056462738</v>
       </c>
       <c r="H113" t="n">
         <v>-0.007719911200342261</v>
@@ -4232,10 +4232,10 @@
         <v>-0.01047322266845394</v>
       </c>
       <c r="F114" t="n">
-        <v>0.02110838505562704</v>
+        <v>0.04013203370299252</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.01117972750725527</v>
+        <v>0.02205222442438559</v>
       </c>
       <c r="H114" t="n">
         <v>0.01639435811454719</v>
@@ -4267,10 +4267,10 @@
         <v>-0.008645338897061382</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.04766900545681349</v>
+        <v>0.03259456126635471</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.02356642882929596</v>
+        <v>-0.002503522560738114</v>
       </c>
       <c r="H115" t="n">
         <v>-0.007112015877316673</v>
@@ -4302,10 +4302,10 @@
         <v>0.01288518963849521</v>
       </c>
       <c r="F116" t="n">
-        <v>0.00499286344237773</v>
+        <v>0.01181248784277671</v>
       </c>
       <c r="G116" t="n">
-        <v>0.007187685362816308</v>
+        <v>0.019410504602562</v>
       </c>
       <c r="H116" t="n">
         <v>0.008542059966642765</v>
@@ -4337,10 +4337,10 @@
         <v>0.005258429332750759</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.01366966228268875</v>
+        <v>0.002327912390982871</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.0003102445455662965</v>
+        <v>0.007356302596799069</v>
       </c>
       <c r="H117" t="n">
         <v>0.003365451802779758</v>
@@ -4372,10 +4372,10 @@
         <v>0.0002371088177369092</v>
       </c>
       <c r="F118" t="n">
-        <v>0.001327774236645051</v>
+        <v>-0.009795752883549374</v>
       </c>
       <c r="G118" t="n">
-        <v>0.00923003559140456</v>
+        <v>-0.001987243555548981</v>
       </c>
       <c r="H118" t="n">
         <v>-0.005343208093793506</v>
@@ -4407,10 +4407,10 @@
         <v>0.006832102558657895</v>
       </c>
       <c r="F119" t="n">
-        <v>0.01788178162375332</v>
+        <v>-0.006329717723615094</v>
       </c>
       <c r="G119" t="n">
-        <v>0.01663980123761153</v>
+        <v>0.0004437945555655362</v>
       </c>
       <c r="H119" t="n">
         <v>0.0006656760700463067</v>
@@ -4442,10 +4442,10 @@
         <v>-0.005070850850599463</v>
       </c>
       <c r="F120" t="n">
-        <v>-0.005496953390070233</v>
+        <v>0.001474779390691275</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.006920045621917881</v>
+        <v>0.00271735062098295</v>
       </c>
       <c r="H120" t="n">
         <v>0.001507353884272576</v>
@@ -4477,10 +4477,10 @@
         <v>0.02424103601871552</v>
       </c>
       <c r="F121" t="n">
-        <v>-0.01506683721765499</v>
+        <v>-0.02028969582061583</v>
       </c>
       <c r="G121" t="n">
-        <v>0.01720642442310827</v>
+        <v>0.008812843833543171</v>
       </c>
       <c r="H121" t="n">
         <v>-0.01985806501141703</v>
@@ -4512,10 +4512,10 @@
         <v>-0.003444613198259706</v>
       </c>
       <c r="F122" t="n">
-        <v>-0.01284841648701336</v>
+        <v>-0.04267897907660332</v>
       </c>
       <c r="G122" t="n">
-        <v>-0.01282161029603794</v>
+        <v>-0.001198113381679544</v>
       </c>
       <c r="H122" t="n">
         <v>-0.0215647675939935</v>
@@ -4547,10 +4547,10 @@
         <v>0.006807006055367992</v>
       </c>
       <c r="F123" t="n">
-        <v>-0.006279730243696189</v>
+        <v>-0.05247894841450718</v>
       </c>
       <c r="G123" t="n">
-        <v>-0.002217484182441677</v>
+        <v>0.006466387659324878</v>
       </c>
       <c r="H123" t="n">
         <v>-0.02017000358518537</v>
@@ -4582,10 +4582,10 @@
         <v>0.01220023862804927</v>
       </c>
       <c r="F124" t="n">
-        <v>0.03014831257958487</v>
+        <v>-0.0222199685928051</v>
       </c>
       <c r="G124" t="n">
-        <v>0.01871115616761836</v>
+        <v>0.00609099576140988</v>
       </c>
       <c r="H124" t="n">
         <v>-0.0006727821235614252</v>
@@ -4617,10 +4617,10 @@
         <v>0.01256204746691338</v>
       </c>
       <c r="F125" t="n">
-        <v>0.002456565545571221</v>
+        <v>-0.01189425853772855</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0108769972678532</v>
+        <v>0.01275194832447086</v>
       </c>
       <c r="H125" t="n">
         <v>-0.01432659487405747</v>
@@ -4652,10 +4652,10 @@
         <v>0.02085499577987908</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.0340740394581124</v>
+        <v>-0.05813073781428373</v>
       </c>
       <c r="G126" t="n">
-        <v>0.001408821833952478</v>
+        <v>0.01086181154567703</v>
       </c>
       <c r="H126" t="n">
         <v>-0.03171544002540079</v>
@@ -4687,10 +4687,10 @@
         <v>0.01193323297578723</v>
       </c>
       <c r="F127" t="n">
-        <v>0.01716648178341893</v>
+        <v>-0.06236488711883975</v>
       </c>
       <c r="G127" t="n">
-        <v>0.007786022256589932</v>
+        <v>0.01878925106537781</v>
       </c>
       <c r="H127" t="n">
         <v>-0.01292958065444186</v>
@@ -4722,10 +4722,10 @@
         <v>-0.0057766275598089</v>
       </c>
       <c r="F128" t="n">
-        <v>0.03475440615997402</v>
+        <v>-0.004581345444454429</v>
       </c>
       <c r="G128" t="n">
-        <v>-0.000524035377737821</v>
+        <v>0.01256747522662209</v>
       </c>
       <c r="H128" t="n">
         <v>0.006013164098539934</v>
@@ -4757,10 +4757,10 @@
         <v>0.02169974402532042</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.06293473462552246</v>
+        <v>0.003904760467943545</v>
       </c>
       <c r="G129" t="n">
-        <v>0.01699220073033567</v>
+        <v>0.01412433114585427</v>
       </c>
       <c r="H129" t="n">
         <v>-0.0208221951621003</v>
@@ -4792,10 +4792,10 @@
         <v>0.004109083474195079</v>
       </c>
       <c r="F130" t="n">
-        <v>0.04276457649120498</v>
+        <v>0.007226991525473524</v>
       </c>
       <c r="G130" t="n">
-        <v>0.001616874041690287</v>
+        <v>0.02100618997565405</v>
       </c>
       <c r="H130" t="n">
         <v>0.01679496270946246</v>
@@ -4827,10 +4827,10 @@
         <v>-0.007095334099525051</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.007112516086431557</v>
+        <v>0.006249651893472924</v>
       </c>
       <c r="G131" t="n">
-        <v>0.01999451747254661</v>
+        <v>-0.02968946056381343</v>
       </c>
       <c r="H131" t="n">
         <v>-0.007923048891109122</v>
@@ -4862,10 +4862,10 @@
         <v>0.0175006015854311</v>
       </c>
       <c r="F132" t="n">
-        <v>0.005041095139369763</v>
+        <v>-0.0006975652384024148</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03065019578421779</v>
+        <v>0.0185252848933712</v>
       </c>
       <c r="H132" t="n">
         <v>-0.01851929187298421</v>
@@ -4897,10 +4897,10 @@
         <v>-0.03430043966363971</v>
       </c>
       <c r="F133" t="n">
-        <v>0.009503554808197496</v>
+        <v>0.01536751982553721</v>
       </c>
       <c r="G133" t="n">
-        <v>-0.03264841600548853</v>
+        <v>0.02503839241180377</v>
       </c>
       <c r="H133" t="n">
         <v>-0.001019439456687883</v>
@@ -4932,10 +4932,10 @@
         <v>-0.008739508392216246</v>
       </c>
       <c r="F134" t="n">
-        <v>-0.006722175482537447</v>
+        <v>-0.01577637295460857</v>
       </c>
       <c r="G134" t="n">
-        <v>-0.02273828694546747</v>
+        <v>-0.02103569151401443</v>
       </c>
       <c r="H134" t="n">
         <v>-0.001546483808983874</v>
@@ -4967,10 +4967,10 @@
         <v>0.001449488775877583</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.007254649173273576</v>
+        <v>0.0002294169336635936</v>
       </c>
       <c r="G135" t="n">
-        <v>0.01334270224869152</v>
+        <v>-0.01542516148316815</v>
       </c>
       <c r="H135" t="n">
         <v>-0.004305623711468273</v>
@@ -5002,10 +5002,10 @@
         <v>-0.01206279691786432</v>
       </c>
       <c r="F136" t="n">
-        <v>-0.006318615968132102</v>
+        <v>-0.004629805692573985</v>
       </c>
       <c r="G136" t="n">
-        <v>-0.01925615089206367</v>
+        <v>-0.0172549236683651</v>
       </c>
       <c r="H136" t="n">
         <v>-0.001052413705256586</v>
@@ -5037,10 +5037,10 @@
         <v>-0.007772392267489958</v>
       </c>
       <c r="F137" t="n">
-        <v>0.001426651473231774</v>
+        <v>-0.0238435928013899</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0163487948373992</v>
+        <v>-0.03169279456005138</v>
       </c>
       <c r="H137" t="n">
         <v>-0.01034944730335374</v>
@@ -5072,10 +5072,10 @@
         <v>0.02061500905453122</v>
       </c>
       <c r="F138" t="n">
-        <v>0.03692824309945078</v>
+        <v>0.004987084328284789</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04988314461569512</v>
+        <v>0.01550941595140787</v>
       </c>
       <c r="H138" t="n">
         <v>0.004167538813506594</v>
@@ -5107,10 +5107,10 @@
         <v>0.0007252321159266113</v>
       </c>
       <c r="F139" t="n">
-        <v>-0.01611098070166672</v>
+        <v>0.004364386245091305</v>
       </c>
       <c r="G139" t="n">
-        <v>-0.01771329079628505</v>
+        <v>0.01886325500908797</v>
       </c>
       <c r="H139" t="n">
         <v>8.32144637517877e-05</v>
@@ -5142,10 +5142,10 @@
         <v>0.004910556874199792</v>
       </c>
       <c r="F140" t="n">
-        <v>0.006464073491860348</v>
+        <v>-0.01642537783555916</v>
       </c>
       <c r="G140" t="n">
-        <v>0.03390881346837452</v>
+        <v>0.01454645798099932</v>
       </c>
       <c r="H140" t="n">
         <v>-0.01396722845952845</v>
@@ -5177,10 +5177,10 @@
         <v>-0.003190480428807674</v>
       </c>
       <c r="F141" t="n">
-        <v>0.001030652791452751</v>
+        <v>-0.003443518975492408</v>
       </c>
       <c r="G141" t="n">
-        <v>-0.01960139169146195</v>
+        <v>0.02632451741542931</v>
       </c>
       <c r="H141" t="n">
         <v>0.002357050171875782</v>
@@ -5212,10 +5212,10 @@
         <v>0.04831608784603865</v>
       </c>
       <c r="F142" t="n">
-        <v>0.001496202324213524</v>
+        <v>-0.01266615042829129</v>
       </c>
       <c r="G142" t="n">
-        <v>0.03893086384939237</v>
+        <v>0.02603547942267941</v>
       </c>
       <c r="H142" t="n">
         <v>-0.001487741644242473</v>
@@ -5247,10 +5247,10 @@
         <v>-0.003834246379428485</v>
       </c>
       <c r="F143" t="n">
-        <v>0.01165996049609952</v>
+        <v>0.01750284951535422</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.01018656960473039</v>
+        <v>0.02129408609632186</v>
       </c>
       <c r="H143" t="n">
         <v>0.002602409671000452</v>
@@ -5282,10 +5282,10 @@
         <v>-0.006751225544868489</v>
       </c>
       <c r="F144" t="n">
-        <v>0.02229133482937238</v>
+        <v>0.03639626614580287</v>
       </c>
       <c r="G144" t="n">
-        <v>0.02009331081109118</v>
+        <v>0.01394409526555642</v>
       </c>
       <c r="H144" t="n">
         <v>-0.006827546319132878</v>
@@ -5317,10 +5317,10 @@
         <v>0.006387829938234214</v>
       </c>
       <c r="F145" t="n">
-        <v>0.03065271119110768</v>
+        <v>0.05693359233561912</v>
       </c>
       <c r="G145" t="n">
-        <v>0.02577464323333556</v>
+        <v>0.062598177021538</v>
       </c>
       <c r="H145" t="n">
         <v>-0.009856208304211578</v>
@@ -5352,10 +5352,10 @@
         <v>0.03330009988568196</v>
       </c>
       <c r="F146" t="n">
-        <v>-0.00401561814654634</v>
+        <v>0.01698220912000237</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.002598829002646361</v>
+        <v>0.0508334981907789</v>
       </c>
       <c r="H146" t="n">
         <v>0.0008312906448533579</v>
@@ -5387,10 +5387,10 @@
         <v>0.01417998074483742</v>
       </c>
       <c r="F147" t="n">
-        <v>-0.008096602545898897</v>
+        <v>-0.004467344929651705</v>
       </c>
       <c r="G147" t="n">
-        <v>-0.01070237930734288</v>
+        <v>-0.003641566014255805</v>
       </c>
       <c r="H147" t="n">
         <v>0.005189309332362348</v>
@@ -5422,10 +5422,10 @@
         <v>0.01099620947339988</v>
       </c>
       <c r="F148" t="n">
-        <v>-0.02977984960559425</v>
+        <v>-0.01250118786745029</v>
       </c>
       <c r="G148" t="n">
-        <v>-0.001620969860893528</v>
+        <v>-0.02303443085352169</v>
       </c>
       <c r="H148" t="n">
         <v>0.002718569667262211</v>
@@ -5457,10 +5457,10 @@
         <v>-0.0005392815767910402</v>
       </c>
       <c r="F149" t="n">
-        <v>0.003693818414085484</v>
+        <v>0.004053893729033055</v>
       </c>
       <c r="G149" t="n">
-        <v>0.01520969950944249</v>
+        <v>0.005059478272072893</v>
       </c>
       <c r="H149" t="n">
         <v>-0.003390909263106769</v>
@@ -5492,10 +5492,10 @@
         <v>0.01452619789739875</v>
       </c>
       <c r="F150" t="n">
-        <v>0.005069736184689359</v>
+        <v>-0.001042300660491754</v>
       </c>
       <c r="G150" t="n">
-        <v>0.01707889757123748</v>
+        <v>0.03855109456905455</v>
       </c>
       <c r="H150" t="n">
         <v>-0.0161477932916298</v>
@@ -5527,10 +5527,10 @@
         <v>0.004499047768160947</v>
       </c>
       <c r="F151" t="n">
-        <v>0.05914388865138327</v>
+        <v>0.04054693700796794</v>
       </c>
       <c r="G151" t="n">
-        <v>0.01936758589116807</v>
+        <v>0.04527382723893334</v>
       </c>
       <c r="H151" t="n">
         <v>0.007177485189134542</v>
@@ -5562,10 +5562,10 @@
         <v>0.009332834409540646</v>
       </c>
       <c r="F152" t="n">
-        <v>-0.01817964514647402</v>
+        <v>-0.004080516651064202</v>
       </c>
       <c r="G152" t="n">
-        <v>0.01705200945857717</v>
+        <v>0.01182635280575404</v>
       </c>
       <c r="H152" t="n">
         <v>-0.02714935823396289</v>
@@ -5597,10 +5597,10 @@
         <v>0.005357952671384213</v>
       </c>
       <c r="F153" t="n">
-        <v>0.00967433252851635</v>
+        <v>0.01606346940741685</v>
       </c>
       <c r="G153" t="n">
-        <v>-0.01499737518408857</v>
+        <v>0.02828070996335419</v>
       </c>
       <c r="H153" t="n">
         <v>0.008818588840213346</v>
@@ -5632,10 +5632,10 @@
         <v>0.003171670226419865</v>
       </c>
       <c r="F154" t="n">
-        <v>0.003996710166266659</v>
+        <v>-0.02268415919541904</v>
       </c>
       <c r="G154" t="n">
-        <v>0.01114482157266414</v>
+        <v>-0.02550521838844231</v>
       </c>
       <c r="H154" t="n">
         <v>0.0006033296673243482</v>
@@ -5667,10 +5667,10 @@
         <v>0.01511600735379348</v>
       </c>
       <c r="F155" t="n">
-        <v>-0.00834060690114902</v>
+        <v>-0.01353345121387764</v>
       </c>
       <c r="G155" t="n">
-        <v>0.01007256904579244</v>
+        <v>-0.006980681367484642</v>
       </c>
       <c r="H155" t="n">
         <v>0.001627859341539774</v>
@@ -5702,10 +5702,10 @@
         <v>0.004997184150504253</v>
       </c>
       <c r="F156" t="n">
-        <v>-0.001988608805140034</v>
+        <v>0.008129010796296099</v>
       </c>
       <c r="G156" t="n">
-        <v>0.004944938534809552</v>
+        <v>-0.001280826274724168</v>
       </c>
       <c r="H156" t="n">
         <v>-0.0002231393782406955</v>
@@ -5737,10 +5737,10 @@
         <v>0.01110806380709273</v>
       </c>
       <c r="F157" t="n">
-        <v>0.01176112376015133</v>
+        <v>0.02459733065789607</v>
       </c>
       <c r="G157" t="n">
-        <v>0.008772979750909005</v>
+        <v>0.006357506635060583</v>
       </c>
       <c r="H157" t="n">
         <v>0.0102080011225401</v>
@@ -5772,10 +5772,10 @@
         <v>-0.01335925977870722</v>
       </c>
       <c r="F158" t="n">
-        <v>0.03193895575849243</v>
+        <v>0.06542133352434701</v>
       </c>
       <c r="G158" t="n">
-        <v>0.004788748645655506</v>
+        <v>-0.002617171270807028</v>
       </c>
       <c r="H158" t="n">
         <v>0.02036799986369695</v>
@@ -5807,10 +5807,10 @@
         <v>0.009722769737341652</v>
       </c>
       <c r="F159" t="n">
-        <v>-0.06283749280006835</v>
+        <v>0.0225613732126157</v>
       </c>
       <c r="G159" t="n">
-        <v>0.01076935428113617</v>
+        <v>9.101915205554645e-06</v>
       </c>
       <c r="H159" t="n">
         <v>-0.01909085748475772</v>
@@ -5842,10 +5842,10 @@
         <v>0.01055949222076831</v>
       </c>
       <c r="F160" t="n">
-        <v>0.01444961480520826</v>
+        <v>-0.02216326572921987</v>
       </c>
       <c r="G160" t="n">
-        <v>0.01206805378775704</v>
+        <v>0.01952978897142053</v>
       </c>
       <c r="H160" t="n">
         <v>-0.004125765323459702</v>
@@ -5877,10 +5877,10 @@
         <v>0.0006536362770350971</v>
       </c>
       <c r="F161" t="n">
-        <v>0.01447730956620618</v>
+        <v>0.01401928820534245</v>
       </c>
       <c r="G161" t="n">
-        <v>-0.01513594951748543</v>
+        <v>0.01036297196910123</v>
       </c>
       <c r="H161" t="n">
         <v>0.006613425536397759</v>
@@ -5912,10 +5912,10 @@
         <v>0.02848124191733394</v>
       </c>
       <c r="F162" t="n">
-        <v>0.01001715872656883</v>
+        <v>0.04660288297208795</v>
       </c>
       <c r="G162" t="n">
-        <v>0.03594255134347352</v>
+        <v>0.02302788734431933</v>
       </c>
       <c r="H162" t="n">
         <v>0.01349364725367844</v>
@@ -5947,10 +5947,10 @@
         <v>-0.01500881315917173</v>
       </c>
       <c r="F163" t="n">
-        <v>-0.01946045856831539</v>
+        <v>-0.006462265541507277</v>
       </c>
       <c r="G163" t="n">
-        <v>-0.02215059088640121</v>
+        <v>-0.02224727795237183</v>
       </c>
       <c r="H163" t="n">
         <v>-0.002227289143939177</v>
@@ -5982,10 +5982,10 @@
         <v>-0.02319463731497127</v>
       </c>
       <c r="F164" t="n">
-        <v>0.02734648611025132</v>
+        <v>0.005290999861463927</v>
       </c>
       <c r="G164" t="n">
-        <v>-0.004948494411015504</v>
+        <v>-0.02486258733750626</v>
       </c>
       <c r="H164" t="n">
         <v>0.00933404460249106</v>
@@ -6017,10 +6017,10 @@
         <v>0.01149642775757171</v>
       </c>
       <c r="F165" t="n">
-        <v>-0.01345009014358689</v>
+        <v>0.0131652852579282</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0114059055706331</v>
+        <v>0.004716758574254932</v>
       </c>
       <c r="H165" t="n">
         <v>0.001220367641728472</v>
@@ -6052,10 +6052,10 @@
         <v>-0.004489161843548417</v>
       </c>
       <c r="F166" t="n">
-        <v>0.01554031065947118</v>
+        <v>0.002618510615195765</v>
       </c>
       <c r="G166" t="n">
-        <v>-0.001559958037134934</v>
+        <v>0.000327637786131763</v>
       </c>
       <c r="H166" t="n">
         <v>0.006049606760924113</v>
@@ -6087,10 +6087,10 @@
         <v>0.004816454612430344</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.003774495186087938</v>
+        <v>-2.561404736804111e-05</v>
       </c>
       <c r="G167" t="n">
-        <v>0.003560173545352474</v>
+        <v>0.004514514828153106</v>
       </c>
       <c r="H167" t="n">
         <v>-0.0006016079691761496</v>
@@ -6122,10 +6122,10 @@
         <v>0.01596899325255132</v>
       </c>
       <c r="F168" t="n">
-        <v>-0.01408856914184727</v>
+        <v>-0.009227509812995031</v>
       </c>
       <c r="G168" t="n">
-        <v>-0.006237847666608528</v>
+        <v>-0.008319706778847477</v>
       </c>
       <c r="H168" t="n">
         <v>0.0007917495290448795</v>
@@ -6157,10 +6157,10 @@
         <v>-0.003322501077985529</v>
       </c>
       <c r="F169" t="n">
-        <v>0.01108608073313521</v>
+        <v>-0.02125952532154234</v>
       </c>
       <c r="G169" t="n">
-        <v>-0.0008161845443228396</v>
+        <v>-0.0298586379021929</v>
       </c>
       <c r="H169" t="n">
         <v>0.007904046218962943</v>
@@ -6192,10 +6192,10 @@
         <v>0.0001927907328527203</v>
       </c>
       <c r="F170" t="n">
-        <v>0.02389387884746787</v>
+        <v>0.002427931327636715</v>
       </c>
       <c r="G170" t="n">
-        <v>0.02746050525935553</v>
+        <v>-0.003779285410662879</v>
       </c>
       <c r="H170" t="n">
         <v>-0.001750290468414005</v>
@@ -6227,10 +6227,10 @@
         <v>0.01919677577419783</v>
       </c>
       <c r="F171" t="n">
-        <v>0.002981217353365172</v>
+        <v>0.005669277701056841</v>
       </c>
       <c r="G171" t="n">
-        <v>0.003785043107871425</v>
+        <v>0.02345851278171925</v>
       </c>
       <c r="H171" t="n">
         <v>0.01122858395850456</v>
@@ -6262,10 +6262,10 @@
         <v>0.01010414748087107</v>
       </c>
       <c r="F172" t="n">
-        <v>0.004672097005905168</v>
+        <v>0.01008902509373131</v>
       </c>
       <c r="G172" t="n">
-        <v>0.01548346023955371</v>
+        <v>0.00571759779538512</v>
       </c>
       <c r="H172" t="n">
         <v>0.00192164164922638</v>
@@ -6297,10 +6297,10 @@
         <v>0.00675509679258417</v>
       </c>
       <c r="F173" t="n">
-        <v>0.004849475104410139</v>
+        <v>0.01291948192704177</v>
       </c>
       <c r="G173" t="n">
-        <v>0.00436491723085175</v>
+        <v>0.0149420139622408</v>
       </c>
       <c r="H173" t="n">
         <v>0.009131289401785824</v>
@@ -6332,10 +6332,10 @@
         <v>0.0172153920851974</v>
       </c>
       <c r="F174" t="n">
-        <v>-0.002731083702539265</v>
+        <v>-0.0004571265441258333</v>
       </c>
       <c r="G174" t="n">
-        <v>0.01803529783330941</v>
+        <v>0.01713463761348213</v>
       </c>
       <c r="H174" t="n">
         <v>-0.004783894235157266</v>
@@ -6367,10 +6367,10 @@
         <v>0.01099037055221392</v>
       </c>
       <c r="F175" t="n">
-        <v>0.001762948029203292</v>
+        <v>-0.0057927523070904</v>
       </c>
       <c r="G175" t="n">
-        <v>0.005120736122340963</v>
+        <v>0.02149435315818278</v>
       </c>
       <c r="H175" t="n">
         <v>-0.00606328008001027</v>
@@ -6402,10 +6402,10 @@
         <v>0.01353480863035714</v>
       </c>
       <c r="F176" t="n">
-        <v>-0.004068649873801278</v>
+        <v>-0.00947772016319496</v>
       </c>
       <c r="G176" t="n">
-        <v>0.009042571208734728</v>
+        <v>0.01242559324756571</v>
       </c>
       <c r="H176" t="n">
         <v>-0.006694749188944627</v>
@@ -6437,10 +6437,10 @@
         <v>0.01734925940001582</v>
       </c>
       <c r="F177" t="n">
-        <v>0.005288984846710563</v>
+        <v>-0.02127044427569265</v>
       </c>
       <c r="G177" t="n">
-        <v>0.01144893270220318</v>
+        <v>0.01449702420006733</v>
       </c>
       <c r="H177" t="n">
         <v>-0.007100012335638129</v>
@@ -6472,10 +6472,10 @@
         <v>0.03339390689832929</v>
       </c>
       <c r="F178" t="n">
-        <v>-0.01085142210029177</v>
+        <v>-0.02926088300076364</v>
       </c>
       <c r="G178" t="n">
-        <v>0.007258338984262049</v>
+        <v>0.01704491715330548</v>
       </c>
       <c r="H178" t="n">
         <v>-0.004901912253728275</v>
@@ -6507,10 +6507,10 @@
         <v>-0.00280341304862215</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0274968436727158</v>
+        <v>-0.01570417399963001</v>
       </c>
       <c r="G179" t="n">
-        <v>0.009448061286411583</v>
+        <v>-0.001614496538654197</v>
       </c>
       <c r="H179" t="n">
         <v>-0.001950178380099557</v>
@@ -6542,10 +6542,10 @@
         <v>0.002844272029596028</v>
       </c>
       <c r="F180" t="n">
-        <v>-0.005209463228732578</v>
+        <v>-0.002493927717341234</v>
       </c>
       <c r="G180" t="n">
-        <v>-0.002458838697848887</v>
+        <v>0.00337234776160984</v>
       </c>
       <c r="H180" t="n">
         <v>-0.004617912969434687</v>
@@ -6577,10 +6577,10 @@
         <v>0.02926700166155083</v>
       </c>
       <c r="F181" t="n">
-        <v>-0.003419488305441219</v>
+        <v>0.003303688829278999</v>
       </c>
       <c r="G181" t="n">
-        <v>0.02704269951547768</v>
+        <v>0.01594431662407905</v>
       </c>
       <c r="H181" t="n">
         <v>0.001231767961678292</v>
@@ -6612,10 +6612,10 @@
         <v>0.03809988759346033</v>
       </c>
       <c r="F182" t="n">
-        <v>-0.05171263363203889</v>
+        <v>-0.06102681203890413</v>
       </c>
       <c r="G182" t="n">
-        <v>0.01917056796384229</v>
+        <v>0.03386198267108605</v>
       </c>
       <c r="H182" t="n">
         <v>-0.02807538422011206</v>
@@ -6647,10 +6647,10 @@
         <v>0.0409727931145317</v>
       </c>
       <c r="F183" t="n">
-        <v>0.06516521882860088</v>
+        <v>-0.03795368662364346</v>
       </c>
       <c r="G183" t="n">
-        <v>0.01630357793357507</v>
+        <v>0.0543870014717373</v>
       </c>
       <c r="H183" t="n">
         <v>0.005796932752363012</v>
@@ -6682,10 +6682,10 @@
         <v>0.008530044351216405</v>
       </c>
       <c r="F184" t="n">
-        <v>-0.04419207958486124</v>
+        <v>-0.01742189126630959</v>
       </c>
       <c r="G184" t="n">
-        <v>-0.005063579568319597</v>
+        <v>0.01339618801422353</v>
       </c>
       <c r="H184" t="n">
         <v>-0.01754450792818456</v>
@@ -6717,10 +6717,10 @@
         <v>-0.003389939758442487</v>
       </c>
       <c r="F185" t="n">
-        <v>0.0712025215837911</v>
+        <v>0.002260804291726187</v>
       </c>
       <c r="G185" t="n">
-        <v>0.008103955110192197</v>
+        <v>0.01431958317414814</v>
       </c>
       <c r="H185" t="n">
         <v>0.01812494774723266</v>
@@ -6752,10 +6752,10 @@
         <v>0.001400563945522838</v>
       </c>
       <c r="F186" t="n">
-        <v>-0.05041194916131662</v>
+        <v>0.0002993805609710744</v>
       </c>
       <c r="G186" t="n">
-        <v>-0.007884116224939763</v>
+        <v>-0.01415351083402951</v>
       </c>
       <c r="H186" t="n">
         <v>-0.01214494099951471</v>
@@ -6787,10 +6787,10 @@
         <v>-0.02067631689572678</v>
       </c>
       <c r="F187" t="n">
-        <v>0.006158799289341287</v>
+        <v>-0.008792100841043142</v>
       </c>
       <c r="G187" t="n">
-        <v>-0.01381258226251978</v>
+        <v>-0.01086608130985582</v>
       </c>
       <c r="H187" t="n">
         <v>-0.004272294195664788</v>
@@ -6822,10 +6822,10 @@
         <v>-0.009403452145795433</v>
       </c>
       <c r="F188" t="n">
-        <v>-0.005756854293719664</v>
+        <v>0.009653099957217233</v>
       </c>
       <c r="G188" t="n">
-        <v>-0.01273666190976594</v>
+        <v>-0.01570536273648273</v>
       </c>
       <c r="H188" t="n">
         <v>0.0009998124261278735</v>
@@ -6857,10 +6857,10 @@
         <v>-0.002801378304377926</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.01150230500888393</v>
+        <v>0.01615414524642488</v>
       </c>
       <c r="G189" t="n">
-        <v>-0.01010618716612937</v>
+        <v>0.001226662994838375</v>
       </c>
       <c r="H189" t="n">
         <v>0.0151119223531044</v>
@@ -6892,10 +6892,10 @@
         <v>-0.0001038259632229355</v>
       </c>
       <c r="F190" t="n">
-        <v>0.01376307714534182</v>
+        <v>-0.01581977973962698</v>
       </c>
       <c r="G190" t="n">
-        <v>0.02787276070289253</v>
+        <v>-0.02943121452254292</v>
       </c>
       <c r="H190" t="n">
         <v>-0.004716756062384572</v>
@@ -6927,10 +6927,10 @@
         <v>0.02390058784497304</v>
       </c>
       <c r="F191" t="n">
-        <v>0.0168768889717953</v>
+        <v>0.003744915762843242</v>
       </c>
       <c r="G191" t="n">
-        <v>0.03541560960555506</v>
+        <v>0.02747927931823633</v>
       </c>
       <c r="H191" t="n">
         <v>-0.00639756290821627</v>
@@ -6962,10 +6962,10 @@
         <v>0.01771525605328006</v>
       </c>
       <c r="F192" t="n">
-        <v>-0.02656024273652884</v>
+        <v>-0.004470361604380546</v>
       </c>
       <c r="G192" t="n">
-        <v>0.002390100785055506</v>
+        <v>0.04021778175117155</v>
       </c>
       <c r="H192" t="n">
         <v>-0.01797567393254543</v>
@@ -6997,10 +6997,10 @@
         <v>-0.01374307210625688</v>
       </c>
       <c r="F193" t="n">
-        <v>0.02180319204097149</v>
+        <v>0.00145726319433214</v>
       </c>
       <c r="G193" t="n">
-        <v>-0.02234635382149115</v>
+        <v>0.004557507268436289</v>
       </c>
       <c r="H193" t="n">
         <v>0.01527316601527801</v>
@@ -7032,10 +7032,10 @@
         <v>-0.0160002218095681</v>
       </c>
       <c r="F194" t="n">
-        <v>-0.03148601958301159</v>
+        <v>-0.011596362451966</v>
       </c>
       <c r="G194" t="n">
-        <v>-0.01402791148348624</v>
+        <v>-0.03952102906738737</v>
       </c>
       <c r="H194" t="n">
         <v>-0.003077287935603199</v>
@@ -7067,10 +7067,10 @@
         <v>0.01750942496380275</v>
       </c>
       <c r="F195" t="n">
-        <v>0.02650812404449434</v>
+        <v>0.005400413748321675</v>
       </c>
       <c r="G195" t="n">
-        <v>0.04385893124598261</v>
+        <v>0.0212753071179671</v>
       </c>
       <c r="H195" t="n">
         <v>0.007216693156319304</v>
@@ -7102,10 +7102,10 @@
         <v>-0.006190197677363886</v>
       </c>
       <c r="F196" t="n">
-        <v>-0.02870624414487195</v>
+        <v>0.008652552626612135</v>
       </c>
       <c r="G196" t="n">
-        <v>-0.02034655071083631</v>
+        <v>0.007674812589028756</v>
       </c>
       <c r="H196" t="n">
         <v>-0.0006958121192594409</v>
@@ -7137,10 +7137,10 @@
         <v>0.01309259143360257</v>
       </c>
       <c r="F197" t="n">
-        <v>0.02147386378810263</v>
+        <v>0.003003705365214102</v>
       </c>
       <c r="G197" t="n">
-        <v>0.03352529678638234</v>
+        <v>-0.001030150321534863</v>
       </c>
       <c r="H197" t="n">
         <v>0.005931519427042316</v>
@@ -7172,10 +7172,10 @@
         <v>0.005248838941438263</v>
       </c>
       <c r="F198" t="n">
-        <v>-0.002933667341797787</v>
+        <v>0.01756146239709852</v>
       </c>
       <c r="G198" t="n">
-        <v>-0.007879055565902227</v>
+        <v>0.009060300805899923</v>
       </c>
       <c r="H198" t="n">
         <v>-0.003546642526692245</v>
@@ -7207,10 +7207,10 @@
         <v>0.0002680305252282583</v>
       </c>
       <c r="F199" t="n">
-        <v>0.01400468496649104</v>
+        <v>0.006743737681417328</v>
       </c>
       <c r="G199" t="n">
-        <v>0.02325946089119413</v>
+        <v>0.01732110712371571</v>
       </c>
       <c r="H199" t="n">
         <v>0.003624594400893597</v>
@@ -7242,10 +7242,10 @@
         <v>0.02413401939650875</v>
       </c>
       <c r="F200" t="n">
-        <v>-0.0008224798085290633</v>
+        <v>0.009377159915646202</v>
       </c>
       <c r="G200" t="n">
-        <v>0.01443399890345791</v>
+        <v>0.0306634887713159</v>
       </c>
       <c r="H200" t="n">
         <v>0.002893688988297968</v>
@@ -7277,10 +7277,10 @@
         <v>0.007365475901646757</v>
       </c>
       <c r="F201" t="n">
-        <v>0.002663247224411767</v>
+        <v>0.002775245743762852</v>
       </c>
       <c r="G201" t="n">
-        <v>0.004016443992904109</v>
+        <v>0.001173403510387729</v>
       </c>
       <c r="H201" t="n">
         <v>-0.004054264163384482</v>
@@ -7312,10 +7312,10 @@
         <v>-0.003035540304817786</v>
       </c>
       <c r="F202" t="n">
-        <v>-0.001941635625885171</v>
+        <v>-0.004149219923218114</v>
       </c>
       <c r="G202" t="n">
-        <v>0.006113845431493892</v>
+        <v>-0.007798651244722455</v>
       </c>
       <c r="H202" t="n">
         <v>-0.006781918947072179</v>
@@ -7347,10 +7347,10 @@
         <v>0.006974197999926757</v>
       </c>
       <c r="F203" t="n">
-        <v>-0.01512517564608592</v>
+        <v>-0.02011790786669546</v>
       </c>
       <c r="G203" t="n">
-        <v>-0.006414191094088605</v>
+        <v>-0.008628628267764383</v>
       </c>
       <c r="H203" t="n">
         <v>-0.01005536577132341</v>
@@ -7382,10 +7382,10 @@
         <v>-0.0002783580985951523</v>
       </c>
       <c r="F204" t="n">
-        <v>0.005078185861863449</v>
+        <v>-0.02849935716412985</v>
       </c>
       <c r="G204" t="n">
-        <v>-0.0005153051785785883</v>
+        <v>-0.01905709334604198</v>
       </c>
       <c r="H204" t="n">
         <v>-0.01559535695592613</v>
@@ -7417,10 +7417,10 @@
         <v>-0.02062776364859354</v>
       </c>
       <c r="F205" t="n">
-        <v>0.002545237528266575</v>
+        <v>-0.01982278268594417</v>
       </c>
       <c r="G205" t="n">
-        <v>-0.02756674805788975</v>
+        <v>-0.02343992704946691</v>
       </c>
       <c r="H205" t="n">
         <v>-0.01103693706084777</v>
@@ -7452,10 +7452,10 @@
         <v>-0.0001908422064084382</v>
       </c>
       <c r="F206" t="n">
-        <v>0.01307631894185446</v>
+        <v>-0.004595335266256113</v>
       </c>
       <c r="G206" t="n">
-        <v>0.00887079321091613</v>
+        <v>-0.005601376869168863</v>
       </c>
       <c r="H206" t="n">
         <v>0.009560013832960982</v>
@@ -7487,10 +7487,10 @@
         <v>-0.003572485335498633</v>
       </c>
       <c r="F207" t="n">
-        <v>0.004639331154027081</v>
+        <v>0.005456663224897196</v>
       </c>
       <c r="G207" t="n">
-        <v>0.01257753673961528</v>
+        <v>0.007053038715761351</v>
       </c>
       <c r="H207" t="n">
         <v>-0.01106168343616568</v>
@@ -7522,10 +7522,10 @@
         <v>0.0009867516192832325</v>
       </c>
       <c r="F208" t="n">
-        <v>0.002179360608518591</v>
+        <v>0.01637385665974233</v>
       </c>
       <c r="G208" t="n">
-        <v>-0.003365574750406354</v>
+        <v>0.02770365637571772</v>
       </c>
       <c r="H208" t="n">
         <v>0.002049859638882661</v>
@@ -7557,10 +7557,10 @@
         <v>-0.01135569624204194</v>
       </c>
       <c r="F209" t="n">
-        <v>0.01269874684770619</v>
+        <v>0.0271820298987521</v>
       </c>
       <c r="G209" t="n">
-        <v>0.001308882758432927</v>
+        <v>0.007420633516560571</v>
       </c>
       <c r="H209" t="n">
         <v>0.005370422559749881</v>
@@ -7592,10 +7592,10 @@
         <v>-0.0008936724035459639</v>
       </c>
       <c r="F210" t="n">
-        <v>-0.01898207306191208</v>
+        <v>-0.01135880071202328</v>
       </c>
       <c r="G210" t="n">
-        <v>-0.01325291936472375</v>
+        <v>-0.03213040849674507</v>
       </c>
       <c r="H210" t="n">
         <v>0.003882671141274296</v>
@@ -7627,10 +7627,10 @@
         <v>0.0008778764328753585</v>
       </c>
       <c r="F211" t="n">
-        <v>0.01936014066500338</v>
+        <v>-0.002223201773747614</v>
       </c>
       <c r="G211" t="n">
-        <v>0.0320379473338539</v>
+        <v>-0.02034960563981647</v>
       </c>
       <c r="H211" t="n">
         <v>-0.001352280022174975</v>
@@ -7662,10 +7662,10 @@
         <v>-0.01086674728755826</v>
       </c>
       <c r="F212" t="n">
-        <v>-0.01160612857078275</v>
+        <v>0.001819358485781949</v>
       </c>
       <c r="G212" t="n">
-        <v>-0.00961135752919764</v>
+        <v>-0.01520409291576235</v>
       </c>
       <c r="H212" t="n">
         <v>0.002965998452876928</v>
@@ -7697,10 +7697,10 @@
         <v>0.001094962106761699</v>
       </c>
       <c r="F213" t="n">
-        <v>0.000894135950841147</v>
+        <v>-0.007723171153033723</v>
       </c>
       <c r="G213" t="n">
-        <v>0.01197064458824599</v>
+        <v>-0.01335340391448054</v>
       </c>
       <c r="H213" t="n">
         <v>-0.001850760142738647</v>
@@ -7732,10 +7732,10 @@
         <v>0.003997510990536713</v>
       </c>
       <c r="F214" t="n">
-        <v>-0.009107392004133651</v>
+        <v>-0.02085497046586869</v>
       </c>
       <c r="G214" t="n">
-        <v>0.007627490771182188</v>
+        <v>-0.004408022202001582</v>
       </c>
       <c r="H214" t="n">
         <v>-0.005602181606457279</v>
@@ -7767,10 +7767,10 @@
         <v>-0.003756305692703754</v>
       </c>
       <c r="F215" t="n">
-        <v>0.01946388159446406</v>
+        <v>-0.0006407353760696059</v>
       </c>
       <c r="G215" t="n">
-        <v>-0.00130538249058778</v>
+        <v>-0.004824302548822311</v>
       </c>
       <c r="H215" t="n">
         <v>0.004342226474041298</v>
@@ -7802,10 +7802,10 @@
         <v>0.003512096910687501</v>
       </c>
       <c r="F216" t="n">
-        <v>-0.02441052132852117</v>
+        <v>-0.0007919542277844329</v>
       </c>
       <c r="G216" t="n">
-        <v>-0.01882127903517779</v>
+        <v>-0.001577687879578486</v>
       </c>
       <c r="H216" t="n">
         <v>0.01020124809372936</v>
@@ -7837,10 +7837,10 @@
         <v>0.0007791595915854098</v>
       </c>
       <c r="F217" t="n">
-        <v>0.006440149937405993</v>
+        <v>-0.0009257659721670581</v>
       </c>
       <c r="G217" t="n">
-        <v>0.01658423484253142</v>
+        <v>-0.007982177043969484</v>
       </c>
       <c r="H217" t="n">
         <v>-0.001095137068998163</v>
@@ -7872,10 +7872,10 @@
         <v>-0.01247407175103719</v>
       </c>
       <c r="F218" t="n">
-        <v>-0.02430726657068307</v>
+        <v>-0.01864327569592388</v>
       </c>
       <c r="G218" t="n">
-        <v>-0.02224151838032644</v>
+        <v>-0.01200709161173186</v>
       </c>
       <c r="H218" t="n">
         <v>-0.008198854122100599</v>
@@ -7907,10 +7907,10 @@
         <v>0.001795878653687709</v>
       </c>
       <c r="F219" t="n">
-        <v>0.0162289616972746</v>
+        <v>-0.02362953420405997</v>
       </c>
       <c r="G219" t="n">
-        <v>0.01991230205066579</v>
+        <v>-0.01110714935860857</v>
       </c>
       <c r="H219" t="n">
         <v>-0.006275057970294034</v>
@@ -7942,10 +7942,10 @@
         <v>-0.0004092990863757916</v>
       </c>
       <c r="F220" t="n">
-        <v>0.008992728567969569</v>
+        <v>-0.02362529471822788</v>
       </c>
       <c r="G220" t="n">
-        <v>-0.004517330599281033</v>
+        <v>-0.01247694450645702</v>
       </c>
       <c r="H220" t="n">
         <v>0.0009560894410505528</v>
@@ -7977,10 +7977,10 @@
         <v>0.01904444431736216</v>
       </c>
       <c r="F221" t="n">
-        <v>0.009447850866831177</v>
+        <v>0.006830499029333771</v>
       </c>
       <c r="G221" t="n">
-        <v>0.02653582751542443</v>
+        <v>0.01271290738598366</v>
       </c>
       <c r="H221" t="n">
         <v>-0.0006029330231922302</v>
@@ -8012,10 +8012,10 @@
         <v>0.001142870668647534</v>
       </c>
       <c r="F222" t="n">
-        <v>-0.004282398569625955</v>
+        <v>-0.004609798684670085</v>
       </c>
       <c r="G222" t="n">
-        <v>0.009462176857487493</v>
+        <v>0.01298678387186789</v>
       </c>
       <c r="H222" t="n">
         <v>-0.008822935804858458</v>
@@ -8047,10 +8047,10 @@
         <v>-0.009672949715683332</v>
       </c>
       <c r="F223" t="n">
-        <v>-0.01232647900107769</v>
+        <v>-0.02651225074232578</v>
       </c>
       <c r="G223" t="n">
-        <v>-0.0405751421859309</v>
+        <v>-0.008313059257553613</v>
       </c>
       <c r="H223" t="n">
         <v>-0.005871564479914644</v>
@@ -8082,10 +8082,10 @@
         <v>0.005847251089855754</v>
       </c>
       <c r="F224" t="n">
-        <v>-0.007711714672410861</v>
+        <v>-0.01034522987106879</v>
       </c>
       <c r="G224" t="n">
-        <v>0.004847907229907801</v>
+        <v>-0.01506471497277018</v>
       </c>
       <c r="H224" t="n">
         <v>0.003445502391786912</v>
@@ -8117,10 +8117,10 @@
         <v>-0.001576310683840254</v>
       </c>
       <c r="F225" t="n">
-        <v>0.0001484008351359178</v>
+        <v>-0.01450608054852528</v>
       </c>
       <c r="G225" t="n">
-        <v>-0.0002347668840678939</v>
+        <v>-0.0156817209766942</v>
       </c>
       <c r="H225" t="n">
         <v>0.003615387725203702</v>
@@ -8152,10 +8152,10 @@
         <v>-0.006028727578386905</v>
       </c>
       <c r="F226" t="n">
-        <v>0.02086604770072328</v>
+        <v>0.01172580666341977</v>
       </c>
       <c r="G226" t="n">
-        <v>0.006857721627902369</v>
+        <v>0.002317468589564719</v>
       </c>
       <c r="H226" t="n">
         <v>0.002064044433206249</v>
@@ -8187,10 +8187,10 @@
         <v>0.003674361802618686</v>
       </c>
       <c r="F227" t="n">
-        <v>-0.02011752226772139</v>
+        <v>-0.007226457629381389</v>
       </c>
       <c r="G227" t="n">
-        <v>-0.005531822499097806</v>
+        <v>-0.003023971882939636</v>
       </c>
       <c r="H227" t="n">
         <v>-0.002769879922949413</v>
@@ -8222,10 +8222,10 @@
         <v>-0.0003969422306329346</v>
       </c>
       <c r="F228" t="n">
-        <v>-0.000123898570020653</v>
+        <v>-0.01675890460715029</v>
       </c>
       <c r="G228" t="n">
-        <v>0.00234998726732829</v>
+        <v>0.007586386288389657</v>
       </c>
       <c r="H228" t="n">
         <v>-0.01287819068839968</v>
@@ -8257,10 +8257,10 @@
         <v>0.005777955494249887</v>
       </c>
       <c r="F229" t="n">
-        <v>-0.01658984795347685</v>
+        <v>-0.03106442080025497</v>
       </c>
       <c r="G229" t="n">
-        <v>-0.01567477923786138</v>
+        <v>-0.004965022705623113</v>
       </c>
       <c r="H229" t="n">
         <v>-0.006305232500053163</v>
@@ -8292,10 +8292,10 @@
         <v>0.01294463338559766</v>
       </c>
       <c r="F230" t="n">
-        <v>-0.006273441669712478</v>
+        <v>-0.002883053160785978</v>
       </c>
       <c r="G230" t="n">
-        <v>0.03887081135370665</v>
+        <v>0.01425536157466911</v>
       </c>
       <c r="H230" t="n">
         <v>-0.01546771016410155</v>
@@ -8327,10 +8327,10 @@
         <v>0.02119132859698367</v>
       </c>
       <c r="F231" t="n">
-        <v>0.007009294967691309</v>
+        <v>0.009249372962811826</v>
       </c>
       <c r="G231" t="n">
-        <v>0.008030148287289939</v>
+        <v>0.02916896250597651</v>
       </c>
       <c r="H231" t="n">
         <v>-0.0008412597306740347</v>
@@ -8362,10 +8362,10 @@
         <v>0.003772330041373227</v>
       </c>
       <c r="F232" t="n">
-        <v>-0.01065138139133543</v>
+        <v>-0.01161788385661688</v>
       </c>
       <c r="G232" t="n">
-        <v>0.007739564687232138</v>
+        <v>0.009324102338581297</v>
       </c>
       <c r="H232" t="n">
         <v>-0.01316169140133569</v>
@@ -8397,10 +8397,10 @@
         <v>0.01528349986112745</v>
       </c>
       <c r="F233" t="n">
-        <v>0.005657516616958172</v>
+        <v>-0.01328906922944579</v>
       </c>
       <c r="G233" t="n">
-        <v>0.01030907022306038</v>
+        <v>0.02433574039854713</v>
       </c>
       <c r="H233" t="n">
         <v>-0.00620492967028865</v>
@@ -8432,10 +8432,10 @@
         <v>-0.004089199155645873</v>
       </c>
       <c r="F234" t="n">
-        <v>0.003054548485841569</v>
+        <v>0.0003259064128203113</v>
       </c>
       <c r="G234" t="n">
-        <v>0.007321628287747028</v>
+        <v>0.002346636241899569</v>
       </c>
       <c r="H234" t="n">
         <v>8.476628207707872e-05</v>
@@ -8467,10 +8467,10 @@
         <v>0.003812200098536511</v>
       </c>
       <c r="F235" t="n">
-        <v>0.02717858801067397</v>
+        <v>0.0101165864665398</v>
       </c>
       <c r="G235" t="n">
-        <v>0.02104819718168482</v>
+        <v>0.01801503146315497</v>
       </c>
       <c r="H235" t="n">
         <v>-0.002913712413127669</v>
@@ -8502,10 +8502,10 @@
         <v>0.03209232529273574</v>
       </c>
       <c r="F236" t="n">
-        <v>0.009990874076663115</v>
+        <v>0.0230889904793035</v>
       </c>
       <c r="G236" t="n">
-        <v>0.03425929844664921</v>
+        <v>0.03363015650639047</v>
       </c>
       <c r="H236" t="n">
         <v>0.005746218690118243</v>
@@ -8537,10 +8537,10 @@
         <v>0.005376591480766881</v>
       </c>
       <c r="F237" t="n">
-        <v>-0.01459218714797174</v>
+        <v>-0.005986258952723551</v>
       </c>
       <c r="G237" t="n">
-        <v>-0.008081077583977647</v>
+        <v>0.01809016659896244</v>
       </c>
       <c r="H237" t="n">
         <v>0.0001329363647556807</v>
@@ -8572,10 +8572,10 @@
         <v>0.006863819855096677</v>
       </c>
       <c r="F238" t="n">
-        <v>0.009864421210923006</v>
+        <v>-0.009955339889378877</v>
       </c>
       <c r="G238" t="n">
-        <v>0.01995759172543401</v>
+        <v>0.01059032649068177</v>
       </c>
       <c r="H238" t="n">
         <v>-0.002738196858480374</v>
@@ -8607,10 +8607,10 @@
         <v>-0.006238631322994847</v>
       </c>
       <c r="F239" t="n">
-        <v>0.01346652086774049</v>
+        <v>0.02482042765490703</v>
       </c>
       <c r="G239" t="n">
-        <v>-0.0031939217850103</v>
+        <v>0.01240445966303157</v>
       </c>
       <c r="H239" t="n">
         <v>0.005856572125748419</v>
@@ -8642,10 +8642,10 @@
         <v>0.007818123051158143</v>
       </c>
       <c r="F240" t="n">
-        <v>-0.01741202198257265</v>
+        <v>0.002486675238825405</v>
       </c>
       <c r="G240" t="n">
-        <v>-0.006137954483814289</v>
+        <v>-0.005412598540844748</v>
       </c>
       <c r="H240" t="n">
         <v>-0.004104899869073446</v>
@@ -8677,10 +8677,10 @@
         <v>-0.01066473397473475</v>
       </c>
       <c r="F241" t="n">
-        <v>-0.004983683653205543</v>
+        <v>-0.008642212385027362</v>
       </c>
       <c r="G241" t="n">
-        <v>-0.005227871671545014</v>
+        <v>-0.001369159428435051</v>
       </c>
       <c r="H241" t="n">
         <v>-0.01117251233753107</v>
@@ -8712,10 +8712,10 @@
         <v>0.01245879764168041</v>
       </c>
       <c r="F242" t="n">
-        <v>-0.02357046288403748</v>
+        <v>-0.01779541267185459</v>
       </c>
       <c r="G242" t="n">
-        <v>-0.0132068534584592</v>
+        <v>-0.009550271112849631</v>
       </c>
       <c r="H242" t="n">
         <v>-0.005757031373108796</v>
@@ -8747,10 +8747,10 @@
         <v>0.02132566961590605</v>
       </c>
       <c r="F243" t="n">
-        <v>0.01729977721508282</v>
+        <v>-0.009034478949337597</v>
       </c>
       <c r="G243" t="n">
-        <v>0.02578246647896217</v>
+        <v>0.017503065705919</v>
       </c>
       <c r="H243" t="n">
         <v>-0.001988294491331345</v>
@@ -8782,10 +8782,10 @@
         <v>0.003884194408562536</v>
       </c>
       <c r="F244" t="n">
-        <v>-0.003740985945178485</v>
+        <v>-0.01811683990026706</v>
       </c>
       <c r="G244" t="n">
-        <v>0.005224767963416864</v>
+        <v>-0.003368845136107469</v>
       </c>
       <c r="H244" t="n">
         <v>0.004089313806927376</v>
@@ -8817,10 +8817,10 @@
         <v>0.0009894430476541129</v>
       </c>
       <c r="F245" t="n">
-        <v>0.01625949465590409</v>
+        <v>3.323989209912115e-05</v>
       </c>
       <c r="G245" t="n">
-        <v>0.01311932365516697</v>
+        <v>-0.01580597157580995</v>
       </c>
       <c r="H245" t="n">
         <v>-0.00196332282600262</v>
@@ -8852,10 +8852,10 @@
         <v>-0.0006442175513522875</v>
       </c>
       <c r="F246" t="n">
-        <v>-0.001188276080113054</v>
+        <v>0.006854372539807223</v>
       </c>
       <c r="G246" t="n">
-        <v>-0.00333297599420457</v>
+        <v>0.01263937981902041</v>
       </c>
       <c r="H246" t="n">
         <v>-0.007572720756429357</v>
@@ -8887,10 +8887,10 @@
         <v>-0.0006955120061630012</v>
       </c>
       <c r="F247" t="n">
-        <v>0.005014983564057217</v>
+        <v>0.008074369646052135</v>
       </c>
       <c r="G247" t="n">
-        <v>0.008864773498046152</v>
+        <v>-0.01038672431372356</v>
       </c>
       <c r="H247" t="n">
         <v>0.009207213251457369</v>
@@ -8922,10 +8922,10 @@
         <v>-0.01591768358043064</v>
       </c>
       <c r="F248" t="n">
-        <v>-0.007792072984164283</v>
+        <v>-0.01130905205876704</v>
       </c>
       <c r="G248" t="n">
-        <v>-0.01187327763291955</v>
+        <v>-0.0196531293742343</v>
       </c>
       <c r="H248" t="n">
         <v>-0.0008981508663268209</v>
@@ -8957,10 +8957,10 @@
         <v>0.01429762031647412</v>
       </c>
       <c r="F249" t="n">
-        <v>0.02521564369112915</v>
+        <v>-0.003492460354543158</v>
       </c>
       <c r="G249" t="n">
-        <v>0.03807071913281115</v>
+        <v>-0.005898501098453605</v>
       </c>
       <c r="H249" t="n">
         <v>0.002115654425508573</v>
@@ -8992,10 +8992,10 @@
         <v>0.009030641990609991</v>
       </c>
       <c r="F250" t="n">
-        <v>-0.006632411001922335</v>
+        <v>0.009155149348669324</v>
       </c>
       <c r="G250" t="n">
-        <v>-0.00566219117258402</v>
+        <v>0.003063087176919832</v>
       </c>
       <c r="H250" t="n">
         <v>0.009520155534242248</v>
@@ -9027,10 +9027,10 @@
         <v>0.0161543517299005</v>
       </c>
       <c r="F251" t="n">
-        <v>-0.009470319276736864</v>
+        <v>0.009011280308084768</v>
       </c>
       <c r="G251" t="n">
-        <v>0.0009979598335175159</v>
+        <v>0.02819735339162359</v>
       </c>
       <c r="H251" t="n">
         <v>-0.002047843383819298</v>
@@ -9062,10 +9062,10 @@
         <v>0.003389674987140044</v>
       </c>
       <c r="F252" t="n">
-        <v>-0.007172436480441381</v>
+        <v>-0.003986542698288076</v>
       </c>
       <c r="G252" t="n">
-        <v>-0.01299237249689396</v>
+        <v>0.000285787753160861</v>
       </c>
       <c r="H252" t="n">
         <v>0.0007795512943154651</v>
@@ -9097,10 +9097,10 @@
         <v>0.00585608738057226</v>
       </c>
       <c r="F253" t="n">
-        <v>-0.00191580811095988</v>
+        <v>-0.00923862666117976</v>
       </c>
       <c r="G253" t="n">
-        <v>0.01157195847377739</v>
+        <v>-0.01028958405126092</v>
       </c>
       <c r="H253" t="n">
         <v>0.0001242130927250427</v>
@@ -9132,10 +9132,10 @@
         <v>0.01465744734501138</v>
       </c>
       <c r="F254" t="n">
-        <v>0.0296269707346535</v>
+        <v>-0.001362412624882152</v>
       </c>
       <c r="G254" t="n">
-        <v>0.02489505928383269</v>
+        <v>-0.0007798578882673331</v>
       </c>
       <c r="H254" t="n">
         <v>0.001616752581182134</v>
@@ -9167,10 +9167,10 @@
         <v>-0.0006208695882298435</v>
       </c>
       <c r="F255" t="n">
-        <v>-0.005461390859997193</v>
+        <v>0.01152791413111882</v>
       </c>
       <c r="G255" t="n">
-        <v>-0.0121069590681957</v>
+        <v>0.001909226947774423</v>
       </c>
       <c r="H255" t="n">
         <v>0.001305262410057035</v>
@@ -9202,10 +9202,10 @@
         <v>-0.00433330918704429</v>
       </c>
       <c r="F256" t="n">
-        <v>0.01843215981048288</v>
+        <v>0.02520853392328271</v>
       </c>
       <c r="G256" t="n">
-        <v>-0.0009170870294456859</v>
+        <v>3.598775026316531e-05</v>
       </c>
       <c r="H256" t="n">
         <v>0.007161275357695934</v>
@@ -9237,10 +9237,10 @@
         <v>-0.01308588087036069</v>
       </c>
       <c r="F257" t="n">
-        <v>-0.03254077617405009</v>
+        <v>0.01623594747070503</v>
       </c>
       <c r="G257" t="n">
-        <v>-0.03620374465093516</v>
+        <v>0.010271817100198</v>
       </c>
       <c r="H257" t="n">
         <v>0.002346772815346875</v>
@@ -9272,10 +9272,10 @@
         <v>-0.004178158810090692</v>
       </c>
       <c r="F258" t="n">
-        <v>-0.001791856705971225</v>
+        <v>-0.002408131865542612</v>
       </c>
       <c r="G258" t="n">
-        <v>0.01262750125084564</v>
+        <v>-0.01067944170868402</v>
       </c>
       <c r="H258" t="n">
         <v>-0.007344639487142795</v>
@@ -9307,10 +9307,10 @@
         <v>0.01521632943825389</v>
       </c>
       <c r="F259" t="n">
-        <v>-0.002199233571607696</v>
+        <v>0.009561251918141811</v>
       </c>
       <c r="G259" t="n">
-        <v>0.01624070846732417</v>
+        <v>0.02133154798111229</v>
       </c>
       <c r="H259" t="n">
         <v>-0.002311715758083901</v>
@@ -9342,10 +9342,10 @@
         <v>-0.003925745309103989</v>
       </c>
       <c r="F260" t="n">
-        <v>-0.005728017415358539</v>
+        <v>-0.01158778175944493</v>
       </c>
       <c r="G260" t="n">
-        <v>-0.009362078234321914</v>
+        <v>0.004394211126555626</v>
       </c>
       <c r="H260" t="n">
         <v>-0.006791416075859452</v>
@@ -9377,10 +9377,10 @@
         <v>0.01753228120271415</v>
       </c>
       <c r="F261" t="n">
-        <v>-0.005750999361970077</v>
+        <v>0.002239388664176457</v>
       </c>
       <c r="G261" t="n">
-        <v>0.01611114163228911</v>
+        <v>0.02016116499254446</v>
       </c>
       <c r="H261" t="n">
         <v>-0.002453021760235026</v>
@@ -9412,10 +9412,10 @@
         <v>0.01471216146245325</v>
       </c>
       <c r="F262" t="n">
-        <v>-0.0007341134780584264</v>
+        <v>0.01054868639590212</v>
       </c>
       <c r="G262" t="n">
-        <v>0.00685055210306993</v>
+        <v>0.01921732504337197</v>
       </c>
       <c r="H262" t="n">
         <v>0.0001789901342769741</v>
@@ -9447,10 +9447,10 @@
         <v>-0.002104962238808874</v>
       </c>
       <c r="F263" t="n">
-        <v>-0.0007705186636188452</v>
+        <v>-0.00675700339662445</v>
       </c>
       <c r="G263" t="n">
-        <v>-0.01737275365322262</v>
+        <v>-0.004658287982760491</v>
       </c>
       <c r="H263" t="n">
         <v>-0.001170782128885482</v>
@@ -9482,10 +9482,10 @@
         <v>-0.01386453792823159</v>
       </c>
       <c r="F264" t="n">
-        <v>0.02695901985512945</v>
+        <v>-0.004433334401388931</v>
       </c>
       <c r="G264" t="n">
-        <v>0.01487730407439678</v>
+        <v>0.004381718315410076</v>
       </c>
       <c r="H264" t="n">
         <v>-0.01023182154115101</v>
@@ -9517,10 +9517,10 @@
         <v>0.01627189728851424</v>
       </c>
       <c r="F265" t="n">
-        <v>-0.03632270862279124</v>
+        <v>-0.003201130593962659</v>
       </c>
       <c r="G265" t="n">
-        <v>-0.006919601640985418</v>
+        <v>0.02039010853404393</v>
       </c>
       <c r="H265" t="n">
         <v>-0.01046449266227458</v>
@@ -9552,10 +9552,10 @@
         <v>-0.001820540530758417</v>
       </c>
       <c r="F266" t="n">
-        <v>0.0232493657625514</v>
+        <v>-0.0009602665630920187</v>
       </c>
       <c r="G266" t="n">
-        <v>0.007367546306535667</v>
+        <v>0.006788339355342267</v>
       </c>
       <c r="H266" t="n">
         <v>0.00068488893787733</v>
@@ -9587,10 +9587,10 @@
         <v>-0.008005203088234537</v>
       </c>
       <c r="F267" t="n">
-        <v>0.002832326851570572</v>
+        <v>0.02168947166920369</v>
       </c>
       <c r="G267" t="n">
-        <v>-0.0116985928623977</v>
+        <v>0.005003030363566284</v>
       </c>
       <c r="H267" t="n">
         <v>0.007924724459184625</v>
@@ -9622,10 +9622,10 @@
         <v>-0.004584386424068379</v>
       </c>
       <c r="F268" t="n">
-        <v>0.004110642683584725</v>
+        <v>-0.001034728935529024</v>
       </c>
       <c r="G268" t="n">
-        <v>-0.007765469771540536</v>
+        <v>-0.002406790595707164</v>
       </c>
       <c r="H268" t="n">
         <v>0.001159268991561643</v>
@@ -9657,10 +9657,10 @@
         <v>-0.01586388010629498</v>
       </c>
       <c r="F269" t="n">
-        <v>0.03656692651554565</v>
+        <v>0.02442770807015833</v>
       </c>
       <c r="G269" t="n">
-        <v>0.001218311272509862</v>
+        <v>0.008437305468357149</v>
       </c>
       <c r="H269" t="n">
         <v>-0.002121738019316657</v>
@@ -9692,10 +9692,10 @@
         <v>-0.03914933062237946</v>
       </c>
       <c r="F270" t="n">
-        <v>-0.02638470447815159</v>
+        <v>0.01843646978658421</v>
       </c>
       <c r="G270" t="n">
-        <v>-0.06037032378286536</v>
+        <v>-0.01507972356716327</v>
       </c>
       <c r="H270" t="n">
         <v>-0.0001185485197985397</v>
@@ -9727,10 +9727,10 @@
         <v>-0.01329695652180349</v>
       </c>
       <c r="F271" t="n">
-        <v>0.03431635659309937</v>
+        <v>0.005763947123102083</v>
       </c>
       <c r="G271" t="n">
-        <v>0.01868774306293524</v>
+        <v>-0.01789887564129188</v>
       </c>
       <c r="H271" t="n">
         <v>0.007865904571447259</v>
@@ -9762,10 +9762,10 @@
         <v>-0.008432289481302389</v>
       </c>
       <c r="F272" t="n">
-        <v>0.01252998665134378</v>
+        <v>0.02956637564191412</v>
       </c>
       <c r="G272" t="n">
-        <v>0.005863928962408213</v>
+        <v>0.02066360623960668</v>
       </c>
       <c r="H272" t="n">
         <v>0.003501072094866122</v>
@@ -9797,10 +9797,10 @@
         <v>0.03002672097321437</v>
       </c>
       <c r="F273" t="n">
-        <v>-0.03469329795309917</v>
+        <v>-0.0008273762384193575</v>
       </c>
       <c r="G273" t="n">
-        <v>-0.01606935976830384</v>
+        <v>0.04078783613454134</v>
       </c>
       <c r="H273" t="n">
         <v>-0.003891632645313821</v>
@@ -9832,10 +9832,10 @@
         <v>-0.05599476511755446</v>
       </c>
       <c r="F274" t="n">
-        <v>0.04984621873991449</v>
+        <v>0.05990348480722066</v>
       </c>
       <c r="G274" t="n">
-        <v>-0.0135863540285581</v>
+        <v>-0.02005115029333531</v>
       </c>
       <c r="H274" t="n">
         <v>0.01422722686452839</v>
@@ -9867,10 +9867,10 @@
         <v>-0.04119601684683853</v>
       </c>
       <c r="F275" t="n">
-        <v>-0.0261687404757684</v>
+        <v>0.003910486417102552</v>
       </c>
       <c r="G275" t="n">
-        <v>-0.04523625954175244</v>
+        <v>-0.04664106200502161</v>
       </c>
       <c r="H275" t="n">
         <v>-0.00102587364035046</v>
@@ -9902,10 +9902,10 @@
         <v>-0.001477655937740253</v>
       </c>
       <c r="F276" t="n">
-        <v>0.01417738432370254</v>
+        <v>-0.04197485316653523</v>
       </c>
       <c r="G276" t="n">
-        <v>0.01762314426360636</v>
+        <v>-0.03233728423594198</v>
       </c>
       <c r="H276" t="n">
         <v>0.005835565694231435</v>
@@ -9937,10 +9937,10 @@
         <v>0.01695263708744845</v>
       </c>
       <c r="F277" t="n">
-        <v>-0.01208730954715139</v>
+        <v>-0.01325201591471693</v>
       </c>
       <c r="G277" t="n">
-        <v>0.004507958772615561</v>
+        <v>0.002879107591868289</v>
       </c>
       <c r="H277" t="n">
         <v>-0.0006403985400540643</v>
@@ -9972,10 +9972,10 @@
         <v>-0.02065615686781188</v>
       </c>
       <c r="F278" t="n">
-        <v>0.04096306366990018</v>
+        <v>0.03456968283373082</v>
       </c>
       <c r="G278" t="n">
-        <v>0.003231609874981523</v>
+        <v>-0.01282333795237926</v>
       </c>
       <c r="H278" t="n">
         <v>0.01383005612759337</v>
@@ -10007,10 +10007,10 @@
         <v>0.02227373097965495</v>
       </c>
       <c r="F279" t="n">
-        <v>-0.01064827894015643</v>
+        <v>-0.01195478438339114</v>
       </c>
       <c r="G279" t="n">
-        <v>0.0129123755601315</v>
+        <v>0.01271491905085178</v>
       </c>
       <c r="H279" t="n">
         <v>-0.01232394458293305</v>
@@ -10042,10 +10042,10 @@
         <v>-0.03000008409804611</v>
       </c>
       <c r="F280" t="n">
-        <v>-0.0005820965539438915</v>
+        <v>-0.004322485586775383</v>
       </c>
       <c r="G280" t="n">
-        <v>-0.02479589557387743</v>
+        <v>-0.02776460086086521</v>
       </c>
       <c r="H280" t="n">
         <v>-0.002622813313168196</v>
@@ -10077,10 +10077,10 @@
         <v>0.02371826540944313</v>
       </c>
       <c r="F281" t="n">
-        <v>0.01969893198939187</v>
+        <v>-0.0175156198035912</v>
       </c>
       <c r="G281" t="n">
-        <v>0.04343540849498728</v>
+        <v>0.006671117648689238</v>
       </c>
       <c r="H281" t="n">
         <v>0.0004572423194743444</v>
